--- a/experiments/organizedData.xlsx
+++ b/experiments/organizedData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="38320" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35020" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="131">
   <si>
     <t>Website</t>
   </si>
@@ -306,12 +306,6 @@
     <t>WITH Chunking</t>
   </si>
   <si>
-    <t>Mobile CNN</t>
-  </si>
-  <si>
-    <t>Number of sites</t>
-  </si>
-  <si>
     <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay11MornMobile</t>
   </si>
   <si>
@@ -348,61 +342,76 @@
     <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay14EveMobile</t>
   </si>
   <si>
-    <t>DATA WITH CORRECT TOTAL VS CUMULATIVE</t>
-  </si>
-  <si>
-    <t>Bytes transferred for each website with chunking</t>
-  </si>
-  <si>
-    <t>Bytes transferred for each website without chunking</t>
-  </si>
-  <si>
-    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay11Morn</t>
-  </si>
-  <si>
-    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay11After</t>
-  </si>
-  <si>
-    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay11Eve</t>
-  </si>
-  <si>
-    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay12Morn</t>
-  </si>
-  <si>
-    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay12After</t>
-  </si>
-  <si>
-    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay12Eve</t>
-  </si>
-  <si>
-    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay13Morn</t>
-  </si>
-  <si>
-    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay13After</t>
-  </si>
-  <si>
-    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay13Eve</t>
-  </si>
-  <si>
-    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay14Morn</t>
-  </si>
-  <si>
-    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay14After</t>
-  </si>
-  <si>
-    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/cnn/cnnMay14Eve</t>
-  </si>
-  <si>
     <t>Avg proxy missrate over all inspected sites: 11.2585</t>
   </si>
   <si>
-    <t>WITH CHUNKING</t>
+    <t>CNN</t>
   </si>
   <si>
-    <t>WITHOUT CHUNKING</t>
+    <t>VISITS</t>
   </si>
   <si>
-    <t>Missrate</t>
+    <t>BYTES TRANSFERRED</t>
+  </si>
+  <si>
+    <t>CHUNKED</t>
+  </si>
+  <si>
+    <t>UNCHUNKED</t>
+  </si>
+  <si>
+    <t>IMPORTANT POINTS</t>
+  </si>
+  <si>
+    <t>0. MOTIVATION =&gt;Studies with desktop browser, but not with mobile browsers</t>
+  </si>
+  <si>
+    <t>1. X AXIS =&gt; plots the bytes transferred between device and proxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. RIGHT AXIS, LEFT AXIS =&gt; Mobile 1/5th </t>
+  </si>
+  <si>
+    <t>2. UNCHUNKED DATA =&gt; overtime same number of data being transferred (even if content stays relatively the same)</t>
+  </si>
+  <si>
+    <t>4. GREEN AND BLUE =&gt; chunked data. Starting point =&gt; empty cache, overhead of sending fingerprints</t>
+  </si>
+  <si>
+    <t>Avg proxy missrate over all inspected sites: 7.3019</t>
+  </si>
+  <si>
+    <t>Avg mobile missrate over all inspected sites: 8.7031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assuming cache has already been filled with the first visit. </t>
+  </si>
+  <si>
+    <t>5. Half the number of bytes</t>
+  </si>
+  <si>
+    <t>Chunk Size</t>
+  </si>
+  <si>
+    <t>6. Chunk size: 10 bytes</t>
+  </si>
+  <si>
+    <t>1. chunk size is an important factor, and we experimented with it</t>
+  </si>
+  <si>
+    <t>2. As expected the smaller the chunk was, the more likely it overlapped with other content</t>
+  </si>
+  <si>
+    <t>3. However, it wasn't as simple as choosing the smallest chunk size that made sense</t>
+  </si>
+  <si>
+    <t>4. In this graph, we can see that as chunk size increased, the bytes transferred actually decreased up till a certain point before flattening out</t>
+  </si>
+  <si>
+    <t>5. This is because: Since each chunk is represented by a fingerprint, if the chunk size is small it gets pretty expensive for the mobile device to communicate which chunks it needs</t>
+  </si>
+  <si>
+    <t>2. This graph shows…</t>
   </si>
 </sst>
 </file>
@@ -459,8 +468,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="709">
+  <cellStyleXfs count="721">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1175,7 +1196,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="709">
+  <cellStyles count="721">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1530,6 +1551,12 @@
     <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1884,6 +1911,12 @@
     <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1905,6 +1938,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effects of Chunk Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1922,20 +1974,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$172:$N$175</c:f>
+              <c:f>Sheet1!$T$34:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1943,20 +1992,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$172:$O$175</c:f>
+              <c:f>Sheet1!$U$34:$U$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.280164319248826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.280164319248826</c:v>
+                  <c:v>0.179929577464788</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.179929577464788</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.137558685446009</c:v>
                 </c:pt>
               </c:numCache>
@@ -1975,20 +2021,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$172:$N$175</c:f>
+              <c:f>Sheet1!$T$34:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1996,20 +2039,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$172:$P$175</c:f>
+              <c:f>Sheet1!$V$34:$V$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.32206572769953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32206572769953</c:v>
+                  <c:v>0.298826291079812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.298826291079812</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.259859154929577</c:v>
                 </c:pt>
               </c:numCache>
@@ -2028,20 +2068,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$172:$N$175</c:f>
+              <c:f>Sheet1!$T$34:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2049,20 +2086,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$172:$Q$175</c:f>
+              <c:f>Sheet1!$W$34:$W$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.399647887323943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.399647887323943</c:v>
+                  <c:v>0.399295774647887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.399295774647887</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.349647887323943</c:v>
                 </c:pt>
               </c:numCache>
@@ -2081,20 +2115,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$172:$N$175</c:f>
+              <c:f>Sheet1!$T$34:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2102,20 +2133,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$172:$R$175</c:f>
+              <c:f>Sheet1!$X$34:$X$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.38262910798122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38262910798122</c:v>
+                  <c:v>0.397183098591549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.397183098591549</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.376995305164319</c:v>
                 </c:pt>
               </c:numCache>
@@ -2134,20 +2162,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$172:$N$175</c:f>
+              <c:f>Sheet1!$T$34:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2155,20 +2180,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$172:$S$175</c:f>
+              <c:f>Sheet1!$Y$34:$Y$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.52112676056338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52112676056338</c:v>
+                  <c:v>0.46537558685446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46537558685446</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.432511737089201</c:v>
                 </c:pt>
               </c:numCache>
@@ -2187,20 +2209,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$172:$N$175</c:f>
+              <c:f>Sheet1!$T$34:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2208,20 +2227,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$172:$T$175</c:f>
+              <c:f>Sheet1!$Z$34:$Z$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.45281690140845</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45281690140845</c:v>
+                  <c:v>0.461971830985915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.461971830985915</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.416901408450704</c:v>
                 </c:pt>
               </c:numCache>
@@ -2240,20 +2256,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$172:$N$175</c:f>
+              <c:f>Sheet1!$T$34:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2261,20 +2274,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$172:$U$175</c:f>
+              <c:f>Sheet1!$AA$34:$AA$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.559934318555008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.559934318555008</c:v>
+                  <c:v>0.533661740558292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.533661740558292</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.488505747126436</c:v>
                 </c:pt>
               </c:numCache>
@@ -2293,20 +2303,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$172:$N$175</c:f>
+              <c:f>Sheet1!$T$34:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2314,20 +2321,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$172:$V$175</c:f>
+              <c:f>Sheet1!$AB$34:$AB$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.492957746478873</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.492957746478873</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.476056338028169</c:v>
                 </c:pt>
               </c:numCache>
@@ -2346,20 +2350,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$172:$N$175</c:f>
+              <c:f>Sheet1!$T$34:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2367,20 +2368,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$172:$W$175</c:f>
+              <c:f>Sheet1!$AC$34:$AC$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.593453009503695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.593453009503695</c:v>
+                  <c:v>0.554382259767687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.554382259767687</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.535374868004223</c:v>
                 </c:pt>
               </c:numCache>
@@ -2399,20 +2397,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$172:$N$175</c:f>
+              <c:f>Sheet1!$T$34:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2420,20 +2415,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$172:$X$175</c:f>
+              <c:f>Sheet1!$AD$34:$AD$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.57981220657277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57981220657277</c:v>
+                  <c:v>0.532863849765258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.532863849765258</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.498826291079812</c:v>
                 </c:pt>
               </c:numCache>
@@ -2451,21 +2443,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2096824440"/>
-        <c:axId val="2096831000"/>
+        <c:axId val="2079130600"/>
+        <c:axId val="2104393624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2096824440"/>
+        <c:axId val="2079130600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day of visit to cnn.com</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096831000"/>
+        <c:crossAx val="2104393624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2473,18 +2484,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096831000"/>
+        <c:axId val="2104393624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% of transferred Content</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096824440"/>
+        <c:crossAx val="2079130600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2520,6 +2550,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effects</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of chunk size on Bytes Transferred</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2537,7 +2591,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$200:$N$209</c:f>
+              <c:f>Sheet1!$AF$6:$AF$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2576,7 +2630,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$200:$O$209</c:f>
+              <c:f>Sheet1!$AG$6:$AG$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2625,8 +2679,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2097521928"/>
-        <c:axId val="2093172248"/>
+        <c:axId val="2104367832"/>
+        <c:axId val="2104370808"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2642,7 +2696,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$200:$N$209</c:f>
+              <c:f>Sheet1!$AF$6:$AF$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2681,7 +2735,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$200:$P$209</c:f>
+              <c:f>Sheet1!$AH$6:$AH$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2730,21 +2784,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095730008"/>
-        <c:axId val="2093048712"/>
+        <c:axId val="2104377144"/>
+        <c:axId val="2104373848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2097521928"/>
+        <c:axId val="2104367832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chunk Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093172248"/>
+        <c:crossAx val="2104370808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2752,38 +2825,81 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093172248"/>
+        <c:axId val="2104370808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bytes Transferred</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097521928"/>
+        <c:crossAx val="2104367832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2093048712"/>
+        <c:axId val="2104373848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Miss</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095730008"/>
+        <c:crossAx val="2104377144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2095730008"/>
+        <c:axId val="2104377144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2793,7 +2909,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093048712"/>
+        <c:crossAx val="2104373848"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3072,11 +3189,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2141943752"/>
-        <c:axId val="2098851640"/>
+        <c:axId val="2049930984"/>
+        <c:axId val="2103707752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2141943752"/>
+        <c:axId val="2049930984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3086,7 +3203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098851640"/>
+        <c:crossAx val="2103707752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3094,7 +3211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098851640"/>
+        <c:axId val="2103707752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,7 +3222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141943752"/>
+        <c:crossAx val="2049930984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3599,11 +3716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2141565768"/>
-        <c:axId val="2098730984"/>
+        <c:axId val="2078382008"/>
+        <c:axId val="2078409192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2141565768"/>
+        <c:axId val="2078382008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098730984"/>
+        <c:crossAx val="2078409192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3621,7 +3738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098730984"/>
+        <c:axId val="2078409192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3632,7 +3749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141565768"/>
+        <c:crossAx val="2078382008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3668,6 +3785,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bytes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Transferred between Device and Proxy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3675,17 +3816,17 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>MobileChunk</c:v>
+            <c:v>Desktop Chunked</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$S$28:$S$39</c:f>
+              <c:f>Sheet1!$P$4:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3730,209 +3871,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$28:$T$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>76680.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36304.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26644.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22304.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20080.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30382.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30158.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30298.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22864.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22808.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22570.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22808.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>MobileUnchunk</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$S$28:$S$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$U$28:$U$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>42600.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42600.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42600.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42600.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40960.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42600.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42600.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42600.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42600.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42600.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42600.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42600.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>RegChunk</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$S$28:$S$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$V$28:$V$39</c:f>
+              <c:f>Sheet1!$S$4:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3981,14 +3920,14 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>RegUnchunk</c:v>
+            <c:v>Desktop Unchunked</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$S$28:$S$39</c:f>
+              <c:f>Sheet1!$P$4:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4033,7 +3972,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$28:$W$39</c:f>
+              <c:f>Sheet1!$T$4:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4088,21 +4027,258 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2097118328"/>
-        <c:axId val="2096172600"/>
+        <c:axId val="2103756712"/>
+        <c:axId val="2103697416"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mobile Chunked</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$4:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>76680.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36304.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26644.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22304.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20080.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30382.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30158.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30298.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22864.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22808.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22570.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22808.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mobile Not Chunked</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$4:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42600.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42600.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42600.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40960.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42600.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42600.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42600.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42600.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42600.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2096654008"/>
+        <c:axId val="2097744664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2097118328"/>
+        <c:axId val="2103756712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of visits to cnn.com</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096172600"/>
+        <c:crossAx val="2103697416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4110,21 +4286,72 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096172600"/>
+        <c:axId val="2103697416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097118328"/>
+        <c:crossAx val="2103756712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="2097744664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2096654008"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2096654008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2097744664"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -4147,16 +4374,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4177,16 +4404,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4238,15 +4465,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4267,16 +4494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4621,10 +4848,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AH282"/>
+  <dimension ref="A1:AL282"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="N29" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="K113" workbookViewId="0">
+      <selection activeCell="AE131" sqref="AE131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4644,12 +4871,19 @@
     <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="P1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:34">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -4668,8 +4902,14 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4691,8 +4931,23 @@
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="P3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>111</v>
+      </c>
+      <c r="R3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4714,8 +4969,26 @@
       <c r="G4">
         <v>19818</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>76680</v>
+      </c>
+      <c r="R4">
+        <v>42600</v>
+      </c>
+      <c r="S4">
+        <v>406980</v>
+      </c>
+      <c r="T4">
+        <v>226100</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4737,8 +5010,32 @@
       <c r="G5">
         <v>24692</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>36304</v>
+      </c>
+      <c r="R5">
+        <v>42600</v>
+      </c>
+      <c r="S5">
+        <v>203162</v>
+      </c>
+      <c r="T5">
+        <v>231020</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4760,8 +5057,32 @@
       <c r="G6">
         <v>246698</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>26644</v>
+      </c>
+      <c r="R6">
+        <v>42600</v>
+      </c>
+      <c r="S6">
+        <v>165490</v>
+      </c>
+      <c r="T6">
+        <v>229380</v>
+      </c>
+      <c r="AF6">
+        <v>5</v>
+      </c>
+      <c r="AG6">
+        <v>258828</v>
+      </c>
+      <c r="AH6">
+        <v>20.2318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4783,8 +5104,32 @@
       <c r="G7">
         <v>261996</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>22304</v>
+      </c>
+      <c r="R7">
+        <v>42600</v>
+      </c>
+      <c r="S7">
+        <v>138776</v>
+      </c>
+      <c r="T7">
+        <v>231020</v>
+      </c>
+      <c r="AF7">
+        <v>10</v>
+      </c>
+      <c r="AG7">
+        <v>180328</v>
+      </c>
+      <c r="AH7">
+        <v>34.729999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4806,8 +5151,32 @@
       <c r="G8">
         <v>271090</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>20080</v>
+      </c>
+      <c r="R8">
+        <v>40960</v>
+      </c>
+      <c r="S8">
+        <v>124692</v>
+      </c>
+      <c r="T8">
+        <v>231020</v>
+      </c>
+      <c r="AF8">
+        <v>15</v>
+      </c>
+      <c r="AG8">
+        <v>161378</v>
+      </c>
+      <c r="AH8">
+        <v>47.033499999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4829,8 +5198,32 @@
       <c r="G9">
         <v>272346</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>30382</v>
+      </c>
+      <c r="R9">
+        <v>42600</v>
+      </c>
+      <c r="S9">
+        <v>125570</v>
+      </c>
+      <c r="T9">
+        <v>234300</v>
+      </c>
+      <c r="AF9">
+        <v>20</v>
+      </c>
+      <c r="AG9">
+        <v>144336</v>
+      </c>
+      <c r="AH9">
+        <v>47.030500000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4852,8 +5245,32 @@
       <c r="G10">
         <v>281152</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>30158</v>
+      </c>
+      <c r="R10">
+        <v>42600</v>
+      </c>
+      <c r="S10">
+        <v>124890</v>
+      </c>
+      <c r="T10">
+        <v>229380</v>
+      </c>
+      <c r="AF10">
+        <v>25</v>
+      </c>
+      <c r="AG10">
+        <v>146802</v>
+      </c>
+      <c r="AH10">
+        <v>56.147300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4875,13 +5292,87 @@
       <c r="G11">
         <v>289296</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>30298</v>
+      </c>
+      <c r="R11">
+        <v>42600</v>
+      </c>
+      <c r="S11">
+        <v>125364</v>
+      </c>
+      <c r="T11">
+        <v>231020</v>
+      </c>
+      <c r="AF11">
+        <v>30</v>
+      </c>
+      <c r="AG11">
+        <v>135294</v>
+      </c>
+      <c r="AH11">
+        <v>53.996499999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="P12">
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <v>22864</v>
+      </c>
+      <c r="R12">
+        <v>42600</v>
+      </c>
+      <c r="S12">
+        <v>114006</v>
+      </c>
+      <c r="T12">
+        <v>234300</v>
+      </c>
+      <c r="AF12">
+        <v>35</v>
+      </c>
+      <c r="AG12">
+        <v>142143</v>
+      </c>
+      <c r="AH12">
+        <v>61.514800000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>22808</v>
+      </c>
+      <c r="R13">
+        <v>42600</v>
+      </c>
+      <c r="S13">
+        <v>122436</v>
+      </c>
+      <c r="T13">
+        <v>232660</v>
+      </c>
+      <c r="AF13">
+        <v>40</v>
+      </c>
+      <c r="AG13">
+        <v>134300</v>
+      </c>
+      <c r="AH13">
+        <v>58.9437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -4897,8 +5388,32 @@
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="P14">
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <v>22570</v>
+      </c>
+      <c r="R14">
+        <v>42600</v>
+      </c>
+      <c r="S14">
+        <v>116222</v>
+      </c>
+      <c r="T14">
+        <v>231020</v>
+      </c>
+      <c r="AF14">
+        <v>45</v>
+      </c>
+      <c r="AG14">
+        <v>139661</v>
+      </c>
+      <c r="AH14">
+        <v>64.915499999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -4917,8 +5432,32 @@
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="P15">
+        <v>12</v>
+      </c>
+      <c r="Q15">
+        <v>22808</v>
+      </c>
+      <c r="R15">
+        <v>42600</v>
+      </c>
+      <c r="S15">
+        <v>115358</v>
+      </c>
+      <c r="T15">
+        <v>227740</v>
+      </c>
+      <c r="AF15">
+        <v>50</v>
+      </c>
+      <c r="AG15">
+        <v>133782</v>
+      </c>
+      <c r="AH15">
+        <v>62.529299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -4938,7 +5477,7 @@
         <v>11017</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:36">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -4958,7 +5497,7 @@
         <v>13864</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:36">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4978,7 +5517,7 @@
         <v>139261</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:36">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -4998,7 +5537,7 @@
         <v>149058</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:36">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -5018,7 +5557,7 @@
         <v>154195</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:36">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -5037,8 +5576,11 @@
       <c r="F21">
         <v>155172</v>
       </c>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="V21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5057,8 +5599,11 @@
       <c r="F22">
         <v>160849</v>
       </c>
-    </row>
-    <row r="23" spans="1:33">
+      <c r="V22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -5077,8 +5622,16 @@
       <c r="F23">
         <v>166026</v>
       </c>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="V23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="V24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -5088,11 +5641,14 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="AG25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33">
+      <c r="V25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
@@ -5120,14 +5676,14 @@
       <c r="M26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S26" t="s">
-        <v>95</v>
-      </c>
       <c r="V26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33">
+        <v>118</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -5136,23 +5692,14 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="S27" t="s">
-        <v>96</v>
-      </c>
-      <c r="T27" t="s">
-        <v>110</v>
-      </c>
-      <c r="U27" t="s">
-        <v>111</v>
-      </c>
       <c r="V27" t="s">
-        <v>125</v>
-      </c>
-      <c r="W27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33">
+        <v>122</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -5192,23 +5739,14 @@
       <c r="M28">
         <v>51.631999999999998</v>
       </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="T28">
-        <v>76680</v>
-      </c>
-      <c r="U28">
-        <v>42600</v>
-      </c>
-      <c r="V28">
-        <v>406980</v>
-      </c>
-      <c r="W28">
-        <v>226100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="V28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>21</v>
@@ -5229,7 +5767,7 @@
         <v>79110</v>
       </c>
       <c r="I29">
-        <v>610142</v>
+        <v>203162</v>
       </c>
       <c r="J29">
         <v>610142</v>
@@ -5243,23 +5781,8 @@
       <c r="M29">
         <v>19.2624</v>
       </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>36304</v>
-      </c>
-      <c r="U29">
-        <v>42600</v>
-      </c>
-      <c r="V29">
-        <v>203162</v>
-      </c>
-      <c r="W29">
-        <v>231020</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33">
+    </row>
+    <row r="30" spans="1:36">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -5280,7 +5803,7 @@
         <v>52670</v>
       </c>
       <c r="I30">
-        <v>775632</v>
+        <v>165490</v>
       </c>
       <c r="J30">
         <v>775632</v>
@@ -5294,23 +5817,8 @@
       <c r="M30">
         <v>18.4497</v>
       </c>
-      <c r="S30">
-        <v>3</v>
-      </c>
-      <c r="T30">
-        <v>26644</v>
-      </c>
-      <c r="U30">
-        <v>42600</v>
-      </c>
-      <c r="V30">
-        <v>165490</v>
-      </c>
-      <c r="W30">
-        <v>229380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33">
+    </row>
+    <row r="31" spans="1:36">
       <c r="B31" s="1">
         <v>12</v>
       </c>
@@ -5333,7 +5841,7 @@
         <v>33120</v>
       </c>
       <c r="I31">
-        <v>914408</v>
+        <v>138776</v>
       </c>
       <c r="J31">
         <v>914408</v>
@@ -5347,23 +5855,41 @@
       <c r="M31">
         <v>12.315</v>
       </c>
-      <c r="S31">
-        <v>4</v>
-      </c>
-      <c r="T31">
-        <v>22304</v>
+      <c r="T31" t="s">
+        <v>84</v>
       </c>
       <c r="U31">
-        <v>42600</v>
+        <v>5</v>
       </c>
       <c r="V31">
-        <v>138776</v>
+        <v>10</v>
       </c>
       <c r="W31">
-        <v>231020</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33">
+        <v>15</v>
+      </c>
+      <c r="X31">
+        <v>20</v>
+      </c>
+      <c r="Y31">
+        <v>25</v>
+      </c>
+      <c r="Z31">
+        <v>30</v>
+      </c>
+      <c r="AA31">
+        <v>35</v>
+      </c>
+      <c r="AB31">
+        <v>40</v>
+      </c>
+      <c r="AC31">
+        <v>45</v>
+      </c>
+      <c r="AD31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>21</v>
@@ -5384,7 +5910,7 @@
         <v>23060</v>
       </c>
       <c r="I32">
-        <v>1039100</v>
+        <v>124692</v>
       </c>
       <c r="J32">
         <v>1039100</v>
@@ -5398,23 +5924,14 @@
       <c r="M32">
         <v>8.7913999999999994</v>
       </c>
-      <c r="S32">
-        <v>5</v>
-      </c>
-      <c r="T32">
-        <v>20080</v>
-      </c>
-      <c r="U32">
-        <v>40960</v>
-      </c>
-      <c r="V32">
-        <v>124692</v>
-      </c>
-      <c r="W32">
-        <v>231020</v>
-      </c>
-    </row>
-    <row r="33" spans="2:33">
+      <c r="T32" t="s">
+        <v>83</v>
+      </c>
+      <c r="U32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>22</v>
@@ -5435,7 +5952,7 @@
         <v>22750</v>
       </c>
       <c r="I33">
-        <v>1164670</v>
+        <v>125570</v>
       </c>
       <c r="J33">
         <v>1164670</v>
@@ -5449,23 +5966,41 @@
       <c r="M33">
         <v>8.5360999999999994</v>
       </c>
-      <c r="S33">
-        <v>6</v>
-      </c>
       <c r="T33">
-        <v>30382</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>42600</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>125570</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>234300</v>
-      </c>
-    </row>
-    <row r="34" spans="2:33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30">
       <c r="B34" s="1">
         <v>13</v>
       </c>
@@ -5488,7 +6023,7 @@
         <v>23670</v>
       </c>
       <c r="I34">
-        <v>1289560</v>
+        <v>124890</v>
       </c>
       <c r="J34">
         <v>1289560</v>
@@ -5502,23 +6037,41 @@
       <c r="M34">
         <v>8.9893999999999998</v>
       </c>
-      <c r="S34">
-        <v>7</v>
-      </c>
       <c r="T34">
-        <v>30158</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>42600</v>
+        <v>0.28016431924882601</v>
       </c>
       <c r="V34">
-        <v>124890</v>
+        <v>0.32206572769953001</v>
       </c>
       <c r="W34">
-        <v>229380</v>
-      </c>
-    </row>
-    <row r="35" spans="2:33">
+        <v>0.39964788732394302</v>
+      </c>
+      <c r="X34">
+        <v>0.38262910798122002</v>
+      </c>
+      <c r="Y34">
+        <v>0.52112676056338003</v>
+      </c>
+      <c r="Z34">
+        <v>0.45281690140844999</v>
+      </c>
+      <c r="AA34">
+        <v>0.55993431855500797</v>
+      </c>
+      <c r="AB34">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="AC34">
+        <v>0.59345300950369495</v>
+      </c>
+      <c r="AD34">
+        <v>0.57981220657276999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>21</v>
@@ -5539,7 +6092,7 @@
         <v>23540</v>
       </c>
       <c r="I35">
-        <v>1414924</v>
+        <v>125364</v>
       </c>
       <c r="J35">
         <v>1414924</v>
@@ -5553,23 +6106,41 @@
       <c r="M35">
         <v>9.2891999999999992</v>
       </c>
-      <c r="S35">
-        <v>8</v>
-      </c>
       <c r="T35">
-        <v>30298</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>42600</v>
+        <v>0.17992957746478799</v>
       </c>
       <c r="V35">
-        <v>125364</v>
+        <v>0.29882629107981201</v>
       </c>
       <c r="W35">
-        <v>231020</v>
-      </c>
-    </row>
-    <row r="36" spans="2:33">
+        <v>0.39929577464788701</v>
+      </c>
+      <c r="X35">
+        <v>0.39718309859154899</v>
+      </c>
+      <c r="Y35">
+        <v>0.46537558685446001</v>
+      </c>
+      <c r="Z35">
+        <v>0.46197183098591499</v>
+      </c>
+      <c r="AA35">
+        <v>0.53366174055829196</v>
+      </c>
+      <c r="AB35">
+        <v>0.49295774647887303</v>
+      </c>
+      <c r="AC35">
+        <v>0.55438225976768696</v>
+      </c>
+      <c r="AD35">
+        <v>0.53286384976525802</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>22</v>
@@ -5590,7 +6161,7 @@
         <v>14490</v>
       </c>
       <c r="I36">
-        <v>1528930</v>
+        <v>114006</v>
       </c>
       <c r="J36">
         <v>1528930</v>
@@ -5604,23 +6175,41 @@
       <c r="M36">
         <v>5.5782999999999996</v>
       </c>
-      <c r="S36">
-        <v>9</v>
-      </c>
       <c r="T36">
-        <v>22864</v>
+        <v>4</v>
       </c>
       <c r="U36">
-        <v>42600</v>
+        <v>0.13755868544600899</v>
       </c>
       <c r="V36">
-        <v>114006</v>
+        <v>0.25985915492957701</v>
       </c>
       <c r="W36">
-        <v>234300</v>
-      </c>
-    </row>
-    <row r="37" spans="2:33">
+        <v>0.34964788732394297</v>
+      </c>
+      <c r="X36">
+        <v>0.37699530516431901</v>
+      </c>
+      <c r="Y36">
+        <v>0.43251173708920099</v>
+      </c>
+      <c r="Z36">
+        <v>0.416901408450704</v>
+      </c>
+      <c r="AA36">
+        <v>0.48850574712643602</v>
+      </c>
+      <c r="AB36">
+        <v>0.47605633802816899</v>
+      </c>
+      <c r="AC36">
+        <v>0.53537486800422296</v>
+      </c>
+      <c r="AD36">
+        <v>0.49882629107981202</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30">
       <c r="B37" s="1">
         <v>14</v>
       </c>
@@ -5643,7 +6232,7 @@
         <v>20980</v>
       </c>
       <c r="I37">
-        <v>1651366</v>
+        <v>122436</v>
       </c>
       <c r="J37">
         <v>1651366</v>
@@ -5657,23 +6246,8 @@
       <c r="M37">
         <v>8.2738999999999994</v>
       </c>
-      <c r="S37">
-        <v>10</v>
-      </c>
-      <c r="T37">
-        <v>22808</v>
-      </c>
-      <c r="U37">
-        <v>42600</v>
-      </c>
-      <c r="V37">
-        <v>122436</v>
-      </c>
-      <c r="W37">
-        <v>232660</v>
-      </c>
-    </row>
-    <row r="38" spans="2:33">
+    </row>
+    <row r="38" spans="2:30">
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>21</v>
@@ -5694,7 +6268,7 @@
         <v>17010</v>
       </c>
       <c r="I38">
-        <v>1767588</v>
+        <v>116222</v>
       </c>
       <c r="J38">
         <v>1767588</v>
@@ -5708,23 +6282,8 @@
       <c r="M38">
         <v>6.5534999999999997</v>
       </c>
-      <c r="S38">
-        <v>11</v>
-      </c>
-      <c r="T38">
-        <v>22570</v>
-      </c>
-      <c r="U38">
-        <v>42600</v>
-      </c>
-      <c r="V38">
-        <v>116222</v>
-      </c>
-      <c r="W38">
-        <v>231020</v>
-      </c>
-    </row>
-    <row r="39" spans="2:33">
+    </row>
+    <row r="39" spans="2:30">
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>22</v>
@@ -5745,7 +6304,7 @@
         <v>17330</v>
       </c>
       <c r="I39">
-        <v>1882946</v>
+        <v>115358</v>
       </c>
       <c r="J39">
         <v>1882946</v>
@@ -5760,28 +6319,13 @@
         <v>7.0387000000000004</v>
       </c>
       <c r="N39" t="s">
+        <v>107</v>
+      </c>
+      <c r="O39" t="s">
         <v>30</v>
       </c>
-      <c r="S39">
-        <v>12</v>
-      </c>
-      <c r="T39">
-        <v>22808</v>
-      </c>
-      <c r="U39">
-        <v>42600</v>
-      </c>
-      <c r="V39">
-        <v>115358</v>
-      </c>
-      <c r="W39">
-        <v>227740</v>
-      </c>
-      <c r="X39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="2:33">
+    </row>
+    <row r="40" spans="2:30">
       <c r="B40" s="1">
         <v>11</v>
       </c>
@@ -5818,11 +6362,8 @@
       <c r="M40">
         <v>60.164299999999997</v>
       </c>
-      <c r="X40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="2:33">
+    </row>
+    <row r="41" spans="2:30">
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>21</v>
@@ -5843,7 +6384,7 @@
         <v>13760</v>
       </c>
       <c r="I41">
-        <v>112984</v>
+        <v>36304</v>
       </c>
       <c r="J41">
         <v>112984</v>
@@ -5857,38 +6398,8 @@
       <c r="M41">
         <v>28.216000000000001</v>
       </c>
-      <c r="X41">
-        <v>42600</v>
-      </c>
-      <c r="Y41">
-        <v>17040</v>
-      </c>
-      <c r="Z41">
-        <v>17040</v>
-      </c>
-      <c r="AA41">
-        <v>42600</v>
-      </c>
-      <c r="AB41">
-        <v>76680</v>
-      </c>
-      <c r="AC41">
-        <v>76680</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AE41">
-        <v>59.765300000000003</v>
-      </c>
-      <c r="AF41">
-        <v>60.164299999999997</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="2:33">
+    </row>
+    <row r="42" spans="2:30">
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>22</v>
@@ -5909,7 +6420,7 @@
         <v>6860</v>
       </c>
       <c r="I42">
-        <v>139628</v>
+        <v>26644</v>
       </c>
       <c r="J42">
         <v>139628</v>
@@ -5923,38 +6434,8 @@
       <c r="M42">
         <v>13.779299999999999</v>
       </c>
-      <c r="X42">
-        <v>42600</v>
-      </c>
-      <c r="Y42">
-        <v>17040</v>
-      </c>
-      <c r="Z42">
-        <v>5504</v>
-      </c>
-      <c r="AA42">
-        <v>13760</v>
-      </c>
-      <c r="AB42">
-        <v>36304</v>
-      </c>
-      <c r="AC42">
-        <v>112984</v>
-      </c>
-      <c r="AD42">
-        <v>0.32300469483568001</v>
-      </c>
-      <c r="AE42">
-        <v>25.868500000000001</v>
-      </c>
-      <c r="AF42">
-        <v>28.216000000000001</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="2:33">
+    </row>
+    <row r="43" spans="2:30">
       <c r="B43" s="1">
         <v>12</v>
       </c>
@@ -5977,7 +6458,7 @@
         <v>3760</v>
       </c>
       <c r="I43">
-        <v>161932</v>
+        <v>22304</v>
       </c>
       <c r="J43">
         <v>161932</v>
@@ -5991,38 +6472,8 @@
       <c r="M43">
         <v>8.1455000000000002</v>
       </c>
-      <c r="X43">
-        <v>42600</v>
-      </c>
-      <c r="Y43">
-        <v>17040</v>
-      </c>
-      <c r="Z43">
-        <v>2744</v>
-      </c>
-      <c r="AA43">
-        <v>6860</v>
-      </c>
-      <c r="AB43">
-        <v>26644</v>
-      </c>
-      <c r="AC43">
-        <v>139628</v>
-      </c>
-      <c r="AD43">
-        <v>0.16103286384976501</v>
-      </c>
-      <c r="AE43">
-        <v>11.901400000000001</v>
-      </c>
-      <c r="AF43">
-        <v>13.779299999999999</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:33">
+    </row>
+    <row r="44" spans="2:30">
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
         <v>21</v>
@@ -6043,7 +6494,7 @@
         <v>2640</v>
       </c>
       <c r="I44">
-        <v>182012</v>
+        <v>20080</v>
       </c>
       <c r="J44">
         <v>182012</v>
@@ -6057,38 +6508,8 @@
       <c r="M44">
         <v>5.9325999999999999</v>
       </c>
-      <c r="X44">
-        <v>42600</v>
-      </c>
-      <c r="Y44">
-        <v>17040</v>
-      </c>
-      <c r="Z44">
-        <v>1504</v>
-      </c>
-      <c r="AA44">
-        <v>3760</v>
-      </c>
-      <c r="AB44">
-        <v>22304</v>
-      </c>
-      <c r="AC44">
-        <v>161932</v>
-      </c>
-      <c r="AD44">
-        <v>8.8262910798121999E-2</v>
-      </c>
-      <c r="AE44">
-        <v>7.6525999999999996</v>
-      </c>
-      <c r="AF44">
-        <v>8.1455000000000002</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="2:33">
+    </row>
+    <row r="45" spans="2:30">
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
         <v>22</v>
@@ -6109,7 +6530,7 @@
         <v>9530</v>
       </c>
       <c r="I45">
-        <v>212394</v>
+        <v>30382</v>
       </c>
       <c r="J45">
         <v>212394</v>
@@ -6123,38 +6544,8 @@
       <c r="M45">
         <v>20.845099999999999</v>
       </c>
-      <c r="X45">
-        <v>40960</v>
-      </c>
-      <c r="Y45">
-        <v>16384</v>
-      </c>
-      <c r="Z45">
-        <v>1056</v>
-      </c>
-      <c r="AA45">
-        <v>2640</v>
-      </c>
-      <c r="AB45">
-        <v>20080</v>
-      </c>
-      <c r="AC45">
-        <v>182012</v>
-      </c>
-      <c r="AD45">
-        <v>6.4453125E-2</v>
-      </c>
-      <c r="AE45">
-        <v>5.3955000000000002</v>
-      </c>
-      <c r="AF45">
-        <v>5.9325999999999999</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="2:33">
+    </row>
+    <row r="46" spans="2:30">
       <c r="B46" s="1">
         <v>13</v>
       </c>
@@ -6177,7 +6568,7 @@
         <v>9370</v>
       </c>
       <c r="I46">
-        <v>242552</v>
+        <v>30158</v>
       </c>
       <c r="J46">
         <v>242552</v>
@@ -6191,38 +6582,8 @@
       <c r="M46">
         <v>20.516400000000001</v>
       </c>
-      <c r="X46">
-        <v>42600</v>
-      </c>
-      <c r="Y46">
-        <v>17040</v>
-      </c>
-      <c r="Z46">
-        <v>3812</v>
-      </c>
-      <c r="AA46">
-        <v>9530</v>
-      </c>
-      <c r="AB46">
-        <v>30382</v>
-      </c>
-      <c r="AC46">
-        <v>212394</v>
-      </c>
-      <c r="AD46">
-        <v>0.22370892018779301</v>
-      </c>
-      <c r="AE46">
-        <v>20.5869</v>
-      </c>
-      <c r="AF46">
-        <v>20.845099999999999</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="2:33">
+    </row>
+    <row r="47" spans="2:30">
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>21</v>
@@ -6243,7 +6604,7 @@
         <v>9470</v>
       </c>
       <c r="I47">
-        <v>272850</v>
+        <v>30298</v>
       </c>
       <c r="J47">
         <v>272850</v>
@@ -6257,38 +6618,8 @@
       <c r="M47">
         <v>21.079799999999999</v>
       </c>
-      <c r="X47">
-        <v>42600</v>
-      </c>
-      <c r="Y47">
-        <v>17040</v>
-      </c>
-      <c r="Z47">
-        <v>3748</v>
-      </c>
-      <c r="AA47">
-        <v>9370</v>
-      </c>
-      <c r="AB47">
-        <v>30158</v>
-      </c>
-      <c r="AC47">
-        <v>242552</v>
-      </c>
-      <c r="AD47">
-        <v>0.21995305164319201</v>
-      </c>
-      <c r="AE47">
-        <v>20.187799999999999</v>
-      </c>
-      <c r="AF47">
-        <v>20.516400000000001</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="2:33">
+    </row>
+    <row r="48" spans="2:30">
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>22</v>
@@ -6309,7 +6640,7 @@
         <v>4160</v>
       </c>
       <c r="I48">
-        <v>295714</v>
+        <v>22864</v>
       </c>
       <c r="J48">
         <v>295714</v>
@@ -6323,38 +6654,8 @@
       <c r="M48">
         <v>8.9671000000000003</v>
       </c>
-      <c r="X48">
-        <v>42600</v>
-      </c>
-      <c r="Y48">
-        <v>17040</v>
-      </c>
-      <c r="Z48">
-        <v>3788</v>
-      </c>
-      <c r="AA48">
-        <v>9470</v>
-      </c>
-      <c r="AB48">
-        <v>30298</v>
-      </c>
-      <c r="AC48">
-        <v>272850</v>
-      </c>
-      <c r="AD48">
-        <v>0.22230046948356799</v>
-      </c>
-      <c r="AE48">
-        <v>20.891999999999999</v>
-      </c>
-      <c r="AF48">
-        <v>21.079799999999999</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
+    </row>
+    <row r="49" spans="1:21">
       <c r="B49" s="1">
         <v>14</v>
       </c>
@@ -6377,7 +6678,7 @@
         <v>4120</v>
       </c>
       <c r="I49">
-        <v>318522</v>
+        <v>22808</v>
       </c>
       <c r="J49">
         <v>318522</v>
@@ -6391,38 +6692,8 @@
       <c r="M49">
         <v>8.9671000000000003</v>
       </c>
-      <c r="X49">
-        <v>42600</v>
-      </c>
-      <c r="Y49">
-        <v>17040</v>
-      </c>
-      <c r="Z49">
-        <v>1664</v>
-      </c>
-      <c r="AA49">
-        <v>4160</v>
-      </c>
-      <c r="AB49">
-        <v>22864</v>
-      </c>
-      <c r="AC49">
-        <v>295714</v>
-      </c>
-      <c r="AD49">
-        <v>9.7652582159624399E-2</v>
-      </c>
-      <c r="AE49">
-        <v>8.4038000000000004</v>
-      </c>
-      <c r="AF49">
-        <v>8.9671000000000003</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34">
+    </row>
+    <row r="50" spans="1:21">
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>21</v>
@@ -6443,7 +6714,7 @@
         <v>3950</v>
       </c>
       <c r="I50">
-        <v>341092</v>
+        <v>22570</v>
       </c>
       <c r="J50">
         <v>341092</v>
@@ -6457,38 +6728,8 @@
       <c r="M50">
         <v>8.7088999999999999</v>
       </c>
-      <c r="X50">
-        <v>42600</v>
-      </c>
-      <c r="Y50">
-        <v>17040</v>
-      </c>
-      <c r="Z50">
-        <v>1648</v>
-      </c>
-      <c r="AA50">
-        <v>4120</v>
-      </c>
-      <c r="AB50">
-        <v>22808</v>
-      </c>
-      <c r="AC50">
-        <v>318522</v>
-      </c>
-      <c r="AD50">
-        <v>9.67136150234741E-2</v>
-      </c>
-      <c r="AE50">
-        <v>8.4506999999999994</v>
-      </c>
-      <c r="AF50">
-        <v>8.9671000000000003</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34">
+    </row>
+    <row r="51" spans="1:21">
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>22</v>
@@ -6509,7 +6750,7 @@
         <v>4120</v>
       </c>
       <c r="I51">
-        <v>363900</v>
+        <v>22808</v>
       </c>
       <c r="J51">
         <v>363900</v>
@@ -6529,73 +6770,8 @@
       <c r="O51" t="s">
         <v>43</v>
       </c>
-      <c r="X51">
-        <v>42600</v>
-      </c>
-      <c r="Y51">
-        <v>17040</v>
-      </c>
-      <c r="Z51">
-        <v>1580</v>
-      </c>
-      <c r="AA51">
-        <v>3950</v>
-      </c>
-      <c r="AB51">
-        <v>22570</v>
-      </c>
-      <c r="AC51">
-        <v>341092</v>
-      </c>
-      <c r="AD51">
-        <v>9.2723004694835603E-2</v>
-      </c>
-      <c r="AE51">
-        <v>8.3567999999999998</v>
-      </c>
-      <c r="AF51">
-        <v>8.7088999999999999</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34">
-      <c r="X52">
-        <v>42600</v>
-      </c>
-      <c r="Y52">
-        <v>17040</v>
-      </c>
-      <c r="Z52">
-        <v>1648</v>
-      </c>
-      <c r="AA52">
-        <v>4120</v>
-      </c>
-      <c r="AB52">
-        <v>22808</v>
-      </c>
-      <c r="AC52">
-        <v>363900</v>
-      </c>
-      <c r="AD52">
-        <v>9.67136150234741E-2</v>
-      </c>
-      <c r="AE52">
-        <v>8.6853999999999996</v>
-      </c>
-      <c r="AF52">
-        <v>8.9906000000000006</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34">
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -6636,7 +6812,7 @@
         <v>42.829599999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:21">
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>21</v>
@@ -6671,11 +6847,8 @@
       <c r="M55">
         <v>13.2119</v>
       </c>
-      <c r="X55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34">
+    </row>
+    <row r="56" spans="1:21">
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>22</v>
@@ -6683,38 +6856,11 @@
       <c r="D56" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X56">
-        <v>226100</v>
-      </c>
-      <c r="Y56">
-        <v>90440</v>
-      </c>
-      <c r="Z56">
-        <v>90440</v>
-      </c>
-      <c r="AA56">
-        <v>226100</v>
-      </c>
-      <c r="AB56">
-        <v>406980</v>
-      </c>
-      <c r="AC56">
-        <v>406980</v>
-      </c>
-      <c r="AD56">
-        <v>1</v>
-      </c>
-      <c r="AE56">
-        <v>38.018599999999999</v>
-      </c>
-      <c r="AF56">
-        <v>51.631999999999998</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34">
+      <c r="U56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="B57" s="1">
         <v>12</v>
       </c>
@@ -6724,38 +6870,11 @@
       <c r="D57" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X57">
-        <v>231020</v>
-      </c>
-      <c r="Y57">
-        <v>92408</v>
-      </c>
-      <c r="Z57">
-        <v>31644</v>
-      </c>
-      <c r="AA57">
-        <v>79110</v>
-      </c>
-      <c r="AB57">
-        <v>203162</v>
-      </c>
-      <c r="AC57">
-        <v>610142</v>
-      </c>
-      <c r="AD57">
-        <v>0.34243788416587301</v>
-      </c>
-      <c r="AE57">
-        <v>11.189500000000001</v>
-      </c>
-      <c r="AF57">
-        <v>19.2624</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34">
+      <c r="U57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>21</v>
@@ -6790,38 +6909,8 @@
       <c r="M58">
         <v>15.253500000000001</v>
       </c>
-      <c r="X58">
-        <v>229380</v>
-      </c>
-      <c r="Y58">
-        <v>91752</v>
-      </c>
-      <c r="Z58">
-        <v>21068</v>
-      </c>
-      <c r="AA58">
-        <v>52670</v>
-      </c>
-      <c r="AB58">
-        <v>165490</v>
-      </c>
-      <c r="AC58">
-        <v>775632</v>
-      </c>
-      <c r="AD58">
-        <v>0.22961897288342401</v>
-      </c>
-      <c r="AE58">
-        <v>15.834</v>
-      </c>
-      <c r="AF58">
-        <v>18.4497</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34">
+    </row>
+    <row r="59" spans="1:21">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>22</v>
@@ -6856,38 +6945,8 @@
       <c r="M59">
         <v>14.714700000000001</v>
       </c>
-      <c r="X59">
-        <v>231020</v>
-      </c>
-      <c r="Y59">
-        <v>92408</v>
-      </c>
-      <c r="Z59">
-        <v>13248</v>
-      </c>
-      <c r="AA59">
-        <v>33120</v>
-      </c>
-      <c r="AB59">
-        <v>138776</v>
-      </c>
-      <c r="AC59">
-        <v>914408</v>
-      </c>
-      <c r="AD59">
-        <v>0.14336421089083101</v>
-      </c>
-      <c r="AE59">
-        <v>10.9817</v>
-      </c>
-      <c r="AF59">
-        <v>12.315</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34">
+    </row>
+    <row r="60" spans="1:21">
       <c r="B60" s="1">
         <v>13</v>
       </c>
@@ -6897,38 +6956,8 @@
       <c r="D60" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X60">
-        <v>231020</v>
-      </c>
-      <c r="Y60">
-        <v>92408</v>
-      </c>
-      <c r="Z60">
-        <v>9224</v>
-      </c>
-      <c r="AA60">
-        <v>23060</v>
-      </c>
-      <c r="AB60">
-        <v>124692</v>
-      </c>
-      <c r="AC60">
-        <v>1039100</v>
-      </c>
-      <c r="AD60">
-        <v>9.9818197558652899E-2</v>
-      </c>
-      <c r="AE60">
-        <v>8.0252999999999997</v>
-      </c>
-      <c r="AF60">
-        <v>8.7913999999999994</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34">
+    </row>
+    <row r="61" spans="1:21">
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
         <v>21</v>
@@ -6963,38 +6992,8 @@
       <c r="M61">
         <v>5.9238</v>
       </c>
-      <c r="X61">
-        <v>234300</v>
-      </c>
-      <c r="Y61">
-        <v>93720</v>
-      </c>
-      <c r="Z61">
-        <v>9100</v>
-      </c>
-      <c r="AA61">
-        <v>22750</v>
-      </c>
-      <c r="AB61">
-        <v>125570</v>
-      </c>
-      <c r="AC61">
-        <v>1164670</v>
-      </c>
-      <c r="AD61">
-        <v>9.7097737942808293E-2</v>
-      </c>
-      <c r="AE61">
-        <v>7.8445999999999998</v>
-      </c>
-      <c r="AF61">
-        <v>8.5360999999999994</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34">
+    </row>
+    <row r="62" spans="1:21">
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>22</v>
@@ -7002,38 +7001,11 @@
       <c r="D62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X62">
-        <v>229380</v>
-      </c>
-      <c r="Y62">
-        <v>91752</v>
-      </c>
-      <c r="Z62">
-        <v>9468</v>
-      </c>
-      <c r="AA62">
-        <v>23670</v>
-      </c>
-      <c r="AB62">
-        <v>124890</v>
-      </c>
-      <c r="AC62">
-        <v>1289560</v>
-      </c>
-      <c r="AD62">
-        <v>0.103191211090766</v>
-      </c>
-      <c r="AE62">
-        <v>8.4053000000000004</v>
-      </c>
-      <c r="AF62">
-        <v>8.9893999999999998</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34">
+      <c r="U62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="B63" s="1">
         <v>14</v>
       </c>
@@ -7043,38 +7015,8 @@
       <c r="D63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X63">
-        <v>231020</v>
-      </c>
-      <c r="Y63">
-        <v>92408</v>
-      </c>
-      <c r="Z63">
-        <v>9416</v>
-      </c>
-      <c r="AA63">
-        <v>23540</v>
-      </c>
-      <c r="AB63">
-        <v>125364</v>
-      </c>
-      <c r="AC63">
-        <v>1414924</v>
-      </c>
-      <c r="AD63">
-        <v>0.10189593974547601</v>
-      </c>
-      <c r="AE63">
-        <v>8.8476999999999997</v>
-      </c>
-      <c r="AF63">
-        <v>9.2891999999999992</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34">
+    </row>
+    <row r="64" spans="1:21">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
         <v>21</v>
@@ -7082,38 +7024,8 @@
       <c r="D64" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X64">
-        <v>234300</v>
-      </c>
-      <c r="Y64">
-        <v>93720</v>
-      </c>
-      <c r="Z64">
-        <v>5796</v>
-      </c>
-      <c r="AA64">
-        <v>14490</v>
-      </c>
-      <c r="AB64">
-        <v>114006</v>
-      </c>
-      <c r="AC64">
-        <v>1528930</v>
-      </c>
-      <c r="AD64">
-        <v>6.1843790012804101E-2</v>
-      </c>
-      <c r="AE64">
-        <v>5.1302000000000003</v>
-      </c>
-      <c r="AF64">
-        <v>5.5782999999999996</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34">
+    </row>
+    <row r="65" spans="1:15">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
         <v>22</v>
@@ -7154,38 +7066,8 @@
       <c r="O65" t="s">
         <v>35</v>
       </c>
-      <c r="X65">
-        <v>232660</v>
-      </c>
-      <c r="Y65">
-        <v>93064</v>
-      </c>
-      <c r="Z65">
-        <v>8392</v>
-      </c>
-      <c r="AA65">
-        <v>20980</v>
-      </c>
-      <c r="AB65">
-        <v>122436</v>
-      </c>
-      <c r="AC65">
-        <v>1651366</v>
-      </c>
-      <c r="AD65">
-        <v>9.0174503567437406E-2</v>
-      </c>
-      <c r="AE65">
-        <v>7.9471999999999996</v>
-      </c>
-      <c r="AF65">
-        <v>8.2738999999999994</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34">
+    </row>
+    <row r="66" spans="1:15">
       <c r="B66" s="1">
         <v>11</v>
       </c>
@@ -7222,38 +7104,8 @@
       <c r="M66">
         <v>46.701900000000002</v>
       </c>
-      <c r="X66">
-        <v>231020</v>
-      </c>
-      <c r="Y66">
-        <v>92408</v>
-      </c>
-      <c r="Z66">
-        <v>6804</v>
-      </c>
-      <c r="AA66">
-        <v>17010</v>
-      </c>
-      <c r="AB66">
-        <v>116222</v>
-      </c>
-      <c r="AC66">
-        <v>1767588</v>
-      </c>
-      <c r="AD66">
-        <v>7.3629988745563105E-2</v>
-      </c>
-      <c r="AE66">
-        <v>6.1337000000000002</v>
-      </c>
-      <c r="AF66">
-        <v>6.5534999999999997</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34">
+    </row>
+    <row r="67" spans="1:15">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>21</v>
@@ -7288,41 +7140,8 @@
       <c r="M67">
         <v>18.890799999999999</v>
       </c>
-      <c r="X67">
-        <v>227740</v>
-      </c>
-      <c r="Y67">
-        <v>91096</v>
-      </c>
-      <c r="Z67">
-        <v>6932</v>
-      </c>
-      <c r="AA67">
-        <v>17330</v>
-      </c>
-      <c r="AB67">
-        <v>115358</v>
-      </c>
-      <c r="AC67">
-        <v>1882946</v>
-      </c>
-      <c r="AD67">
-        <v>7.6095547554228496E-2</v>
-      </c>
-      <c r="AE67">
-        <v>6.7445000000000004</v>
-      </c>
-      <c r="AF67">
-        <v>7.0387000000000004</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34">
+    </row>
+    <row r="68" spans="1:15">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>22</v>
@@ -7331,7 +7150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:15">
       <c r="B69" s="1">
         <v>12</v>
       </c>
@@ -7369,7 +7188,7 @@
         <v>12.4939</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:15">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>21</v>
@@ -7405,7 +7224,7 @@
         <v>6.6822999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:15">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>22</v>
@@ -7441,7 +7260,7 @@
         <v>12.8445</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:15">
       <c r="B72" s="1">
         <v>13</v>
       </c>
@@ -7479,7 +7298,7 @@
         <v>11.3001</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:15">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
         <v>21</v>
@@ -7488,7 +7307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:15">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>22</v>
@@ -7497,7 +7316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:15">
       <c r="B75" s="1">
         <v>14</v>
       </c>
@@ -7508,7 +7327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:15">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>21</v>
@@ -7544,7 +7363,7 @@
         <v>4.5856000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:15">
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
         <v>22</v>
@@ -7586,7 +7405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -7627,7 +7446,7 @@
         <v>52.0184</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:15">
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>21</v>
@@ -10500,7 +10319,7 @@
         <v>7.5936000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:24">
+    <row r="161" spans="1:37">
       <c r="A161">
         <v>42600</v>
       </c>
@@ -10529,7 +10348,7 @@
         <v>16.032900000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:24">
+    <row r="162" spans="1:37">
       <c r="A162">
         <v>168760</v>
       </c>
@@ -10558,7 +10377,7 @@
         <v>9.1491000000000007</v>
       </c>
     </row>
-    <row r="163" spans="1:24">
+    <row r="163" spans="1:37">
       <c r="A163">
         <v>357180</v>
       </c>
@@ -10587,7 +10406,7 @@
         <v>9.4573999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:24">
+    <row r="164" spans="1:37">
       <c r="A164">
         <v>42600</v>
       </c>
@@ -10616,7 +10435,7 @@
         <v>16.666699999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:24">
+    <row r="166" spans="1:37">
       <c r="A166">
         <v>352260</v>
       </c>
@@ -10645,7 +10464,7 @@
         <v>8.5078999999999994</v>
       </c>
     </row>
-    <row r="167" spans="1:24">
+    <row r="167" spans="1:37">
       <c r="A167">
         <v>42600</v>
       </c>
@@ -10674,7 +10493,7 @@
         <v>6.4554</v>
       </c>
     </row>
-    <row r="169" spans="1:24">
+    <row r="169" spans="1:37">
       <c r="A169">
         <v>355540</v>
       </c>
@@ -10703,7 +10522,7 @@
         <v>8.2382000000000009</v>
       </c>
     </row>
-    <row r="170" spans="1:24">
+    <row r="170" spans="1:37">
       <c r="A170">
         <v>42600</v>
       </c>
@@ -10731,49 +10550,43 @@
       <c r="I170">
         <v>6.3146000000000004</v>
       </c>
-      <c r="N170" t="s">
-        <v>84</v>
-      </c>
-      <c r="O170">
-        <v>5</v>
-      </c>
-      <c r="P170">
-        <v>10</v>
-      </c>
-      <c r="Q170">
-        <v>15</v>
-      </c>
-      <c r="R170">
-        <v>20</v>
-      </c>
-      <c r="S170">
-        <v>25</v>
-      </c>
-      <c r="T170">
-        <v>30</v>
-      </c>
-      <c r="U170">
-        <v>35</v>
-      </c>
-      <c r="V170">
-        <v>40</v>
-      </c>
-      <c r="W170">
-        <v>45</v>
-      </c>
-      <c r="X170">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:24">
-      <c r="N171" t="s">
-        <v>83</v>
-      </c>
-      <c r="O171" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="172" spans="1:24">
+      <c r="AB170" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:37">
+      <c r="AB171">
+        <v>42600</v>
+      </c>
+      <c r="AC171">
+        <v>34080</v>
+      </c>
+      <c r="AD171">
+        <v>34080</v>
+      </c>
+      <c r="AE171">
+        <v>42600</v>
+      </c>
+      <c r="AF171">
+        <v>110760</v>
+      </c>
+      <c r="AG171">
+        <v>110760</v>
+      </c>
+      <c r="AH171">
+        <v>1</v>
+      </c>
+      <c r="AI171">
+        <v>35.0822</v>
+      </c>
+      <c r="AJ171">
+        <v>38.098599999999998</v>
+      </c>
+      <c r="AK171" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="172" spans="1:37">
       <c r="A172">
         <v>367010</v>
       </c>
@@ -10801,41 +10614,38 @@
       <c r="I172">
         <v>6.8745000000000003</v>
       </c>
-      <c r="N172">
-        <v>1</v>
-      </c>
-      <c r="O172">
-        <v>1</v>
-      </c>
-      <c r="P172">
-        <v>1</v>
-      </c>
-      <c r="Q172">
-        <v>1</v>
-      </c>
-      <c r="R172">
-        <v>1</v>
-      </c>
-      <c r="S172">
-        <v>1</v>
-      </c>
-      <c r="T172">
-        <v>1</v>
-      </c>
-      <c r="U172">
-        <v>1</v>
-      </c>
-      <c r="V172">
-        <v>1</v>
-      </c>
-      <c r="W172">
-        <v>1</v>
-      </c>
-      <c r="X172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:24">
+      <c r="AB172">
+        <v>42600</v>
+      </c>
+      <c r="AC172">
+        <v>34080</v>
+      </c>
+      <c r="AD172">
+        <v>9540</v>
+      </c>
+      <c r="AE172">
+        <v>11925</v>
+      </c>
+      <c r="AF172">
+        <v>55545</v>
+      </c>
+      <c r="AG172">
+        <v>166305</v>
+      </c>
+      <c r="AH172">
+        <v>0.27992957746478803</v>
+      </c>
+      <c r="AI172">
+        <v>12.394399999999999</v>
+      </c>
+      <c r="AJ172">
+        <v>18.227699999999999</v>
+      </c>
+      <c r="AK172" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="173" spans="1:37">
       <c r="A173">
         <v>42600</v>
       </c>
@@ -10863,41 +10673,38 @@
       <c r="I173">
         <v>6.2675999999999998</v>
       </c>
-      <c r="N173">
-        <v>2</v>
-      </c>
-      <c r="O173">
-        <v>0.28016431924882601</v>
-      </c>
-      <c r="P173">
-        <v>0.32206572769953001</v>
-      </c>
-      <c r="Q173">
-        <v>0.39964788732394302</v>
-      </c>
-      <c r="R173">
-        <v>0.38262910798122002</v>
-      </c>
-      <c r="S173">
-        <v>0.52112676056338003</v>
-      </c>
-      <c r="T173">
-        <v>0.45281690140844999</v>
-      </c>
-      <c r="U173">
-        <v>0.55993431855500797</v>
-      </c>
-      <c r="V173">
-        <v>0.53333333333333299</v>
-      </c>
-      <c r="W173">
-        <v>0.59345300950369495</v>
-      </c>
-      <c r="X173">
-        <v>0.57981220657276999</v>
-      </c>
-    </row>
-    <row r="174" spans="1:24">
+      <c r="AB173">
+        <v>42600</v>
+      </c>
+      <c r="AC173">
+        <v>34080</v>
+      </c>
+      <c r="AD173">
+        <v>3980</v>
+      </c>
+      <c r="AE173">
+        <v>4975</v>
+      </c>
+      <c r="AF173">
+        <v>43035</v>
+      </c>
+      <c r="AG173">
+        <v>209340</v>
+      </c>
+      <c r="AH173">
+        <v>0.11678403755868499</v>
+      </c>
+      <c r="AI173">
+        <v>3.9319000000000002</v>
+      </c>
+      <c r="AJ173">
+        <v>7.0656999999999996</v>
+      </c>
+      <c r="AK173" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:37">
       <c r="A174">
         <v>124520</v>
       </c>
@@ -10925,41 +10732,38 @@
       <c r="I174">
         <v>3.2926000000000002</v>
       </c>
-      <c r="N174">
-        <v>3</v>
-      </c>
-      <c r="O174">
-        <v>0.17992957746478799</v>
-      </c>
-      <c r="P174">
-        <v>0.29882629107981201</v>
-      </c>
-      <c r="Q174">
-        <v>0.39929577464788701</v>
-      </c>
-      <c r="R174">
-        <v>0.39718309859154899</v>
-      </c>
-      <c r="S174">
-        <v>0.46537558685446001</v>
-      </c>
-      <c r="T174">
-        <v>0.46197183098591499</v>
-      </c>
-      <c r="U174">
-        <v>0.53366174055829196</v>
-      </c>
-      <c r="V174">
-        <v>0.49295774647887303</v>
-      </c>
-      <c r="W174">
-        <v>0.55438225976768696</v>
-      </c>
-      <c r="X174">
-        <v>0.53286384976525802</v>
-      </c>
-    </row>
-    <row r="175" spans="1:24">
+      <c r="AB174">
+        <v>42600</v>
+      </c>
+      <c r="AC174">
+        <v>34080</v>
+      </c>
+      <c r="AD174">
+        <v>1932</v>
+      </c>
+      <c r="AE174">
+        <v>2415</v>
+      </c>
+      <c r="AF174">
+        <v>38427</v>
+      </c>
+      <c r="AG174">
+        <v>247767</v>
+      </c>
+      <c r="AH174">
+        <v>5.6690140845070403E-2</v>
+      </c>
+      <c r="AI174">
+        <v>2.4178000000000002</v>
+      </c>
+      <c r="AJ174">
+        <v>3.6854</v>
+      </c>
+      <c r="AK174" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="175" spans="1:37">
       <c r="A175">
         <v>367010</v>
       </c>
@@ -10987,41 +10791,38 @@
       <c r="I175">
         <v>7.2805</v>
       </c>
-      <c r="N175">
-        <v>4</v>
-      </c>
-      <c r="O175">
-        <v>0.13755868544600899</v>
-      </c>
-      <c r="P175">
-        <v>0.25985915492957701</v>
-      </c>
-      <c r="Q175">
-        <v>0.34964788732394297</v>
-      </c>
-      <c r="R175">
-        <v>0.37699530516431901</v>
-      </c>
-      <c r="S175">
-        <v>0.43251173708920099</v>
-      </c>
-      <c r="T175">
-        <v>0.416901408450704</v>
-      </c>
-      <c r="U175">
-        <v>0.48850574712643602</v>
-      </c>
-      <c r="V175">
-        <v>0.47605633802816899</v>
-      </c>
-      <c r="W175">
-        <v>0.53537486800422296</v>
-      </c>
-      <c r="X175">
-        <v>0.49882629107981202</v>
-      </c>
-    </row>
-    <row r="176" spans="1:24">
+      <c r="AB175">
+        <v>40960</v>
+      </c>
+      <c r="AC175">
+        <v>32768</v>
+      </c>
+      <c r="AD175">
+        <v>852</v>
+      </c>
+      <c r="AE175">
+        <v>1065</v>
+      </c>
+      <c r="AF175">
+        <v>34685</v>
+      </c>
+      <c r="AG175">
+        <v>282452</v>
+      </c>
+      <c r="AH175">
+        <v>2.60009765625E-2</v>
+      </c>
+      <c r="AI175">
+        <v>1.3672</v>
+      </c>
+      <c r="AJ175">
+        <v>1.8432999999999999</v>
+      </c>
+      <c r="AK175" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:37">
       <c r="A176">
         <v>42600</v>
       </c>
@@ -11049,8 +10850,38 @@
       <c r="I176">
         <v>6.1501999999999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="AB176">
+        <v>42600</v>
+      </c>
+      <c r="AC176">
+        <v>34080</v>
+      </c>
+      <c r="AD176">
+        <v>3744</v>
+      </c>
+      <c r="AE176">
+        <v>4680</v>
+      </c>
+      <c r="AF176">
+        <v>42504</v>
+      </c>
+      <c r="AG176">
+        <v>324956</v>
+      </c>
+      <c r="AH176">
+        <v>0.109859154929577</v>
+      </c>
+      <c r="AI176">
+        <v>8.7324000000000002</v>
+      </c>
+      <c r="AJ176">
+        <v>9.4131</v>
+      </c>
+      <c r="AK176" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="177" spans="1:38">
       <c r="A177">
         <v>121250</v>
       </c>
@@ -11078,8 +10909,38 @@
       <c r="I177">
         <v>7.8350999999999997</v>
       </c>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="AB177">
+        <v>42600</v>
+      </c>
+      <c r="AC177">
+        <v>34080</v>
+      </c>
+      <c r="AD177">
+        <v>3336</v>
+      </c>
+      <c r="AE177">
+        <v>4170</v>
+      </c>
+      <c r="AF177">
+        <v>41586</v>
+      </c>
+      <c r="AG177">
+        <v>366542</v>
+      </c>
+      <c r="AH177">
+        <v>9.7887323943661897E-2</v>
+      </c>
+      <c r="AI177">
+        <v>7.9577</v>
+      </c>
+      <c r="AJ177">
+        <v>8.4271999999999991</v>
+      </c>
+      <c r="AK177" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="178" spans="1:38">
       <c r="A178">
         <v>365370</v>
       </c>
@@ -11113,18 +10974,175 @@
       <c r="K178" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="AB178">
+        <v>42600</v>
+      </c>
+      <c r="AC178">
+        <v>34080</v>
+      </c>
+      <c r="AD178">
+        <v>3220</v>
+      </c>
+      <c r="AE178">
+        <v>4025</v>
+      </c>
+      <c r="AF178">
+        <v>41325</v>
+      </c>
+      <c r="AG178">
+        <v>407867</v>
+      </c>
+      <c r="AH178">
+        <v>9.4483568075117305E-2</v>
+      </c>
+      <c r="AI178">
+        <v>7.9108000000000001</v>
+      </c>
+      <c r="AJ178">
+        <v>8.2745999999999995</v>
+      </c>
+      <c r="AK178" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="179" spans="1:38">
+      <c r="AB179">
+        <v>42600</v>
+      </c>
+      <c r="AC179">
+        <v>34080</v>
+      </c>
+      <c r="AD179">
+        <v>1184</v>
+      </c>
+      <c r="AE179">
+        <v>1480</v>
+      </c>
+      <c r="AF179">
+        <v>36744</v>
+      </c>
+      <c r="AG179">
+        <v>444611</v>
+      </c>
+      <c r="AH179">
+        <v>3.47417840375586E-2</v>
+      </c>
+      <c r="AI179">
+        <v>2.0423</v>
+      </c>
+      <c r="AJ179">
+        <v>2.5939000000000001</v>
+      </c>
+      <c r="AK179" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="180" spans="1:38">
+      <c r="AB180">
+        <v>42600</v>
+      </c>
+      <c r="AC180">
+        <v>34080</v>
+      </c>
+      <c r="AD180">
+        <v>876</v>
+      </c>
+      <c r="AE180">
+        <v>1095</v>
+      </c>
+      <c r="AF180">
+        <v>36051</v>
+      </c>
+      <c r="AG180">
+        <v>480662</v>
+      </c>
+      <c r="AH180">
+        <v>2.57042253521126E-2</v>
+      </c>
+      <c r="AI180">
+        <v>1.7723</v>
+      </c>
+      <c r="AJ180">
+        <v>2.1478999999999999</v>
+      </c>
+      <c r="AK180" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="181" spans="1:38">
       <c r="A181" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="AB181">
+        <v>42600</v>
+      </c>
+      <c r="AC181">
+        <v>34080</v>
+      </c>
+      <c r="AD181">
+        <v>1036</v>
+      </c>
+      <c r="AE181">
+        <v>1295</v>
+      </c>
+      <c r="AF181">
+        <v>36411</v>
+      </c>
+      <c r="AG181">
+        <v>517073</v>
+      </c>
+      <c r="AH181">
+        <v>3.03990610328638E-2</v>
+      </c>
+      <c r="AI181">
+        <v>2.1596000000000002</v>
+      </c>
+      <c r="AJ181">
+        <v>2.5821999999999998</v>
+      </c>
+      <c r="AK181" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="1:38">
       <c r="A182" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="AB182">
+        <v>42600</v>
+      </c>
+      <c r="AC182">
+        <v>34080</v>
+      </c>
+      <c r="AD182">
+        <v>788</v>
+      </c>
+      <c r="AE182">
+        <v>985</v>
+      </c>
+      <c r="AF182">
+        <v>35853</v>
+      </c>
+      <c r="AG182">
+        <v>552926</v>
+      </c>
+      <c r="AH182">
+        <v>2.3122065727699499E-2</v>
+      </c>
+      <c r="AI182">
+        <v>1.8545</v>
+      </c>
+      <c r="AJ182">
+        <v>2.0775000000000001</v>
+      </c>
+      <c r="AK182" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL182" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="184" spans="1:38">
       <c r="A184">
         <v>42600</v>
       </c>
@@ -11157,7 +11175,7 @@
         <v>5.0352249999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:38">
       <c r="A185">
         <v>42600</v>
       </c>
@@ -11186,7 +11204,7 @@
         <v>0.30049999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:38">
       <c r="A186">
         <v>42600</v>
       </c>
@@ -11215,7 +11233,7 @@
         <v>4.6666999999999996</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:38">
       <c r="A187">
         <v>42600</v>
       </c>
@@ -11250,12 +11268,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:38">
       <c r="A188">
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:38">
       <c r="A190">
         <v>42600</v>
       </c>
@@ -11284,7 +11302,7 @@
         <v>38.098599999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:38">
       <c r="A191">
         <v>42600</v>
       </c>
@@ -11313,7 +11331,7 @@
         <v>18.391999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:38">
       <c r="A192">
         <v>42600</v>
       </c>
@@ -11346,7 +11364,7 @@
         <v>20.2318</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>42600</v>
       </c>
@@ -11381,12 +11399,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>42600</v>
       </c>
@@ -11415,7 +11433,7 @@
         <v>41.211300000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>42600</v>
       </c>
@@ -11444,7 +11462,7 @@
         <v>18.746500000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>42600</v>
       </c>
@@ -11472,17 +11490,8 @@
       <c r="I199">
         <v>6.7606000000000002</v>
       </c>
-      <c r="N199" t="s">
-        <v>85</v>
-      </c>
-      <c r="O199" t="s">
-        <v>86</v>
-      </c>
-      <c r="P199" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16">
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>42600</v>
       </c>
@@ -11516,53 +11525,13 @@
       <c r="K200" t="s">
         <v>55</v>
       </c>
-      <c r="N200">
-        <v>5</v>
-      </c>
-      <c r="O200">
-        <v>258828</v>
-      </c>
-      <c r="P200">
-        <v>20.2318</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16">
-      <c r="N201">
-        <v>10</v>
-      </c>
-      <c r="O201">
-        <v>180328</v>
-      </c>
-      <c r="P201">
-        <v>34.729999999999997</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16">
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>7</v>
       </c>
-      <c r="N202">
-        <v>15</v>
-      </c>
-      <c r="O202">
-        <v>161378</v>
-      </c>
-      <c r="P202">
-        <v>47.033499999999997</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16">
-      <c r="N203">
-        <v>20</v>
-      </c>
-      <c r="O203">
-        <v>144336</v>
-      </c>
-      <c r="P203">
-        <v>47.030500000000004</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16">
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204">
         <v>42602</v>
       </c>
@@ -11590,17 +11559,8 @@
       <c r="I204">
         <v>58.1006</v>
       </c>
-      <c r="N204">
-        <v>25</v>
-      </c>
-      <c r="O204">
-        <v>146802</v>
-      </c>
-      <c r="P204">
-        <v>56.147300000000001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16">
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205">
         <v>42602</v>
       </c>
@@ -11628,17 +11588,8 @@
       <c r="I205">
         <v>29.1982</v>
       </c>
-      <c r="N205">
-        <v>30</v>
-      </c>
-      <c r="O205">
-        <v>135294</v>
-      </c>
-      <c r="P205">
-        <v>53.996499999999997</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16">
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206">
         <v>42602</v>
       </c>
@@ -11666,17 +11617,8 @@
       <c r="I206">
         <v>13.5886</v>
       </c>
-      <c r="N206">
-        <v>35</v>
-      </c>
-      <c r="O206">
-        <v>142143</v>
-      </c>
-      <c r="P206">
-        <v>61.514800000000001</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16">
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>42602</v>
       </c>
@@ -11710,42 +11652,13 @@
       <c r="K207" t="s">
         <v>57</v>
       </c>
-      <c r="N207">
-        <v>40</v>
-      </c>
-      <c r="O207">
-        <v>134300</v>
-      </c>
-      <c r="P207">
-        <v>58.9437</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16">
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>8</v>
       </c>
-      <c r="N208">
-        <v>45</v>
-      </c>
-      <c r="O208">
-        <v>139661</v>
-      </c>
-      <c r="P208">
-        <v>64.915499999999994</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16">
-      <c r="N209">
-        <v>50</v>
-      </c>
-      <c r="O209">
-        <v>133782</v>
-      </c>
-      <c r="P209">
-        <v>62.529299999999999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16">
+    </row>
+    <row r="210" spans="1:15">
       <c r="A210">
         <v>42600</v>
       </c>
@@ -11774,7 +11687,7 @@
         <v>53.314599999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:15">
       <c r="A211">
         <v>42600</v>
       </c>
@@ -11803,7 +11716,7 @@
         <v>26.328600000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:15">
       <c r="A212">
         <v>42600</v>
       </c>
@@ -11835,7 +11748,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:15">
       <c r="A213">
         <v>42600</v>
       </c>
@@ -11870,12 +11783,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:15">
       <c r="A215">
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:15">
       <c r="A217">
         <v>42606</v>
       </c>
@@ -11904,7 +11817,7 @@
         <v>65.906199999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:15">
       <c r="A218">
         <v>42606</v>
       </c>
@@ -11936,7 +11849,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:15">
       <c r="A219">
         <v>42606</v>
       </c>
@@ -11965,7 +11878,7 @@
         <v>27.862300000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:15">
       <c r="A220">
         <v>42606</v>
       </c>
@@ -12000,12 +11913,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:15">
       <c r="A221">
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:15">
       <c r="A223">
         <v>42600</v>
       </c>
@@ -12034,7 +11947,7 @@
         <v>60.164299999999997</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:15">
       <c r="A224">
         <v>42600</v>
       </c>

--- a/experiments/organizedData.xlsx
+++ b/experiments/organizedData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="172">
   <si>
     <t>Website</t>
   </si>
@@ -378,15 +378,6 @@
     <t>4. GREEN AND BLUE =&gt; chunked data. Starting point =&gt; empty cache, overhead of sending fingerprints</t>
   </si>
   <si>
-    <t>Avg proxy missrate over all inspected sites: 7.3019</t>
-  </si>
-  <si>
-    <t>Avg mobile missrate over all inspected sites: 8.7031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assuming cache has already been filled with the first visit. </t>
-  </si>
-  <si>
     <t>5. Half the number of bytes</t>
   </si>
   <si>
@@ -411,7 +402,139 @@
     <t>5. This is because: Since each chunk is represented by a fingerprint, if the chunk size is small it gets pretty expensive for the mobile device to communicate which chunks it needs</t>
   </si>
   <si>
-    <t>2. This graph shows…</t>
+    <t>2. This graph shows the relationship between the percent of web content that needs to be transferred and the chunk size that was used to split the content</t>
+  </si>
+  <si>
+    <t>3. On the first day, the cache is empty, so 100% of the content needs to be transferred for all chunk sizes, and is not shown</t>
+  </si>
+  <si>
+    <t>4. graph shows data from second day (assume cache has already been filled with data from the first visit)</t>
+  </si>
+  <si>
+    <t>5. We can clearly see that if we use smaller chunk sizes, the percent of content that needs to be send decreases.</t>
+  </si>
+  <si>
+    <t>6 The steeper line for chunk 5 when compared to chunk 45 shows that as the number of visits increase, the overlap of smaller chunk sizes incrase faster</t>
+  </si>
+  <si>
+    <t>8. but this graph doesn't show the complete picture</t>
+  </si>
+  <si>
+    <t>7. From this graph it seems like it would  make the most sense to choose the smallest chunk size to catch the most amount of redundancy and have the least amount of data transfer</t>
+  </si>
+  <si>
+    <t>9. What we needed to consider when looking at chunk size was that the proportion of fingerprints needed to represent the same size of content is much bigger when using smaller chunks.</t>
+  </si>
+  <si>
+    <t>10. It is possible that the number of fingerprints needed to represent ten percent of the content can be much greater than the number of fps needed to represent 50% of the content, and this adds to the overhead</t>
+  </si>
+  <si>
+    <t>11. this is one factor that can be considered when looking at the differences between mobile and desktop browsers</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/econ/econMay11MornMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/nytimes/nytimesMay11MornMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/econ/econMay11AfterMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/nytimes/nytimesMay11AfterMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/econ/econMay11EveMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/nytimes/nytimesMay11EveMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/econ/econMay12MornMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/nytimes/nytimesMay12MornMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/econ/econMay12AfterMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/nytimes/nytimesMay12AfterMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/econ/econMay12EveMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/nytimes/nytimesMay12EveMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/econ/econMay13MornMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/nytimes/nytimesMay13MornMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/econ/econMay13AfterMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/nytimes/nytimesMay13AfterMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/econ/econMay13EveMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/nytimes/nytimesMay13EveMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/econ/econMay14MornMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/nytimes/nytimesMay14MornMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/econ/econMay14AfterMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/nytimes/nytimesMay14AfterMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/econ/econMay14EveMobile</t>
+  </si>
+  <si>
+    <t>Processing file: /Users/Jayakumar/Dropbox/EclipseWorkspace/big-data-project/web-data-experiment/data/htmlToByte/nytimes/nytimesMay14EveMobile</t>
+  </si>
+  <si>
+    <t>Avg proxy missrate over all inspected sites: 2.7789</t>
+  </si>
+  <si>
+    <t>Avg mobile missrate over all inspected sites: 3.6226</t>
+  </si>
+  <si>
+    <t>CHUNK SIZE: 5</t>
+  </si>
+  <si>
+    <t>CHUNK SIZE: 20</t>
+  </si>
+  <si>
+    <t>Avg proxy missrate over all inspected sites: 37.6955</t>
+  </si>
+  <si>
+    <t>Avg mobile missrate over all inspected sites: 35.6397</t>
+  </si>
+  <si>
+    <t>CHUNK SIZE: 30</t>
+  </si>
+  <si>
+    <t>as opposed to a straight line at 1</t>
+  </si>
+  <si>
+    <t>to see how this affects the results</t>
+  </si>
+  <si>
+    <t>realistically: we visisted three websites three times a day for four days to simulate "mobile browsing"</t>
+  </si>
+  <si>
+    <t>the general trend is that there is overlap between the various websites, and the bumps are likely due to evictions</t>
   </si>
 </sst>
 </file>
@@ -468,8 +591,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="721">
+  <cellStyleXfs count="723">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1196,7 +1321,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="721">
+  <cellStyles count="723">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1557,6 +1682,7 @@
     <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1917,6 +2043,7 @@
     <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2502,8 +2629,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>% of transferred Content</a:t>
+                  <a:t>% of content</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> needed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2949,6 +3081,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mobile Web Browsing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -2962,14 +3109,14 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Mobile</c:v>
+            <c:v>chunk10</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$L$122:$L$153</c:f>
+              <c:f>Sheet1!$AH$37:$AH$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3074,7 +3221,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$122:$M$153</c:f>
+              <c:f>Sheet1!$AI$37:$AI$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3199,6 +3346,30 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of web requests</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3218,6 +3389,25 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% of content needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3258,6 +3448,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cumulative Bytes transferred</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3268,14 +3477,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>With Chunking</c:v>
+            <c:v>Chunked Transfer</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$U$121:$U$152</c:f>
+              <c:f>Sheet1!$AA$74:$AA$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3380,7 +3589,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$121:$W$152</c:f>
+              <c:f>Sheet1!$AC$74:$AC$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3489,14 +3698,14 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Without Chunking</c:v>
+            <c:v>No Chunking</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$U$121:$U$152</c:f>
+              <c:f>Sheet1!$AA$74:$AA$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3601,7 +3810,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$121:$X$152</c:f>
+              <c:f>Sheet1!$AD$74:$AD$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3726,6 +3935,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of web requests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3745,6 +3973,30 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> bytes transferred</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4434,16 +4686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4464,16 +4716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4848,10 +5100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AL282"/>
+  <dimension ref="A1:BA282"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="K113" workbookViewId="0">
-      <selection activeCell="AE131" sqref="AE131"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="S14" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4985,7 +5237,7 @@
         <v>226100</v>
       </c>
       <c r="AF4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -5645,7 +5897,7 @@
         <v>116</v>
       </c>
       <c r="AJ25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -5680,7 +5932,7 @@
         <v>118</v>
       </c>
       <c r="AJ26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -5693,10 +5945,10 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="V27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AJ27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -5740,10 +5992,10 @@
         <v>51.631999999999998</v>
       </c>
       <c r="V28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AJ28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -5931,7 +6183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="2:30">
+    <row r="33" spans="2:35">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>22</v>
@@ -6000,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:30">
+    <row r="34" spans="2:35">
       <c r="B34" s="1">
         <v>13</v>
       </c>
@@ -6071,7 +6323,7 @@
         <v>0.57981220657276999</v>
       </c>
     </row>
-    <row r="35" spans="2:30">
+    <row r="35" spans="2:35">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>21</v>
@@ -6140,7 +6392,7 @@
         <v>0.53286384976525802</v>
       </c>
     </row>
-    <row r="36" spans="2:30">
+    <row r="36" spans="2:35">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>22</v>
@@ -6208,8 +6460,14 @@
       <c r="AD36">
         <v>0.49882629107981202</v>
       </c>
-    </row>
-    <row r="37" spans="2:30">
+      <c r="AH36" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="2:35">
       <c r="B37" s="1">
         <v>14</v>
       </c>
@@ -6246,8 +6504,14 @@
       <c r="M37">
         <v>8.2738999999999994</v>
       </c>
-    </row>
-    <row r="38" spans="2:30">
+      <c r="AH37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:35">
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>21</v>
@@ -6282,8 +6546,14 @@
       <c r="M38">
         <v>6.5534999999999997</v>
       </c>
-    </row>
-    <row r="39" spans="2:30">
+      <c r="AH38">
+        <v>2</v>
+      </c>
+      <c r="AI38">
+        <v>0.90985915492957703</v>
+      </c>
+    </row>
+    <row r="39" spans="2:35">
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>22</v>
@@ -6324,8 +6594,14 @@
       <c r="O39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="2:30">
+      <c r="AH39">
+        <v>3</v>
+      </c>
+      <c r="AI39">
+        <v>0.75757137485175396</v>
+      </c>
+    </row>
+    <row r="40" spans="2:35">
       <c r="B40" s="1">
         <v>11</v>
       </c>
@@ -6362,8 +6638,14 @@
       <c r="M40">
         <v>60.164299999999997</v>
       </c>
-    </row>
-    <row r="41" spans="2:30">
+      <c r="AH40">
+        <v>4</v>
+      </c>
+      <c r="AI40">
+        <v>0.25469483568075102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:35">
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>21</v>
@@ -6398,8 +6680,14 @@
       <c r="M41">
         <v>28.216000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="2:30">
+      <c r="AH41">
+        <v>5</v>
+      </c>
+      <c r="AI41">
+        <v>0.28849765258215898</v>
+      </c>
+    </row>
+    <row r="42" spans="2:35">
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>22</v>
@@ -6434,8 +6722,14 @@
       <c r="M42">
         <v>13.779299999999999</v>
       </c>
-    </row>
-    <row r="43" spans="2:30">
+      <c r="AH42">
+        <v>6</v>
+      </c>
+      <c r="AI42">
+        <v>0.35184700787630402</v>
+      </c>
+    </row>
+    <row r="43" spans="2:35">
       <c r="B43" s="1">
         <v>12</v>
       </c>
@@ -6472,8 +6766,14 @@
       <c r="M43">
         <v>8.1455000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="2:30">
+      <c r="AH43">
+        <v>7</v>
+      </c>
+      <c r="AI43">
+        <v>0.10892018779342701</v>
+      </c>
+    </row>
+    <row r="44" spans="2:35">
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
         <v>21</v>
@@ -6508,8 +6808,14 @@
       <c r="M44">
         <v>5.9325999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="2:30">
+      <c r="AH44">
+        <v>8</v>
+      </c>
+      <c r="AI44">
+        <v>0.21079168509509</v>
+      </c>
+    </row>
+    <row r="45" spans="2:35">
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
         <v>22</v>
@@ -6544,8 +6850,14 @@
       <c r="M45">
         <v>20.845099999999999</v>
       </c>
-    </row>
-    <row r="46" spans="2:30">
+      <c r="AH45">
+        <v>9</v>
+      </c>
+      <c r="AI45">
+        <v>6.4084507042253505E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:35">
       <c r="B46" s="1">
         <v>13</v>
       </c>
@@ -6582,8 +6894,14 @@
       <c r="M46">
         <v>20.516400000000001</v>
       </c>
-    </row>
-    <row r="47" spans="2:30">
+      <c r="AH46">
+        <v>10</v>
+      </c>
+      <c r="AI46">
+        <v>0.143247983163802</v>
+      </c>
+    </row>
+    <row r="47" spans="2:35">
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>21</v>
@@ -6618,8 +6936,14 @@
       <c r="M47">
         <v>21.079799999999999</v>
       </c>
-    </row>
-    <row r="48" spans="2:30">
+      <c r="AH47">
+        <v>11</v>
+      </c>
+      <c r="AI47">
+        <v>0.163681478523757</v>
+      </c>
+    </row>
+    <row r="48" spans="2:35">
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>22</v>
@@ -6654,8 +6978,14 @@
       <c r="M48">
         <v>8.9671000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="AH48">
+        <v>12</v>
+      </c>
+      <c r="AI48">
+        <v>4.4921875E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37">
       <c r="B49" s="1">
         <v>14</v>
       </c>
@@ -6692,8 +7022,14 @@
       <c r="M49">
         <v>8.9671000000000003</v>
       </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="AH49">
+        <v>13</v>
+      </c>
+      <c r="AI49">
+        <v>6.8935837245696394E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37">
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
         <v>21</v>
@@ -6728,8 +7064,14 @@
       <c r="M50">
         <v>8.7088999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="AH50">
+        <v>14</v>
+      </c>
+      <c r="AI50">
+        <v>0.122665076931811</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37">
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>22</v>
@@ -6770,8 +7112,30 @@
       <c r="O51" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="AH51">
+        <v>15</v>
+      </c>
+      <c r="AI51">
+        <v>0.176525821596244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37">
+      <c r="AH52">
+        <v>16</v>
+      </c>
+      <c r="AI52">
+        <v>0.12751988163491701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37">
+      <c r="AH53">
+        <v>17</v>
+      </c>
+      <c r="AI53">
+        <v>9.0979425755057602E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -6811,8 +7175,14 @@
       <c r="M54">
         <v>42.829599999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="AH54">
+        <v>18</v>
+      </c>
+      <c r="AI54">
+        <v>0.169483568075117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37">
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>21</v>
@@ -6847,8 +7217,14 @@
       <c r="M55">
         <v>13.2119</v>
       </c>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="AH55">
+        <v>19</v>
+      </c>
+      <c r="AI55">
+        <v>0.109978667930789</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37">
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
         <v>22</v>
@@ -6857,10 +7233,16 @@
         <v>27</v>
       </c>
       <c r="U56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <v>122</v>
+      </c>
+      <c r="AH56">
+        <v>20</v>
+      </c>
+      <c r="AI56">
+        <v>0.11988353211265999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37">
       <c r="B57" s="1">
         <v>12</v>
       </c>
@@ -6871,10 +7253,16 @@
         <v>27</v>
       </c>
       <c r="U57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>127</v>
+      </c>
+      <c r="AH57">
+        <v>21</v>
+      </c>
+      <c r="AI57">
+        <v>0.174882629107981</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37">
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>21</v>
@@ -6909,8 +7297,20 @@
       <c r="M58">
         <v>15.253500000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="U58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH58">
+        <v>22</v>
+      </c>
+      <c r="AI58">
+        <v>0.103815363651848</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>22</v>
@@ -6945,8 +7345,20 @@
       <c r="M59">
         <v>14.714700000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="U59" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH59">
+        <v>23</v>
+      </c>
+      <c r="AI59">
+        <v>7.018779342723E-2</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37">
       <c r="B60" s="1">
         <v>13</v>
       </c>
@@ -6956,8 +7368,20 @@
       <c r="D60" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="U60" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH60">
+        <v>24</v>
+      </c>
+      <c r="AI60">
+        <v>9.6782359228216194E-2</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37">
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
         <v>21</v>
@@ -6992,8 +7416,20 @@
       <c r="M61">
         <v>5.9238</v>
       </c>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="U61" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH61">
+        <v>25</v>
+      </c>
+      <c r="AI61">
+        <v>6.7840375586854407E-2</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37">
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>22</v>
@@ -7002,10 +7438,16 @@
         <v>27</v>
       </c>
       <c r="U62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+        <v>133</v>
+      </c>
+      <c r="AH62">
+        <v>26</v>
+      </c>
+      <c r="AI62">
+        <v>8.3839677392986506E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37">
       <c r="B63" s="1">
         <v>14</v>
       </c>
@@ -7015,8 +7457,17 @@
       <c r="D63" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="U63" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH63">
+        <v>27</v>
+      </c>
+      <c r="AI63">
+        <v>6.6197183098591503E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
         <v>21</v>
@@ -7024,8 +7475,14 @@
       <c r="D64" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="AH64">
+        <v>28</v>
+      </c>
+      <c r="AI64">
+        <v>4.2483135239318903E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
         <v>22</v>
@@ -7066,8 +7523,17 @@
       <c r="O65" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="U65" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH65">
+        <v>29</v>
+      </c>
+      <c r="AI65">
+        <v>9.0133783820604302E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35">
       <c r="B66" s="1">
         <v>11</v>
       </c>
@@ -7104,8 +7570,17 @@
       <c r="M66">
         <v>46.701900000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="U66" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH66">
+        <v>30</v>
+      </c>
+      <c r="AI66">
+        <v>6.4788732394366194E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>21</v>
@@ -7140,8 +7615,17 @@
       <c r="M67">
         <v>18.890799999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="U67" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH67">
+        <v>31</v>
+      </c>
+      <c r="AI67">
+        <v>8.9484536082474198E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>22</v>
@@ -7149,8 +7633,14 @@
       <c r="D68" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="AH68">
+        <v>32</v>
+      </c>
+      <c r="AI68">
+        <v>8.5995018748118296E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35">
       <c r="B69" s="1">
         <v>12</v>
       </c>
@@ -7188,7 +7678,7 @@
         <v>12.4939</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:35">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>21</v>
@@ -7224,7 +7714,7 @@
         <v>6.6822999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:35">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
         <v>22</v>
@@ -7260,7 +7750,7 @@
         <v>12.8445</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:35">
       <c r="B72" s="1">
         <v>13</v>
       </c>
@@ -7297,8 +7787,11 @@
       <c r="M72">
         <v>11.3001</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="AB72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
         <v>21</v>
@@ -7306,8 +7799,14 @@
       <c r="D73" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="AB73" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>22</v>
@@ -7315,8 +7814,20 @@
       <c r="D74" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="AA74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <v>42600</v>
+      </c>
+      <c r="AC74">
+        <v>76680</v>
+      </c>
+      <c r="AD74">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35">
       <c r="B75" s="1">
         <v>14</v>
       </c>
@@ -7326,8 +7837,21 @@
       <c r="D75" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="AA75">
+        <v>2</v>
+      </c>
+      <c r="AB75">
+        <v>170400</v>
+      </c>
+      <c r="AC75">
+        <v>361896</v>
+      </c>
+      <c r="AD75">
+        <f>SUM(AB74:AB75)</f>
+        <v>213000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>21</v>
@@ -7362,8 +7886,21 @@
       <c r="M76">
         <v>4.5856000000000003</v>
       </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="AA76">
+        <v>3</v>
+      </c>
+      <c r="AB76">
+        <v>345710</v>
+      </c>
+      <c r="AC76">
+        <v>866840</v>
+      </c>
+      <c r="AD76">
+        <f>SUM(AB74:AB76)</f>
+        <v>558710</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35">
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
         <v>22</v>
@@ -7404,8 +7941,36 @@
       <c r="O77" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="AA77">
+        <v>4</v>
+      </c>
+      <c r="AB77">
+        <v>42600</v>
+      </c>
+      <c r="AC77">
+        <v>899070</v>
+      </c>
+      <c r="AD77">
+        <f>SUM(AB74:AB77)</f>
+        <v>601310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35">
+      <c r="AA78">
+        <v>5</v>
+      </c>
+      <c r="AB78">
+        <v>170400</v>
+      </c>
+      <c r="AC78">
+        <v>1036054</v>
+      </c>
+      <c r="AD78">
+        <f>SUM(AB74:AB78)</f>
+        <v>771710</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -7445,8 +8010,21 @@
       <c r="M79">
         <v>52.0184</v>
       </c>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="AA79">
+        <v>6</v>
+      </c>
+      <c r="AB79">
+        <v>344070</v>
+      </c>
+      <c r="AC79">
+        <v>1343166</v>
+      </c>
+      <c r="AD79">
+        <f>SUM(AB74:AB79)</f>
+        <v>1115780</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35">
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>21</v>
@@ -7481,8 +8059,21 @@
       <c r="M80">
         <v>24.697700000000001</v>
       </c>
-    </row>
-    <row r="81" spans="2:15">
+      <c r="AA80">
+        <v>7</v>
+      </c>
+      <c r="AB80">
+        <v>42600</v>
+      </c>
+      <c r="AC80">
+        <v>1366702</v>
+      </c>
+      <c r="AD80">
+        <f>SUM(AB74:AB80)</f>
+        <v>1158380</v>
+      </c>
+    </row>
+    <row r="81" spans="2:30">
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
         <v>22</v>
@@ -7517,8 +8108,21 @@
       <c r="M81">
         <v>18.923300000000001</v>
       </c>
-    </row>
-    <row r="82" spans="2:15">
+      <c r="AA81">
+        <v>8</v>
+      </c>
+      <c r="AB81">
+        <v>339150</v>
+      </c>
+      <c r="AC81">
+        <v>1602448</v>
+      </c>
+      <c r="AD81">
+        <f>SUM(AB74:AB81)</f>
+        <v>1497530</v>
+      </c>
+    </row>
+    <row r="82" spans="2:30">
       <c r="B82" s="1">
         <v>12</v>
       </c>
@@ -7555,8 +8159,21 @@
       <c r="M82">
         <v>12.991300000000001</v>
       </c>
-    </row>
-    <row r="83" spans="2:15">
+      <c r="AA82">
+        <v>9</v>
+      </c>
+      <c r="AB82">
+        <v>42600</v>
+      </c>
+      <c r="AC82">
+        <v>1623310</v>
+      </c>
+      <c r="AD82">
+        <f>SUM(AB74:AB82)</f>
+        <v>1540130</v>
+      </c>
+    </row>
+    <row r="83" spans="2:30">
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
         <v>21</v>
@@ -7591,8 +8208,21 @@
       <c r="M83">
         <v>9.8140000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="2:15">
+      <c r="AA83">
+        <v>10</v>
+      </c>
+      <c r="AB83">
+        <v>142550</v>
+      </c>
+      <c r="AC83">
+        <v>1708918</v>
+      </c>
+      <c r="AD83">
+        <f>SUM(AB74:AB83)</f>
+        <v>1682680</v>
+      </c>
+    </row>
+    <row r="84" spans="2:30">
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>22</v>
@@ -7627,8 +8257,21 @@
       <c r="M84">
         <v>10.134600000000001</v>
       </c>
-    </row>
-    <row r="85" spans="2:15">
+      <c r="AA84">
+        <v>11</v>
+      </c>
+      <c r="AB84">
+        <v>350620</v>
+      </c>
+      <c r="AC84">
+        <v>1929512</v>
+      </c>
+      <c r="AD84">
+        <f>SUM(AB74:AB84)</f>
+        <v>2033300</v>
+      </c>
+    </row>
+    <row r="85" spans="2:30">
       <c r="B85" s="1">
         <v>13</v>
       </c>
@@ -7665,8 +8308,21 @@
       <c r="M85">
         <v>11.0799</v>
       </c>
-    </row>
-    <row r="86" spans="2:15">
+      <c r="AA85">
+        <v>12</v>
+      </c>
+      <c r="AB85">
+        <v>40960</v>
+      </c>
+      <c r="AC85">
+        <v>1948472</v>
+      </c>
+      <c r="AD85">
+        <f>SUM(AB74:AB85)</f>
+        <v>2074260</v>
+      </c>
+    </row>
+    <row r="86" spans="2:30">
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
         <v>21</v>
@@ -7701,8 +8357,21 @@
       <c r="M86">
         <v>10.3645</v>
       </c>
-    </row>
-    <row r="87" spans="2:15">
+      <c r="AA86">
+        <v>13</v>
+      </c>
+      <c r="AB86">
+        <v>127800</v>
+      </c>
+      <c r="AC86">
+        <v>2011926</v>
+      </c>
+      <c r="AD86">
+        <f>SUM(AB74:AB86)</f>
+        <v>2202060</v>
+      </c>
+    </row>
+    <row r="87" spans="2:30">
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>22</v>
@@ -7737,8 +8406,21 @@
       <c r="M87">
         <v>9.2032000000000007</v>
       </c>
-    </row>
-    <row r="88" spans="2:15">
+      <c r="AA87">
+        <v>14</v>
+      </c>
+      <c r="AB87">
+        <v>352260</v>
+      </c>
+      <c r="AC87">
+        <v>2213324</v>
+      </c>
+      <c r="AD87">
+        <f>SUM(AB74:AB87)</f>
+        <v>2554320</v>
+      </c>
+    </row>
+    <row r="88" spans="2:30">
       <c r="B88" s="1">
         <v>14</v>
       </c>
@@ -7775,8 +8457,21 @@
       <c r="M88">
         <v>8.0306999999999995</v>
       </c>
-    </row>
-    <row r="89" spans="2:15">
+      <c r="AA88">
+        <v>15</v>
+      </c>
+      <c r="AB88">
+        <v>42600</v>
+      </c>
+      <c r="AC88">
+        <v>2240892</v>
+      </c>
+      <c r="AD88">
+        <f>SUM(AB74:AB88)</f>
+        <v>2596920</v>
+      </c>
+    </row>
+    <row r="89" spans="2:30">
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
         <v>21</v>
@@ -7811,8 +8506,21 @@
       <c r="M89">
         <v>7.6470000000000002</v>
       </c>
-    </row>
-    <row r="90" spans="2:15">
+      <c r="AA89">
+        <v>16</v>
+      </c>
+      <c r="AB89">
+        <v>108140</v>
+      </c>
+      <c r="AC89">
+        <v>2303454</v>
+      </c>
+      <c r="AD89">
+        <f>SUM(AB74:AB89)</f>
+        <v>2705060</v>
+      </c>
+    </row>
+    <row r="90" spans="2:30">
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
         <v>22</v>
@@ -7853,8 +8561,21 @@
       <c r="O90" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="91" spans="2:15">
+      <c r="AA90">
+        <v>17</v>
+      </c>
+      <c r="AB90">
+        <v>348980</v>
+      </c>
+      <c r="AC90">
+        <v>2487496</v>
+      </c>
+      <c r="AD90">
+        <f>SUM(AB74:AB90)</f>
+        <v>3054040</v>
+      </c>
+    </row>
+    <row r="91" spans="2:30">
       <c r="B91" s="1">
         <v>11</v>
       </c>
@@ -7891,8 +8612,21 @@
       <c r="M91">
         <v>53.3048</v>
       </c>
-    </row>
-    <row r="92" spans="2:15">
+      <c r="AA91">
+        <v>18</v>
+      </c>
+      <c r="AB91">
+        <v>42600</v>
+      </c>
+      <c r="AC91">
+        <v>2514644</v>
+      </c>
+      <c r="AD91">
+        <f>SUM(AB74:AB91)</f>
+        <v>3096640</v>
+      </c>
+    </row>
+    <row r="92" spans="2:30">
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
         <v>21</v>
@@ -7927,8 +8661,21 @@
       <c r="M92">
         <v>29.581199999999999</v>
       </c>
-    </row>
-    <row r="93" spans="2:15">
+      <c r="AA92">
+        <v>19</v>
+      </c>
+      <c r="AB92">
+        <v>168760</v>
+      </c>
+      <c r="AC92">
+        <v>2608132</v>
+      </c>
+      <c r="AD92">
+        <f>SUM(AB74:AB92)</f>
+        <v>3265400</v>
+      </c>
+    </row>
+    <row r="93" spans="2:30">
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>22</v>
@@ -7963,8 +8710,21 @@
       <c r="M93">
         <v>17.5291</v>
       </c>
-    </row>
-    <row r="94" spans="2:15">
+      <c r="AA93">
+        <v>20</v>
+      </c>
+      <c r="AB93">
+        <v>357180</v>
+      </c>
+      <c r="AC93">
+        <v>2810952</v>
+      </c>
+      <c r="AD93">
+        <f>SUM(AB74:AB93)</f>
+        <v>3622580</v>
+      </c>
+    </row>
+    <row r="94" spans="2:30">
       <c r="B94" s="1">
         <v>12</v>
       </c>
@@ -8001,8 +8761,21 @@
       <c r="M94">
         <v>13.875400000000001</v>
       </c>
-    </row>
-    <row r="95" spans="2:15">
+      <c r="AA94">
+        <v>21</v>
+      </c>
+      <c r="AB94">
+        <v>42600</v>
+      </c>
+      <c r="AC94">
+        <v>2838422</v>
+      </c>
+      <c r="AD94">
+        <f>SUM(AB74:AB94)</f>
+        <v>3665180</v>
+      </c>
+    </row>
+    <row r="95" spans="2:30">
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
         <v>21</v>
@@ -8037,8 +8810,21 @@
       <c r="M95">
         <v>10.5632</v>
       </c>
-    </row>
-    <row r="96" spans="2:15">
+      <c r="AA95">
+        <v>22</v>
+      </c>
+      <c r="AB95">
+        <v>352260</v>
+      </c>
+      <c r="AC95">
+        <v>3030524</v>
+      </c>
+      <c r="AD95">
+        <f>SUM(AB74:AB95)</f>
+        <v>4017440</v>
+      </c>
+    </row>
+    <row r="96" spans="2:30">
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
         <v>22</v>
@@ -8073,8 +8859,21 @@
       <c r="M96">
         <v>8.0091000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="AA96">
+        <v>23</v>
+      </c>
+      <c r="AB96">
+        <v>42600</v>
+      </c>
+      <c r="AC96">
+        <v>3051750</v>
+      </c>
+      <c r="AD96">
+        <f>SUM(AB74:AB96)</f>
+        <v>4060040</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
       <c r="B97" s="1">
         <v>13</v>
       </c>
@@ -8111,8 +8910,21 @@
       <c r="M97">
         <v>10.093</v>
       </c>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="AA97">
+        <v>24</v>
+      </c>
+      <c r="AB97">
+        <v>355540</v>
+      </c>
+      <c r="AC97">
+        <v>3242140</v>
+      </c>
+      <c r="AD97">
+        <f>SUM(AB74:AB97)</f>
+        <v>4415580</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30">
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
         <v>21</v>
@@ -8147,8 +8959,21 @@
       <c r="M98">
         <v>9.1579999999999995</v>
       </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="AA98">
+        <v>25</v>
+      </c>
+      <c r="AB98">
+        <v>42600</v>
+      </c>
+      <c r="AC98">
+        <v>3263226</v>
+      </c>
+      <c r="AD98">
+        <f>SUM(AB74:AB98)</f>
+        <v>4458180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30">
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
         <v>22</v>
@@ -8183,8 +9008,21 @@
       <c r="M99">
         <v>8.8429000000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="AA99">
+        <v>26</v>
+      </c>
+      <c r="AB99">
+        <v>367010</v>
+      </c>
+      <c r="AC99">
+        <v>3453108</v>
+      </c>
+      <c r="AD99">
+        <f>SUM(AB74:AB99)</f>
+        <v>4825190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30">
       <c r="B100" s="1">
         <v>14</v>
       </c>
@@ -8221,8 +9059,21 @@
       <c r="M100">
         <v>7.3813000000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="AA100">
+        <v>27</v>
+      </c>
+      <c r="AB100">
+        <v>42600</v>
+      </c>
+      <c r="AC100">
+        <v>3474096</v>
+      </c>
+      <c r="AD100">
+        <f>SUM(AB74:AB100)</f>
+        <v>4867790</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30">
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
         <v>21</v>
@@ -8257,8 +9108,21 @@
       <c r="M101">
         <v>7.7137000000000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="AA101">
+        <v>28</v>
+      </c>
+      <c r="AB101">
+        <v>124520</v>
+      </c>
+      <c r="AC101">
+        <v>3531310</v>
+      </c>
+      <c r="AD101">
+        <f>SUM(AB74:AB101)</f>
+        <v>4992310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30">
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
         <v>22</v>
@@ -8299,13 +9163,54 @@
       <c r="O102" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="103" spans="1:15">
+      <c r="AA102">
+        <v>29</v>
+      </c>
+      <c r="AB102">
+        <v>367010</v>
+      </c>
+      <c r="AC102">
+        <v>3724426</v>
+      </c>
+      <c r="AD102">
+        <f>SUM(AB74:AB102)</f>
+        <v>5359320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30">
       <c r="A103" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="AA103">
+        <v>30</v>
+      </c>
+      <c r="AB103">
+        <v>42600</v>
+      </c>
+      <c r="AC103">
+        <v>3745330</v>
+      </c>
+      <c r="AD103">
+        <f>SUM(AB74:AB103)</f>
+        <v>5401920</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30">
+      <c r="AA104">
+        <v>31</v>
+      </c>
+      <c r="AB104">
+        <v>121250</v>
+      </c>
+      <c r="AC104">
+        <v>3809020</v>
+      </c>
+      <c r="AD104">
+        <f>SUM(AB74:AB104)</f>
+        <v>5523170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30">
       <c r="A105">
         <v>226100</v>
       </c>
@@ -8333,8 +9238,21 @@
       <c r="I105">
         <v>51.631999999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:15">
+      <c r="AA105">
+        <v>32</v>
+      </c>
+      <c r="AB105">
+        <v>365370</v>
+      </c>
+      <c r="AC105">
+        <v>3999156</v>
+      </c>
+      <c r="AD105">
+        <f>SUM(AB74:AB105)</f>
+        <v>5888540</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30">
       <c r="A106">
         <v>244130</v>
       </c>
@@ -8363,7 +9281,7 @@
         <v>44.918700000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:30">
       <c r="A107">
         <v>352260</v>
       </c>
@@ -8392,7 +9310,7 @@
         <v>41.409799999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:30">
       <c r="A108">
         <v>231020</v>
       </c>
@@ -8421,7 +9339,7 @@
         <v>14.903499999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:30">
       <c r="A109">
         <v>222830</v>
       </c>
@@ -8450,7 +9368,7 @@
         <v>11.8611</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:30">
       <c r="A110">
         <v>348980</v>
       </c>
@@ -8479,7 +9397,7 @@
         <v>19.958200000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:30">
       <c r="A111">
         <v>229380</v>
       </c>
@@ -8508,7 +9426,7 @@
         <v>15.210599999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:14">
       <c r="A113">
         <v>337520</v>
       </c>
@@ -8537,7 +9455,7 @@
         <v>15.9635</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:14">
       <c r="A114">
         <v>231020</v>
       </c>
@@ -8566,7 +9484,7 @@
         <v>10.129</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:14">
       <c r="A116">
         <v>350620</v>
       </c>
@@ -8595,7 +9513,7 @@
         <v>11.2201</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>231020</v>
       </c>
@@ -8624,7 +9542,7 @@
         <v>7.4928999999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:14">
       <c r="A118">
         <v>198250</v>
       </c>
@@ -8653,7 +9571,7 @@
         <v>12.917999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:14">
       <c r="A119">
         <v>350620</v>
       </c>
@@ -8681,11 +9599,8 @@
       <c r="I119">
         <v>8.7360000000000007</v>
       </c>
-      <c r="V119" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24">
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>234300</v>
       </c>
@@ -8716,14 +9631,8 @@
       <c r="N120" t="s">
         <v>91</v>
       </c>
-      <c r="V120" t="s">
-        <v>93</v>
-      </c>
-      <c r="W120" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24">
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121">
         <v>226100</v>
       </c>
@@ -8751,26 +9660,8 @@
       <c r="I121">
         <v>12.1008</v>
       </c>
-      <c r="L121" t="s">
-        <v>88</v>
-      </c>
-      <c r="M121" t="s">
-        <v>89</v>
-      </c>
-      <c r="U121">
-        <v>1</v>
-      </c>
-      <c r="V121">
-        <v>42600</v>
-      </c>
-      <c r="W121">
-        <v>76680</v>
-      </c>
-      <c r="X121">
-        <v>42600</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24">
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122">
         <v>344070</v>
       </c>
@@ -8798,30 +9689,11 @@
       <c r="I122">
         <v>9.1638000000000002</v>
       </c>
-      <c r="L122">
-        <v>1</v>
-      </c>
-      <c r="M122">
-        <v>1</v>
-      </c>
       <c r="N122">
         <v>1</v>
       </c>
-      <c r="U122">
-        <v>2</v>
-      </c>
-      <c r="V122">
-        <v>170400</v>
-      </c>
-      <c r="W122">
-        <v>361896</v>
-      </c>
-      <c r="X122">
-        <f>SUM(V121:V122)</f>
-        <v>213000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24">
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123">
         <v>229380</v>
       </c>
@@ -8849,48 +9721,8 @@
       <c r="I123">
         <v>7.2717999999999998</v>
       </c>
-      <c r="L123">
-        <v>2</v>
-      </c>
-      <c r="M123">
-        <v>0.90985915492957703</v>
-      </c>
-      <c r="U123">
-        <v>3</v>
-      </c>
-      <c r="V123">
-        <v>345710</v>
-      </c>
-      <c r="W123">
-        <v>866840</v>
-      </c>
-      <c r="X123">
-        <f>SUM(V121:V123)</f>
-        <v>558710</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24">
-      <c r="L124">
-        <v>3</v>
-      </c>
-      <c r="M124">
-        <v>0.75757137485175396</v>
-      </c>
-      <c r="U124">
-        <v>4</v>
-      </c>
-      <c r="V124">
-        <v>42600</v>
-      </c>
-      <c r="W124">
-        <v>899070</v>
-      </c>
-      <c r="X124">
-        <f>SUM(V121:V124)</f>
-        <v>601310</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24">
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125">
         <v>352260</v>
       </c>
@@ -8918,27 +9750,8 @@
       <c r="I125">
         <v>9.8223000000000003</v>
       </c>
-      <c r="L125">
-        <v>4</v>
-      </c>
-      <c r="M125">
-        <v>0.25469483568075102</v>
-      </c>
-      <c r="U125">
-        <v>5</v>
-      </c>
-      <c r="V125">
-        <v>170400</v>
-      </c>
-      <c r="W125">
-        <v>1036054</v>
-      </c>
-      <c r="X125">
-        <f>SUM(V121:V125)</f>
-        <v>771710</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24">
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126">
         <v>231020</v>
       </c>
@@ -8966,27 +9779,8 @@
       <c r="I126">
         <v>7.6010999999999997</v>
       </c>
-      <c r="L126">
-        <v>5</v>
-      </c>
-      <c r="M126">
-        <v>0.28849765258215898</v>
-      </c>
-      <c r="U126">
-        <v>6</v>
-      </c>
-      <c r="V126">
-        <v>344070</v>
-      </c>
-      <c r="W126">
-        <v>1343166</v>
-      </c>
-      <c r="X126">
-        <f>SUM(V121:V126)</f>
-        <v>1115780</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24">
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127">
         <v>222830</v>
       </c>
@@ -9014,27 +9808,8 @@
       <c r="I127">
         <v>4.4294000000000002</v>
       </c>
-      <c r="L127">
-        <v>6</v>
-      </c>
-      <c r="M127">
-        <v>0.35184700787630402</v>
-      </c>
-      <c r="U127">
-        <v>7</v>
-      </c>
-      <c r="V127">
-        <v>42600</v>
-      </c>
-      <c r="W127">
-        <v>1366702</v>
-      </c>
-      <c r="X127">
-        <f>SUM(V121:V127)</f>
-        <v>1158380</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24">
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128">
         <v>355540</v>
       </c>
@@ -9062,27 +9837,8 @@
       <c r="I128">
         <v>9.1494999999999997</v>
       </c>
-      <c r="L128">
-        <v>7</v>
-      </c>
-      <c r="M128">
-        <v>0.10892018779342701</v>
-      </c>
-      <c r="U128">
-        <v>8</v>
-      </c>
-      <c r="V128">
-        <v>339150</v>
-      </c>
-      <c r="W128">
-        <v>1602448</v>
-      </c>
-      <c r="X128">
-        <f>SUM(V121:V128)</f>
-        <v>1497530</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24">
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>234300</v>
       </c>
@@ -9110,48 +9866,8 @@
       <c r="I129">
         <v>4.5069999999999997</v>
       </c>
-      <c r="L129">
-        <v>8</v>
-      </c>
-      <c r="M129">
-        <v>0.21079168509509</v>
-      </c>
-      <c r="U129">
-        <v>9</v>
-      </c>
-      <c r="V129">
-        <v>42600</v>
-      </c>
-      <c r="W129">
-        <v>1623310</v>
-      </c>
-      <c r="X129">
-        <f>SUM(V121:V129)</f>
-        <v>1540130</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24">
-      <c r="L130">
-        <v>9</v>
-      </c>
-      <c r="M130">
-        <v>6.4084507042253505E-2</v>
-      </c>
-      <c r="U130">
-        <v>10</v>
-      </c>
-      <c r="V130">
-        <v>142550</v>
-      </c>
-      <c r="W130">
-        <v>1708918</v>
-      </c>
-      <c r="X130">
-        <f>SUM(V121:V130)</f>
-        <v>1682680</v>
-      </c>
-    </row>
-    <row r="131" spans="1:24">
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>353900</v>
       </c>
@@ -9179,27 +9895,8 @@
       <c r="I131">
         <v>8.0983000000000001</v>
       </c>
-      <c r="L131">
-        <v>10</v>
-      </c>
-      <c r="M131">
-        <v>0.143247983163802</v>
-      </c>
-      <c r="U131">
-        <v>11</v>
-      </c>
-      <c r="V131">
-        <v>350620</v>
-      </c>
-      <c r="W131">
-        <v>1929512</v>
-      </c>
-      <c r="X131">
-        <f>SUM(V121:V131)</f>
-        <v>2033300</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24">
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>232660</v>
       </c>
@@ -9227,48 +9924,8 @@
       <c r="I132">
         <v>6.6234000000000002</v>
       </c>
-      <c r="L132">
-        <v>11</v>
-      </c>
-      <c r="M132">
-        <v>0.163681478523757</v>
-      </c>
-      <c r="U132">
-        <v>12</v>
-      </c>
-      <c r="V132">
-        <v>40960</v>
-      </c>
-      <c r="W132">
-        <v>1948472</v>
-      </c>
-      <c r="X132">
-        <f>SUM(V121:V132)</f>
-        <v>2074260</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24">
-      <c r="L133">
-        <v>12</v>
-      </c>
-      <c r="M133">
-        <v>4.4921875E-2</v>
-      </c>
-      <c r="U133">
-        <v>13</v>
-      </c>
-      <c r="V133">
-        <v>127800</v>
-      </c>
-      <c r="W133">
-        <v>2011926</v>
-      </c>
-      <c r="X133">
-        <f>SUM(V121:V133)</f>
-        <v>2202060</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24">
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>363730</v>
       </c>
@@ -9296,27 +9953,8 @@
       <c r="I134">
         <v>7.0381999999999998</v>
       </c>
-      <c r="L134">
-        <v>13</v>
-      </c>
-      <c r="M134">
-        <v>6.8935837245696394E-2</v>
-      </c>
-      <c r="U134">
-        <v>14</v>
-      </c>
-      <c r="V134">
-        <v>352260</v>
-      </c>
-      <c r="W134">
-        <v>2213324</v>
-      </c>
-      <c r="X134">
-        <f>SUM(V121:V134)</f>
-        <v>2554320</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24">
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>231020</v>
       </c>
@@ -9344,48 +9982,8 @@
       <c r="I135">
         <v>5.3674999999999997</v>
       </c>
-      <c r="L135">
-        <v>14</v>
-      </c>
-      <c r="M135">
-        <v>0.122665076931811</v>
-      </c>
-      <c r="U135">
-        <v>15</v>
-      </c>
-      <c r="V135">
-        <v>42600</v>
-      </c>
-      <c r="W135">
-        <v>2240892</v>
-      </c>
-      <c r="X135">
-        <f>SUM(V121:V135)</f>
-        <v>2596920</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24">
-      <c r="L136">
-        <v>15</v>
-      </c>
-      <c r="M136">
-        <v>0.176525821596244</v>
-      </c>
-      <c r="U136">
-        <v>16</v>
-      </c>
-      <c r="V136">
-        <v>108140</v>
-      </c>
-      <c r="W136">
-        <v>2303454</v>
-      </c>
-      <c r="X136">
-        <f>SUM(V121:V136)</f>
-        <v>2705060</v>
-      </c>
-    </row>
-    <row r="137" spans="1:24">
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>368640</v>
       </c>
@@ -9413,27 +10011,8 @@
       <c r="I137">
         <v>6.7870999999999997</v>
       </c>
-      <c r="L137">
-        <v>16</v>
-      </c>
-      <c r="M137">
-        <v>0.12751988163491701</v>
-      </c>
-      <c r="U137">
-        <v>17</v>
-      </c>
-      <c r="V137">
-        <v>348980</v>
-      </c>
-      <c r="W137">
-        <v>2487496</v>
-      </c>
-      <c r="X137">
-        <f>SUM(V121:V137)</f>
-        <v>3054040</v>
-      </c>
-    </row>
-    <row r="138" spans="1:24">
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>227740</v>
       </c>
@@ -9461,27 +10040,8 @@
       <c r="I138">
         <v>5.5941000000000001</v>
       </c>
-      <c r="L138">
-        <v>17</v>
-      </c>
-      <c r="M138">
-        <v>9.0979425755057602E-2</v>
-      </c>
-      <c r="U138">
-        <v>18</v>
-      </c>
-      <c r="V138">
-        <v>42600</v>
-      </c>
-      <c r="W138">
-        <v>2514644</v>
-      </c>
-      <c r="X138">
-        <f>SUM(V121:V138)</f>
-        <v>3096640</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24">
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>224470</v>
       </c>
@@ -9512,27 +10072,8 @@
       <c r="J139" t="s">
         <v>42</v>
       </c>
-      <c r="L139">
-        <v>18</v>
-      </c>
-      <c r="M139">
-        <v>0.169483568075117</v>
-      </c>
-      <c r="U139">
-        <v>19</v>
-      </c>
-      <c r="V139">
-        <v>168760</v>
-      </c>
-      <c r="W139">
-        <v>2608132</v>
-      </c>
-      <c r="X139">
-        <f>SUM(V121:V139)</f>
-        <v>3265400</v>
-      </c>
-    </row>
-    <row r="140" spans="1:24">
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>367010</v>
       </c>
@@ -9563,72 +10104,13 @@
       <c r="J140" t="s">
         <v>41</v>
       </c>
-      <c r="L140">
-        <v>19</v>
-      </c>
-      <c r="M140">
-        <v>0.109978667930789</v>
-      </c>
-      <c r="U140">
-        <v>20</v>
-      </c>
-      <c r="V140">
-        <v>357180</v>
-      </c>
-      <c r="W140">
-        <v>2810952</v>
-      </c>
-      <c r="X140">
-        <f>SUM(V121:V140)</f>
-        <v>3622580</v>
-      </c>
-    </row>
-    <row r="141" spans="1:24">
-      <c r="L141">
-        <v>20</v>
-      </c>
-      <c r="M141">
-        <v>0.11988353211265999</v>
-      </c>
-      <c r="U141">
-        <v>21</v>
-      </c>
-      <c r="V141">
-        <v>42600</v>
-      </c>
-      <c r="W141">
-        <v>2838422</v>
-      </c>
-      <c r="X141">
-        <f>SUM(V121:V141)</f>
-        <v>3665180</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24">
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>47</v>
       </c>
-      <c r="L142">
-        <v>21</v>
-      </c>
-      <c r="M142">
-        <v>0.174882629107981</v>
-      </c>
-      <c r="U142">
-        <v>22</v>
-      </c>
-      <c r="V142">
-        <v>352260</v>
-      </c>
-      <c r="W142">
-        <v>3030524</v>
-      </c>
-      <c r="X142">
-        <f>SUM(V121:V142)</f>
-        <v>4017440</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24">
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>42600</v>
       </c>
@@ -9656,27 +10138,8 @@
       <c r="I143">
         <v>60.164299999999997</v>
       </c>
-      <c r="L143">
-        <v>22</v>
-      </c>
-      <c r="M143">
-        <v>0.103815363651848</v>
-      </c>
-      <c r="U143">
-        <v>23</v>
-      </c>
-      <c r="V143">
-        <v>42600</v>
-      </c>
-      <c r="W143">
-        <v>3051750</v>
-      </c>
-      <c r="X143">
-        <f>SUM(V121:V143)</f>
-        <v>4060040</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24">
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>170400</v>
       </c>
@@ -9704,27 +10167,8 @@
       <c r="I144">
         <v>49.724200000000003</v>
       </c>
-      <c r="L144">
-        <v>23</v>
-      </c>
-      <c r="M144">
-        <v>7.018779342723E-2</v>
-      </c>
-      <c r="U144">
-        <v>24</v>
-      </c>
-      <c r="V144">
-        <v>355540</v>
-      </c>
-      <c r="W144">
-        <v>3242140</v>
-      </c>
-      <c r="X144">
-        <f>SUM(V121:V144)</f>
-        <v>4415580</v>
-      </c>
-    </row>
-    <row r="145" spans="1:24">
+    </row>
+    <row r="145" spans="1:43">
       <c r="A145">
         <v>345710</v>
       </c>
@@ -9752,27 +10196,8 @@
       <c r="I145">
         <v>45.5931</v>
       </c>
-      <c r="L145">
-        <v>24</v>
-      </c>
-      <c r="M145">
-        <v>9.6782359228216194E-2</v>
-      </c>
-      <c r="U145">
-        <v>25</v>
-      </c>
-      <c r="V145">
-        <v>42600</v>
-      </c>
-      <c r="W145">
-        <v>3263226</v>
-      </c>
-      <c r="X145">
-        <f>SUM(V121:V145)</f>
-        <v>4458180</v>
-      </c>
-    </row>
-    <row r="146" spans="1:24">
+    </row>
+    <row r="146" spans="1:43">
       <c r="A146">
         <v>42600</v>
       </c>
@@ -9800,27 +10225,8 @@
       <c r="I146">
         <v>23.544599999999999</v>
       </c>
-      <c r="L146">
-        <v>25</v>
-      </c>
-      <c r="M146">
-        <v>6.7840375586854407E-2</v>
-      </c>
-      <c r="U146">
-        <v>26</v>
-      </c>
-      <c r="V146">
-        <v>367010</v>
-      </c>
-      <c r="W146">
-        <v>3453108</v>
-      </c>
-      <c r="X146">
-        <f>SUM(V121:V146)</f>
-        <v>4825190</v>
-      </c>
-    </row>
-    <row r="147" spans="1:24">
+    </row>
+    <row r="147" spans="1:43">
       <c r="A147">
         <v>170400</v>
       </c>
@@ -9848,27 +10254,8 @@
       <c r="I147">
         <v>17.235900000000001</v>
       </c>
-      <c r="L147">
-        <v>26</v>
-      </c>
-      <c r="M147">
-        <v>8.3839677392986506E-2</v>
-      </c>
-      <c r="U147">
-        <v>27</v>
-      </c>
-      <c r="V147">
-        <v>42600</v>
-      </c>
-      <c r="W147">
-        <v>3474096</v>
-      </c>
-      <c r="X147">
-        <f>SUM(V121:V147)</f>
-        <v>4867790</v>
-      </c>
-    </row>
-    <row r="148" spans="1:24">
+    </row>
+    <row r="148" spans="1:43">
       <c r="A148">
         <v>344070</v>
       </c>
@@ -9896,27 +10283,8 @@
       <c r="I148">
         <v>25.910399999999999</v>
       </c>
-      <c r="L148">
-        <v>27</v>
-      </c>
-      <c r="M148">
-        <v>6.6197183098591503E-2</v>
-      </c>
-      <c r="U148">
-        <v>28</v>
-      </c>
-      <c r="V148">
-        <v>124520</v>
-      </c>
-      <c r="W148">
-        <v>3531310</v>
-      </c>
-      <c r="X148">
-        <f>SUM(V121:V148)</f>
-        <v>4992310</v>
-      </c>
-    </row>
-    <row r="149" spans="1:24">
+    </row>
+    <row r="149" spans="1:43">
       <c r="A149">
         <v>42600</v>
       </c>
@@ -9944,48 +10312,8 @@
       <c r="I149">
         <v>10.0939</v>
       </c>
-      <c r="L149">
-        <v>28</v>
-      </c>
-      <c r="M149">
-        <v>4.2483135239318903E-2</v>
-      </c>
-      <c r="U149">
-        <v>29</v>
-      </c>
-      <c r="V149">
-        <v>367010</v>
-      </c>
-      <c r="W149">
-        <v>3724426</v>
-      </c>
-      <c r="X149">
-        <f>SUM(V121:V149)</f>
-        <v>5359320</v>
-      </c>
-    </row>
-    <row r="150" spans="1:24">
-      <c r="L150">
-        <v>29</v>
-      </c>
-      <c r="M150">
-        <v>9.0133783820604302E-2</v>
-      </c>
-      <c r="U150">
-        <v>30</v>
-      </c>
-      <c r="V150">
-        <v>42600</v>
-      </c>
-      <c r="W150">
-        <v>3745330</v>
-      </c>
-      <c r="X150">
-        <f>SUM(V121:V150)</f>
-        <v>5401920</v>
-      </c>
-    </row>
-    <row r="151" spans="1:24">
+    </row>
+    <row r="151" spans="1:43">
       <c r="A151">
         <v>339150</v>
       </c>
@@ -10013,27 +10341,8 @@
       <c r="I151">
         <v>16.5001</v>
       </c>
-      <c r="L151">
-        <v>30</v>
-      </c>
-      <c r="M151">
-        <v>6.4788732394366194E-2</v>
-      </c>
-      <c r="U151">
-        <v>31</v>
-      </c>
-      <c r="V151">
-        <v>121250</v>
-      </c>
-      <c r="W151">
-        <v>3809020</v>
-      </c>
-      <c r="X151">
-        <f>SUM(V121:V151)</f>
-        <v>5523170</v>
-      </c>
-    </row>
-    <row r="152" spans="1:24">
+    </row>
+    <row r="152" spans="1:43">
       <c r="A152">
         <v>42600</v>
       </c>
@@ -10061,27 +10370,8 @@
       <c r="I152">
         <v>5.9390000000000001</v>
       </c>
-      <c r="L152">
-        <v>31</v>
-      </c>
-      <c r="M152">
-        <v>8.9484536082474198E-2</v>
-      </c>
-      <c r="U152">
-        <v>32</v>
-      </c>
-      <c r="V152">
-        <v>365370</v>
-      </c>
-      <c r="W152">
-        <v>3999156</v>
-      </c>
-      <c r="X152">
-        <f>SUM(V121:V152)</f>
-        <v>5888540</v>
-      </c>
-    </row>
-    <row r="153" spans="1:24">
+    </row>
+    <row r="153" spans="1:43">
       <c r="A153">
         <v>142550</v>
       </c>
@@ -10109,14 +10399,8 @@
       <c r="I153">
         <v>10.480499999999999</v>
       </c>
-      <c r="L153">
-        <v>32</v>
-      </c>
-      <c r="M153">
-        <v>8.5995018748118296E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:24">
+    </row>
+    <row r="154" spans="1:43">
       <c r="A154">
         <v>350620</v>
       </c>
@@ -10145,7 +10429,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:43">
       <c r="A155">
         <v>40960</v>
       </c>
@@ -10174,7 +10458,7 @@
         <v>4.1504000000000003</v>
       </c>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:43">
       <c r="A156">
         <v>127800</v>
       </c>
@@ -10203,7 +10487,7 @@
         <v>5.5164</v>
       </c>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:43">
       <c r="A157">
         <v>352260</v>
       </c>
@@ -10232,7 +10516,7 @@
         <v>9.8194999999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:43">
       <c r="A158">
         <v>42600</v>
       </c>
@@ -10261,7 +10545,7 @@
         <v>16.549299999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:43">
       <c r="A159">
         <v>108140</v>
       </c>
@@ -10289,8 +10573,17 @@
       <c r="I159">
         <v>11.1615</v>
       </c>
-    </row>
-    <row r="160" spans="1:24">
+      <c r="R159" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD159" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ159" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="160" spans="1:43">
       <c r="A160">
         <v>348980</v>
       </c>
@@ -10318,8 +10611,41 @@
       <c r="I160">
         <v>7.5936000000000003</v>
       </c>
-    </row>
-    <row r="161" spans="1:37">
+      <c r="R160">
+        <v>42600</v>
+      </c>
+      <c r="S160">
+        <v>34080</v>
+      </c>
+      <c r="T160">
+        <v>34080</v>
+      </c>
+      <c r="U160">
+        <v>42600</v>
+      </c>
+      <c r="V160">
+        <v>110760</v>
+      </c>
+      <c r="W160">
+        <v>110760</v>
+      </c>
+      <c r="X160">
+        <v>1</v>
+      </c>
+      <c r="Y160">
+        <v>35.0822</v>
+      </c>
+      <c r="Z160">
+        <v>38.098599999999998</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ160" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:52">
       <c r="A161">
         <v>42600</v>
       </c>
@@ -10347,8 +10673,95 @@
       <c r="I161">
         <v>16.032900000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:37">
+      <c r="R161">
+        <v>170395</v>
+      </c>
+      <c r="S161">
+        <v>136316</v>
+      </c>
+      <c r="T161">
+        <v>75552</v>
+      </c>
+      <c r="U161">
+        <v>94440</v>
+      </c>
+      <c r="V161">
+        <v>306308</v>
+      </c>
+      <c r="W161">
+        <v>417068</v>
+      </c>
+      <c r="X161">
+        <v>0.554241615070864</v>
+      </c>
+      <c r="Y161">
+        <v>11.039099999999999</v>
+      </c>
+      <c r="Z161">
+        <v>21.197800000000001</v>
+      </c>
+      <c r="AD161">
+        <v>42600</v>
+      </c>
+      <c r="AE161">
+        <v>17040</v>
+      </c>
+      <c r="AF161">
+        <v>17040</v>
+      </c>
+      <c r="AG161">
+        <v>42600</v>
+      </c>
+      <c r="AH161">
+        <v>76680</v>
+      </c>
+      <c r="AI161">
+        <v>76680</v>
+      </c>
+      <c r="AJ161">
+        <v>1</v>
+      </c>
+      <c r="AK161">
+        <v>59.765300000000003</v>
+      </c>
+      <c r="AL161">
+        <v>60.164299999999997</v>
+      </c>
+      <c r="AM161" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ161">
+        <v>42600</v>
+      </c>
+      <c r="AR161">
+        <v>5680</v>
+      </c>
+      <c r="AS161">
+        <v>5680</v>
+      </c>
+      <c r="AT161">
+        <v>42600</v>
+      </c>
+      <c r="AU161">
+        <v>53960</v>
+      </c>
+      <c r="AV161">
+        <v>53960</v>
+      </c>
+      <c r="AW161">
+        <v>1</v>
+      </c>
+      <c r="AX161">
+        <v>85.492999999999995</v>
+      </c>
+      <c r="AY161">
+        <v>85.492999999999995</v>
+      </c>
+      <c r="AZ161" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="162" spans="1:52">
       <c r="A162">
         <v>168760</v>
       </c>
@@ -10376,8 +10789,95 @@
       <c r="I162">
         <v>9.1491000000000007</v>
       </c>
-    </row>
-    <row r="163" spans="1:37">
+      <c r="R162">
+        <v>345705</v>
+      </c>
+      <c r="S162">
+        <v>276564</v>
+      </c>
+      <c r="T162">
+        <v>82032</v>
+      </c>
+      <c r="U162">
+        <v>102540</v>
+      </c>
+      <c r="V162">
+        <v>461136</v>
+      </c>
+      <c r="W162">
+        <v>878204</v>
+      </c>
+      <c r="X162">
+        <v>0.29661127261682602</v>
+      </c>
+      <c r="Y162">
+        <v>8.0271000000000008</v>
+      </c>
+      <c r="Z162">
+        <v>13.761699999999999</v>
+      </c>
+      <c r="AD162">
+        <v>170400</v>
+      </c>
+      <c r="AE162">
+        <v>68160</v>
+      </c>
+      <c r="AF162">
+        <v>62016</v>
+      </c>
+      <c r="AG162">
+        <v>155040</v>
+      </c>
+      <c r="AH162">
+        <v>285216</v>
+      </c>
+      <c r="AI162">
+        <v>361896</v>
+      </c>
+      <c r="AJ162">
+        <v>0.90985915492957703</v>
+      </c>
+      <c r="AK162">
+        <v>37.564599999999999</v>
+      </c>
+      <c r="AL162">
+        <v>49.724200000000003</v>
+      </c>
+      <c r="AM162" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ162">
+        <v>170400</v>
+      </c>
+      <c r="AR162">
+        <v>22720</v>
+      </c>
+      <c r="AS162">
+        <v>22688</v>
+      </c>
+      <c r="AT162">
+        <v>170160</v>
+      </c>
+      <c r="AU162">
+        <v>215568</v>
+      </c>
+      <c r="AV162">
+        <v>269528</v>
+      </c>
+      <c r="AW162">
+        <v>0.99859154929577398</v>
+      </c>
+      <c r="AX162">
+        <v>72.517600000000002</v>
+      </c>
+      <c r="AY162">
+        <v>74.700699999999998</v>
+      </c>
+      <c r="AZ162" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:52">
       <c r="A163">
         <v>357180</v>
       </c>
@@ -10405,8 +10905,95 @@
       <c r="I163">
         <v>9.4573999999999998</v>
       </c>
-    </row>
-    <row r="164" spans="1:37">
+      <c r="R163">
+        <v>42600</v>
+      </c>
+      <c r="S163">
+        <v>34080</v>
+      </c>
+      <c r="T163">
+        <v>3344</v>
+      </c>
+      <c r="U163">
+        <v>4180</v>
+      </c>
+      <c r="V163">
+        <v>41604</v>
+      </c>
+      <c r="W163">
+        <v>919808</v>
+      </c>
+      <c r="X163">
+        <v>9.8122065727699506E-2</v>
+      </c>
+      <c r="Y163">
+        <v>7.1947999999999999</v>
+      </c>
+      <c r="Z163">
+        <v>8.4506999999999994</v>
+      </c>
+      <c r="AD163">
+        <v>345710</v>
+      </c>
+      <c r="AE163">
+        <v>138284</v>
+      </c>
+      <c r="AF163">
+        <v>104760</v>
+      </c>
+      <c r="AG163">
+        <v>261900</v>
+      </c>
+      <c r="AH163">
+        <v>504944</v>
+      </c>
+      <c r="AI163">
+        <v>866840</v>
+      </c>
+      <c r="AJ163">
+        <v>0.75757137485175396</v>
+      </c>
+      <c r="AK163">
+        <v>35.590499999999999</v>
+      </c>
+      <c r="AL163">
+        <v>45.5931</v>
+      </c>
+      <c r="AM163" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ163">
+        <v>345720</v>
+      </c>
+      <c r="AR163">
+        <v>46096</v>
+      </c>
+      <c r="AS163">
+        <v>45604</v>
+      </c>
+      <c r="AT163">
+        <v>342030</v>
+      </c>
+      <c r="AU163">
+        <v>433730</v>
+      </c>
+      <c r="AV163">
+        <v>703258</v>
+      </c>
+      <c r="AW163">
+        <v>0.98932662270045102</v>
+      </c>
+      <c r="AX163">
+        <v>73.307900000000004</v>
+      </c>
+      <c r="AY163">
+        <v>79.599100000000007</v>
+      </c>
+      <c r="AZ163" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:52">
       <c r="A164">
         <v>42600</v>
       </c>
@@ -10434,8 +11021,184 @@
       <c r="I164">
         <v>16.666699999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:37">
+      <c r="R164">
+        <v>170395</v>
+      </c>
+      <c r="S164">
+        <v>136316</v>
+      </c>
+      <c r="T164">
+        <v>10772</v>
+      </c>
+      <c r="U164">
+        <v>13465</v>
+      </c>
+      <c r="V164">
+        <v>160553</v>
+      </c>
+      <c r="W164">
+        <v>1080361</v>
+      </c>
+      <c r="X164">
+        <v>7.9022271780275197E-2</v>
+      </c>
+      <c r="Y164">
+        <v>1.5933999999999999</v>
+      </c>
+      <c r="Z164">
+        <v>3.5739999999999998</v>
+      </c>
+      <c r="AD164">
+        <v>42600</v>
+      </c>
+      <c r="AE164">
+        <v>17040</v>
+      </c>
+      <c r="AF164">
+        <v>4340</v>
+      </c>
+      <c r="AG164">
+        <v>10850</v>
+      </c>
+      <c r="AH164">
+        <v>32230</v>
+      </c>
+      <c r="AI164">
+        <v>899070</v>
+      </c>
+      <c r="AJ164">
+        <v>0.25469483568075102</v>
+      </c>
+      <c r="AK164">
+        <v>22.018799999999999</v>
+      </c>
+      <c r="AL164">
+        <v>23.544599999999999</v>
+      </c>
+      <c r="AM164" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ164">
+        <v>42600</v>
+      </c>
+      <c r="AR164">
+        <v>5680</v>
+      </c>
+      <c r="AS164">
+        <v>2680</v>
+      </c>
+      <c r="AT164">
+        <v>20100</v>
+      </c>
+      <c r="AU164">
+        <v>28460</v>
+      </c>
+      <c r="AV164">
+        <v>731718</v>
+      </c>
+      <c r="AW164">
+        <v>0.471830985915492</v>
+      </c>
+      <c r="AX164">
+        <v>45.281700000000001</v>
+      </c>
+      <c r="AY164">
+        <v>45.422499999999999</v>
+      </c>
+      <c r="AZ164" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="165" spans="1:52">
+      <c r="R165">
+        <v>344065</v>
+      </c>
+      <c r="S165">
+        <v>275252</v>
+      </c>
+      <c r="T165">
+        <v>22080</v>
+      </c>
+      <c r="U165">
+        <v>27600</v>
+      </c>
+      <c r="V165">
+        <v>324932</v>
+      </c>
+      <c r="W165">
+        <v>1405293</v>
+      </c>
+      <c r="X165">
+        <v>8.0217400781828999E-2</v>
+      </c>
+      <c r="Y165">
+        <v>3.2</v>
+      </c>
+      <c r="Z165">
+        <v>5.0441000000000003</v>
+      </c>
+      <c r="AD165">
+        <v>170400</v>
+      </c>
+      <c r="AE165">
+        <v>68160</v>
+      </c>
+      <c r="AF165">
+        <v>19664</v>
+      </c>
+      <c r="AG165">
+        <v>49160</v>
+      </c>
+      <c r="AH165">
+        <v>136984</v>
+      </c>
+      <c r="AI165">
+        <v>1036054</v>
+      </c>
+      <c r="AJ165">
+        <v>0.28849765258215898</v>
+      </c>
+      <c r="AK165">
+        <v>11.0329</v>
+      </c>
+      <c r="AL165">
+        <v>17.235900000000001</v>
+      </c>
+      <c r="AM165" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ165">
+        <v>170400</v>
+      </c>
+      <c r="AR165">
+        <v>22720</v>
+      </c>
+      <c r="AS165">
+        <v>8596</v>
+      </c>
+      <c r="AT165">
+        <v>64470</v>
+      </c>
+      <c r="AU165">
+        <v>95786</v>
+      </c>
+      <c r="AV165">
+        <v>827504</v>
+      </c>
+      <c r="AW165">
+        <v>0.37834507042253501</v>
+      </c>
+      <c r="AX165">
+        <v>29.2254</v>
+      </c>
+      <c r="AY165">
+        <v>32.552799999999998</v>
+      </c>
+      <c r="AZ165" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="166" spans="1:52">
       <c r="A166">
         <v>352260</v>
       </c>
@@ -10463,8 +11226,95 @@
       <c r="I166">
         <v>8.5078999999999994</v>
       </c>
-    </row>
-    <row r="167" spans="1:37">
+      <c r="R166">
+        <v>42600</v>
+      </c>
+      <c r="S166">
+        <v>34080</v>
+      </c>
+      <c r="T166">
+        <v>904</v>
+      </c>
+      <c r="U166">
+        <v>1130</v>
+      </c>
+      <c r="V166">
+        <v>36114</v>
+      </c>
+      <c r="W166">
+        <v>1441407</v>
+      </c>
+      <c r="X166">
+        <v>2.6525821596244101E-2</v>
+      </c>
+      <c r="Y166">
+        <v>1.385</v>
+      </c>
+      <c r="Z166">
+        <v>2.0775000000000001</v>
+      </c>
+      <c r="AD166">
+        <v>344070</v>
+      </c>
+      <c r="AE166">
+        <v>137628</v>
+      </c>
+      <c r="AF166">
+        <v>48424</v>
+      </c>
+      <c r="AG166">
+        <v>121060</v>
+      </c>
+      <c r="AH166">
+        <v>307112</v>
+      </c>
+      <c r="AI166">
+        <v>1343166</v>
+      </c>
+      <c r="AJ166">
+        <v>0.35184700787630402</v>
+      </c>
+      <c r="AK166">
+        <v>20.670200000000001</v>
+      </c>
+      <c r="AL166">
+        <v>25.910399999999999</v>
+      </c>
+      <c r="AM166" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ166">
+        <v>344070</v>
+      </c>
+      <c r="AR166">
+        <v>45876</v>
+      </c>
+      <c r="AS166">
+        <v>33784</v>
+      </c>
+      <c r="AT166">
+        <v>253380</v>
+      </c>
+      <c r="AU166">
+        <v>333040</v>
+      </c>
+      <c r="AV166">
+        <v>1160544</v>
+      </c>
+      <c r="AW166">
+        <v>0.73641991455227096</v>
+      </c>
+      <c r="AX166">
+        <v>59.612900000000003</v>
+      </c>
+      <c r="AY166">
+        <v>64.914100000000005</v>
+      </c>
+      <c r="AZ166" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="167" spans="1:52">
       <c r="A167">
         <v>42600</v>
       </c>
@@ -10492,8 +11342,103 @@
       <c r="I167">
         <v>6.4554</v>
       </c>
-    </row>
-    <row r="169" spans="1:37">
+      <c r="AD167">
+        <v>42600</v>
+      </c>
+      <c r="AE167">
+        <v>17040</v>
+      </c>
+      <c r="AF167">
+        <v>1856</v>
+      </c>
+      <c r="AG167">
+        <v>4640</v>
+      </c>
+      <c r="AH167">
+        <v>23536</v>
+      </c>
+      <c r="AI167">
+        <v>1366702</v>
+      </c>
+      <c r="AJ167">
+        <v>0.10892018779342701</v>
+      </c>
+      <c r="AK167">
+        <v>9.4131</v>
+      </c>
+      <c r="AL167">
+        <v>10.0939</v>
+      </c>
+      <c r="AM167" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ167">
+        <v>42600</v>
+      </c>
+      <c r="AR167">
+        <v>5680</v>
+      </c>
+      <c r="AS167">
+        <v>2496</v>
+      </c>
+      <c r="AT167">
+        <v>18720</v>
+      </c>
+      <c r="AU167">
+        <v>26896</v>
+      </c>
+      <c r="AV167">
+        <v>1187440</v>
+      </c>
+      <c r="AW167">
+        <v>0.439436619718309</v>
+      </c>
+      <c r="AX167">
+        <v>42.676099999999998</v>
+      </c>
+      <c r="AY167">
+        <v>43.028199999999998</v>
+      </c>
+      <c r="AZ167" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="168" spans="1:52">
+      <c r="R168">
+        <v>339150</v>
+      </c>
+      <c r="S168">
+        <v>271320</v>
+      </c>
+      <c r="T168">
+        <v>11112</v>
+      </c>
+      <c r="U168">
+        <v>13890</v>
+      </c>
+      <c r="V168">
+        <v>296322</v>
+      </c>
+      <c r="W168">
+        <v>1737729</v>
+      </c>
+      <c r="X168">
+        <v>4.0955329500221099E-2</v>
+      </c>
+      <c r="Y168">
+        <v>1.9593</v>
+      </c>
+      <c r="Z168">
+        <v>2.8498000000000001</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ168" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="1:52">
       <c r="A169">
         <v>355540</v>
       </c>
@@ -10521,8 +11466,95 @@
       <c r="I169">
         <v>8.2382000000000009</v>
       </c>
-    </row>
-    <row r="170" spans="1:37">
+      <c r="R169">
+        <v>42600</v>
+      </c>
+      <c r="S169">
+        <v>34080</v>
+      </c>
+      <c r="T169">
+        <v>388</v>
+      </c>
+      <c r="U169">
+        <v>485</v>
+      </c>
+      <c r="V169">
+        <v>34953</v>
+      </c>
+      <c r="W169">
+        <v>1772682</v>
+      </c>
+      <c r="X169">
+        <v>1.1384976525821501E-2</v>
+      </c>
+      <c r="Y169">
+        <v>0.6573</v>
+      </c>
+      <c r="Z169">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="AD169">
+        <v>339150</v>
+      </c>
+      <c r="AE169">
+        <v>135660</v>
+      </c>
+      <c r="AF169">
+        <v>28596</v>
+      </c>
+      <c r="AG169">
+        <v>71490</v>
+      </c>
+      <c r="AH169">
+        <v>235746</v>
+      </c>
+      <c r="AI169">
+        <v>1602448</v>
+      </c>
+      <c r="AJ169">
+        <v>0.21079168509509</v>
+      </c>
+      <c r="AK169">
+        <v>13.527900000000001</v>
+      </c>
+      <c r="AL169">
+        <v>16.5001</v>
+      </c>
+      <c r="AM169" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ169">
+        <v>339150</v>
+      </c>
+      <c r="AR169">
+        <v>45220</v>
+      </c>
+      <c r="AS169">
+        <v>25640</v>
+      </c>
+      <c r="AT169">
+        <v>192300</v>
+      </c>
+      <c r="AU169">
+        <v>263160</v>
+      </c>
+      <c r="AV169">
+        <v>1450600</v>
+      </c>
+      <c r="AW169">
+        <v>0.56700574966828798</v>
+      </c>
+      <c r="AX169">
+        <v>48.306100000000001</v>
+      </c>
+      <c r="AY169">
+        <v>51.773600000000002</v>
+      </c>
+      <c r="AZ169" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="170" spans="1:52">
       <c r="A170">
         <v>42600</v>
       </c>
@@ -10550,43 +11582,184 @@
       <c r="I170">
         <v>6.3146000000000004</v>
       </c>
-      <c r="AB170" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="171" spans="1:37">
-      <c r="AB171">
+      <c r="R170">
+        <v>142545</v>
+      </c>
+      <c r="S170">
+        <v>114036</v>
+      </c>
+      <c r="T170">
+        <v>2304</v>
+      </c>
+      <c r="U170">
+        <v>2880</v>
+      </c>
+      <c r="V170">
+        <v>119220</v>
+      </c>
+      <c r="W170">
+        <v>1891902</v>
+      </c>
+      <c r="X170">
+        <v>2.02041460591392E-2</v>
+      </c>
+      <c r="Y170">
+        <v>1.0102</v>
+      </c>
+      <c r="Z170">
+        <v>1.4487000000000001</v>
+      </c>
+      <c r="AD170">
         <v>42600</v>
       </c>
-      <c r="AC171">
-        <v>34080</v>
+      <c r="AE170">
+        <v>17040</v>
+      </c>
+      <c r="AF170">
+        <v>1092</v>
+      </c>
+      <c r="AG170">
+        <v>2730</v>
+      </c>
+      <c r="AH170">
+        <v>20862</v>
+      </c>
+      <c r="AI170">
+        <v>1623310</v>
+      </c>
+      <c r="AJ170">
+        <v>6.4084507042253505E-2</v>
+      </c>
+      <c r="AK170">
+        <v>5.5164</v>
+      </c>
+      <c r="AL170">
+        <v>5.9390000000000001</v>
+      </c>
+      <c r="AM170" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ170">
+        <v>42600</v>
+      </c>
+      <c r="AR170">
+        <v>5680</v>
+      </c>
+      <c r="AS170">
+        <v>1136</v>
+      </c>
+      <c r="AT170">
+        <v>8520</v>
+      </c>
+      <c r="AU170">
+        <v>15336</v>
+      </c>
+      <c r="AV170">
+        <v>1465936</v>
+      </c>
+      <c r="AW170">
+        <v>0.2</v>
+      </c>
+      <c r="AX170">
+        <v>19.2254</v>
+      </c>
+      <c r="AY170">
+        <v>19.718299999999999</v>
+      </c>
+      <c r="AZ170" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="171" spans="1:52">
+      <c r="R171">
+        <v>350620</v>
+      </c>
+      <c r="S171">
+        <v>280496</v>
+      </c>
+      <c r="T171">
+        <v>7892</v>
+      </c>
+      <c r="U171">
+        <v>9865</v>
+      </c>
+      <c r="V171">
+        <v>298253</v>
+      </c>
+      <c r="W171">
+        <v>2190155</v>
+      </c>
+      <c r="X171">
+        <v>2.81358735953453E-2</v>
+      </c>
+      <c r="Y171">
+        <v>1.5286999999999999</v>
+      </c>
+      <c r="Z171">
+        <v>1.9879</v>
       </c>
       <c r="AD171">
-        <v>34080</v>
+        <v>142550</v>
       </c>
       <c r="AE171">
-        <v>42600</v>
+        <v>57020</v>
       </c>
       <c r="AF171">
-        <v>110760</v>
+        <v>8168</v>
       </c>
       <c r="AG171">
-        <v>110760</v>
+        <v>20420</v>
       </c>
       <c r="AH171">
-        <v>1</v>
+        <v>85608</v>
       </c>
       <c r="AI171">
-        <v>35.0822</v>
+        <v>1708918</v>
       </c>
       <c r="AJ171">
-        <v>38.098599999999998</v>
-      </c>
-      <c r="AK171" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="172" spans="1:37">
+        <v>0.143247983163802</v>
+      </c>
+      <c r="AK171">
+        <v>8.0042000000000009</v>
+      </c>
+      <c r="AL171">
+        <v>10.480499999999999</v>
+      </c>
+      <c r="AM171" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ171">
+        <v>142560</v>
+      </c>
+      <c r="AR171">
+        <v>19008</v>
+      </c>
+      <c r="AS171">
+        <v>9380</v>
+      </c>
+      <c r="AT171">
+        <v>70350</v>
+      </c>
+      <c r="AU171">
+        <v>98738</v>
+      </c>
+      <c r="AV171">
+        <v>1564674</v>
+      </c>
+      <c r="AW171">
+        <v>0.49347643097643001</v>
+      </c>
+      <c r="AX171">
+        <v>42.613599999999998</v>
+      </c>
+      <c r="AY171">
+        <v>45.1389</v>
+      </c>
+      <c r="AZ171" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="172" spans="1:52">
       <c r="A172">
         <v>367010</v>
       </c>
@@ -10614,38 +11787,95 @@
       <c r="I172">
         <v>6.8745000000000003</v>
       </c>
-      <c r="AB172">
-        <v>42600</v>
-      </c>
-      <c r="AC172">
-        <v>34080</v>
+      <c r="R172">
+        <v>40960</v>
+      </c>
+      <c r="S172">
+        <v>32768</v>
+      </c>
+      <c r="T172">
+        <v>196</v>
+      </c>
+      <c r="U172">
+        <v>245</v>
+      </c>
+      <c r="V172">
+        <v>33209</v>
+      </c>
+      <c r="W172">
+        <v>2223364</v>
+      </c>
+      <c r="X172">
+        <v>5.9814453125E-3</v>
+      </c>
+      <c r="Y172">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="Z172">
+        <v>0.47610000000000002</v>
       </c>
       <c r="AD172">
-        <v>9540</v>
+        <v>350620</v>
       </c>
       <c r="AE172">
-        <v>11925</v>
+        <v>140248</v>
       </c>
       <c r="AF172">
-        <v>55545</v>
+        <v>22956</v>
       </c>
       <c r="AG172">
-        <v>166305</v>
+        <v>57390</v>
       </c>
       <c r="AH172">
-        <v>0.27992957746478803</v>
+        <v>220594</v>
       </c>
       <c r="AI172">
-        <v>12.394399999999999</v>
+        <v>1929512</v>
       </c>
       <c r="AJ172">
-        <v>18.227699999999999</v>
-      </c>
-      <c r="AK172" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="173" spans="1:37">
+        <v>0.163681478523757</v>
+      </c>
+      <c r="AK172">
+        <v>11.4369</v>
+      </c>
+      <c r="AL172">
+        <v>12.9</v>
+      </c>
+      <c r="AM172" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ172">
+        <v>350640</v>
+      </c>
+      <c r="AR172">
+        <v>46752</v>
+      </c>
+      <c r="AS172">
+        <v>23244</v>
+      </c>
+      <c r="AT172">
+        <v>174330</v>
+      </c>
+      <c r="AU172">
+        <v>244326</v>
+      </c>
+      <c r="AV172">
+        <v>1809000</v>
+      </c>
+      <c r="AW172">
+        <v>0.49717659137577003</v>
+      </c>
+      <c r="AX172">
+        <v>43.557499999999997</v>
+      </c>
+      <c r="AY172">
+        <v>45.628</v>
+      </c>
+      <c r="AZ172" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:52">
       <c r="A173">
         <v>42600</v>
       </c>
@@ -10673,38 +11903,95 @@
       <c r="I173">
         <v>6.2675999999999998</v>
       </c>
-      <c r="AB173">
-        <v>42600</v>
-      </c>
-      <c r="AC173">
-        <v>34080</v>
+      <c r="R173">
+        <v>127800</v>
+      </c>
+      <c r="S173">
+        <v>102240</v>
+      </c>
+      <c r="T173">
+        <v>944</v>
+      </c>
+      <c r="U173">
+        <v>1180</v>
+      </c>
+      <c r="V173">
+        <v>104364</v>
+      </c>
+      <c r="W173">
+        <v>2327728</v>
+      </c>
+      <c r="X173">
+        <v>9.2331768388106399E-3</v>
+      </c>
+      <c r="Y173">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="Z173">
+        <v>0.70809999999999995</v>
       </c>
       <c r="AD173">
-        <v>3980</v>
+        <v>40960</v>
       </c>
       <c r="AE173">
-        <v>4975</v>
+        <v>16384</v>
       </c>
       <c r="AF173">
-        <v>43035</v>
+        <v>736</v>
       </c>
       <c r="AG173">
-        <v>209340</v>
+        <v>1840</v>
       </c>
       <c r="AH173">
-        <v>0.11678403755868499</v>
+        <v>18960</v>
       </c>
       <c r="AI173">
-        <v>3.9319000000000002</v>
+        <v>1948472</v>
       </c>
       <c r="AJ173">
-        <v>7.0656999999999996</v>
-      </c>
-      <c r="AK173" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="174" spans="1:37">
+        <v>4.4921875E-2</v>
+      </c>
+      <c r="AK173">
+        <v>3.7109000000000001</v>
+      </c>
+      <c r="AL173">
+        <v>4.1504000000000003</v>
+      </c>
+      <c r="AM173" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ173">
+        <v>40980</v>
+      </c>
+      <c r="AR173">
+        <v>5464</v>
+      </c>
+      <c r="AS173">
+        <v>1876</v>
+      </c>
+      <c r="AT173">
+        <v>14070</v>
+      </c>
+      <c r="AU173">
+        <v>21410</v>
+      </c>
+      <c r="AV173">
+        <v>1830410</v>
+      </c>
+      <c r="AW173">
+        <v>0.34333821376281098</v>
+      </c>
+      <c r="AX173">
+        <v>33.821399999999997</v>
+      </c>
+      <c r="AY173">
+        <v>34.040999999999997</v>
+      </c>
+      <c r="AZ173" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:52">
       <c r="A174">
         <v>124520</v>
       </c>
@@ -10732,38 +12019,95 @@
       <c r="I174">
         <v>3.2926000000000002</v>
       </c>
-      <c r="AB174">
-        <v>42600</v>
-      </c>
-      <c r="AC174">
-        <v>34080</v>
+      <c r="R174">
+        <v>352260</v>
+      </c>
+      <c r="S174">
+        <v>281808</v>
+      </c>
+      <c r="T174">
+        <v>5920</v>
+      </c>
+      <c r="U174">
+        <v>7400</v>
+      </c>
+      <c r="V174">
+        <v>295128</v>
+      </c>
+      <c r="W174">
+        <v>2622856</v>
+      </c>
+      <c r="X174">
+        <v>2.1007210583092E-2</v>
+      </c>
+      <c r="Y174">
+        <v>1.2249000000000001</v>
+      </c>
+      <c r="Z174">
+        <v>1.5273000000000001</v>
       </c>
       <c r="AD174">
-        <v>1932</v>
+        <v>127800</v>
       </c>
       <c r="AE174">
-        <v>2415</v>
+        <v>51120</v>
       </c>
       <c r="AF174">
-        <v>38427</v>
+        <v>3524</v>
       </c>
       <c r="AG174">
-        <v>247767</v>
+        <v>8810</v>
       </c>
       <c r="AH174">
-        <v>5.6690140845070403E-2</v>
+        <v>63454</v>
       </c>
       <c r="AI174">
-        <v>2.4178000000000002</v>
+        <v>2011926</v>
       </c>
       <c r="AJ174">
-        <v>3.6854</v>
-      </c>
-      <c r="AK174" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="175" spans="1:37">
+        <v>6.8935837245696394E-2</v>
+      </c>
+      <c r="AK174">
+        <v>4.4836</v>
+      </c>
+      <c r="AL174">
+        <v>5.5164</v>
+      </c>
+      <c r="AM174" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ174">
+        <v>127800</v>
+      </c>
+      <c r="AR174">
+        <v>17040</v>
+      </c>
+      <c r="AS174">
+        <v>4676</v>
+      </c>
+      <c r="AT174">
+        <v>35070</v>
+      </c>
+      <c r="AU174">
+        <v>56786</v>
+      </c>
+      <c r="AV174">
+        <v>1887196</v>
+      </c>
+      <c r="AW174">
+        <v>0.27441314553990598</v>
+      </c>
+      <c r="AX174">
+        <v>23.732399999999998</v>
+      </c>
+      <c r="AY174">
+        <v>25.399100000000001</v>
+      </c>
+      <c r="AZ174" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="175" spans="1:52">
       <c r="A175">
         <v>367010</v>
       </c>
@@ -10791,38 +12135,95 @@
       <c r="I175">
         <v>7.2805</v>
       </c>
-      <c r="AB175">
-        <v>40960</v>
-      </c>
-      <c r="AC175">
-        <v>32768</v>
+      <c r="R175">
+        <v>42600</v>
+      </c>
+      <c r="S175">
+        <v>34080</v>
+      </c>
+      <c r="T175">
+        <v>2060</v>
+      </c>
+      <c r="U175">
+        <v>2575</v>
+      </c>
+      <c r="V175">
+        <v>38715</v>
+      </c>
+      <c r="W175">
+        <v>2661571</v>
+      </c>
+      <c r="X175">
+        <v>6.0446009389671297E-2</v>
+      </c>
+      <c r="Y175">
+        <v>5.2112999999999996</v>
+      </c>
+      <c r="Z175">
+        <v>5.5399000000000003</v>
       </c>
       <c r="AD175">
-        <v>852</v>
+        <v>352260</v>
       </c>
       <c r="AE175">
-        <v>1065</v>
+        <v>140904</v>
       </c>
       <c r="AF175">
-        <v>34685</v>
+        <v>17284</v>
       </c>
       <c r="AG175">
-        <v>282452</v>
+        <v>43210</v>
       </c>
       <c r="AH175">
-        <v>2.60009765625E-2</v>
+        <v>201398</v>
       </c>
       <c r="AI175">
-        <v>1.3672</v>
+        <v>2213324</v>
       </c>
       <c r="AJ175">
-        <v>1.8432999999999999</v>
-      </c>
-      <c r="AK175" t="s">
+        <v>0.122665076931811</v>
+      </c>
+      <c r="AK175">
+        <v>8.7322000000000006</v>
+      </c>
+      <c r="AL175">
+        <v>9.8194999999999997</v>
+      </c>
+      <c r="AM175" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="176" spans="1:37">
+      <c r="AQ175">
+        <v>352260</v>
+      </c>
+      <c r="AR175">
+        <v>46968</v>
+      </c>
+      <c r="AS175">
+        <v>20076</v>
+      </c>
+      <c r="AT175">
+        <v>150570</v>
+      </c>
+      <c r="AU175">
+        <v>217614</v>
+      </c>
+      <c r="AV175">
+        <v>2104810</v>
+      </c>
+      <c r="AW175">
+        <v>0.427439959121103</v>
+      </c>
+      <c r="AX175">
+        <v>37.915199999999999</v>
+      </c>
+      <c r="AY175">
+        <v>39.5077</v>
+      </c>
+      <c r="AZ175" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:52">
       <c r="A176">
         <v>42600</v>
       </c>
@@ -10850,38 +12251,95 @@
       <c r="I176">
         <v>6.1501999999999999</v>
       </c>
-      <c r="AB176">
+      <c r="R176">
+        <v>108135</v>
+      </c>
+      <c r="S176">
+        <v>86508</v>
+      </c>
+      <c r="T176">
+        <v>1792</v>
+      </c>
+      <c r="U176">
+        <v>2240</v>
+      </c>
+      <c r="V176">
+        <v>90540</v>
+      </c>
+      <c r="W176">
+        <v>2752111</v>
+      </c>
+      <c r="X176">
+        <v>2.0714847181763502E-2</v>
+      </c>
+      <c r="Y176">
+        <v>1.5582</v>
+      </c>
+      <c r="Z176">
+        <v>1.7571000000000001</v>
+      </c>
+      <c r="AD176">
         <v>42600</v>
       </c>
-      <c r="AC176">
-        <v>34080</v>
-      </c>
-      <c r="AD176">
-        <v>3744</v>
-      </c>
       <c r="AE176">
-        <v>4680</v>
+        <v>17040</v>
       </c>
       <c r="AF176">
-        <v>42504</v>
+        <v>3008</v>
       </c>
       <c r="AG176">
-        <v>324956</v>
+        <v>7520</v>
       </c>
       <c r="AH176">
-        <v>0.109859154929577</v>
+        <v>27568</v>
       </c>
       <c r="AI176">
-        <v>8.7324000000000002</v>
+        <v>2240892</v>
       </c>
       <c r="AJ176">
-        <v>9.4131</v>
-      </c>
-      <c r="AK176" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="177" spans="1:38">
+        <v>0.176525821596244</v>
+      </c>
+      <c r="AK176">
+        <v>16.385000000000002</v>
+      </c>
+      <c r="AL176">
+        <v>16.549299999999999</v>
+      </c>
+      <c r="AM176" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ176">
+        <v>42600</v>
+      </c>
+      <c r="AR176">
+        <v>5680</v>
+      </c>
+      <c r="AS176">
+        <v>2096</v>
+      </c>
+      <c r="AT176">
+        <v>15720</v>
+      </c>
+      <c r="AU176">
+        <v>23496</v>
+      </c>
+      <c r="AV176">
+        <v>2128306</v>
+      </c>
+      <c r="AW176">
+        <v>0.36901408450704198</v>
+      </c>
+      <c r="AX176">
+        <v>35.985900000000001</v>
+      </c>
+      <c r="AY176">
+        <v>36.338000000000001</v>
+      </c>
+      <c r="AZ176" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="177" spans="1:52">
       <c r="A177">
         <v>121250</v>
       </c>
@@ -10909,38 +12367,95 @@
       <c r="I177">
         <v>7.8350999999999997</v>
       </c>
-      <c r="AB177">
-        <v>42600</v>
-      </c>
-      <c r="AC177">
-        <v>34080</v>
+      <c r="R177">
+        <v>348980</v>
+      </c>
+      <c r="S177">
+        <v>279184</v>
+      </c>
+      <c r="T177">
+        <v>3404</v>
+      </c>
+      <c r="U177">
+        <v>4255</v>
+      </c>
+      <c r="V177">
+        <v>286843</v>
+      </c>
+      <c r="W177">
+        <v>3038954</v>
+      </c>
+      <c r="X177">
+        <v>1.219267579804E-2</v>
+      </c>
+      <c r="Y177">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="Z177">
+        <v>0.94989999999999997</v>
       </c>
       <c r="AD177">
-        <v>3336</v>
+        <v>108140</v>
       </c>
       <c r="AE177">
-        <v>4170</v>
+        <v>43256</v>
       </c>
       <c r="AF177">
-        <v>41586</v>
+        <v>5516</v>
       </c>
       <c r="AG177">
-        <v>366542</v>
+        <v>13790</v>
       </c>
       <c r="AH177">
-        <v>9.7887323943661897E-2</v>
+        <v>62562</v>
       </c>
       <c r="AI177">
-        <v>7.9577</v>
+        <v>2303454</v>
       </c>
       <c r="AJ177">
-        <v>8.4271999999999991</v>
-      </c>
-      <c r="AK177" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="178" spans="1:38">
+        <v>0.12751988163491701</v>
+      </c>
+      <c r="AK177">
+        <v>10.3847</v>
+      </c>
+      <c r="AL177">
+        <v>11.1615</v>
+      </c>
+      <c r="AM177" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ177">
+        <v>108150</v>
+      </c>
+      <c r="AR177">
+        <v>14420</v>
+      </c>
+      <c r="AS177">
+        <v>6736</v>
+      </c>
+      <c r="AT177">
+        <v>50520</v>
+      </c>
+      <c r="AU177">
+        <v>71676</v>
+      </c>
+      <c r="AV177">
+        <v>2199982</v>
+      </c>
+      <c r="AW177">
+        <v>0.467128987517337</v>
+      </c>
+      <c r="AX177">
+        <v>43.966700000000003</v>
+      </c>
+      <c r="AY177">
+        <v>44.826599999999999</v>
+      </c>
+      <c r="AZ177" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="178" spans="1:52">
       <c r="A178">
         <v>365370</v>
       </c>
@@ -10974,175 +12489,465 @@
       <c r="K178" t="s">
         <v>45</v>
       </c>
-      <c r="AB178">
+      <c r="R178">
         <v>42600</v>
       </c>
-      <c r="AC178">
+      <c r="S178">
         <v>34080</v>
       </c>
+      <c r="T178">
+        <v>1820</v>
+      </c>
+      <c r="U178">
+        <v>2275</v>
+      </c>
+      <c r="V178">
+        <v>38175</v>
+      </c>
+      <c r="W178">
+        <v>3077129</v>
+      </c>
+      <c r="X178">
+        <v>5.3403755868544601E-2</v>
+      </c>
+      <c r="Y178">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="Z178">
+        <v>4.8944000000000001</v>
+      </c>
       <c r="AD178">
-        <v>3220</v>
+        <v>348980</v>
       </c>
       <c r="AE178">
-        <v>4025</v>
+        <v>139592</v>
       </c>
       <c r="AF178">
-        <v>41325</v>
+        <v>12700</v>
       </c>
       <c r="AG178">
-        <v>407867</v>
+        <v>31750</v>
       </c>
       <c r="AH178">
-        <v>9.4483568075117305E-2</v>
+        <v>184042</v>
       </c>
       <c r="AI178">
-        <v>7.9108000000000001</v>
+        <v>2487496</v>
       </c>
       <c r="AJ178">
-        <v>8.2745999999999995</v>
-      </c>
-      <c r="AK178" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="179" spans="1:38">
-      <c r="AB179">
+        <v>9.0979425755057602E-2</v>
+      </c>
+      <c r="AK178">
+        <v>6.7454000000000001</v>
+      </c>
+      <c r="AL178">
+        <v>7.5936000000000003</v>
+      </c>
+      <c r="AM178" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ178">
+        <v>348990</v>
+      </c>
+      <c r="AR178">
+        <v>46532</v>
+      </c>
+      <c r="AS178">
+        <v>17360</v>
+      </c>
+      <c r="AT178">
+        <v>130200</v>
+      </c>
+      <c r="AU178">
+        <v>194092</v>
+      </c>
+      <c r="AV178">
+        <v>2394074</v>
+      </c>
+      <c r="AW178">
+        <v>0.37307659245250502</v>
+      </c>
+      <c r="AX178">
+        <v>34.015300000000003</v>
+      </c>
+      <c r="AY178">
+        <v>35.339100000000002</v>
+      </c>
+      <c r="AZ178" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:52">
+      <c r="R179">
+        <v>168760</v>
+      </c>
+      <c r="S179">
+        <v>135008</v>
+      </c>
+      <c r="T179">
+        <v>1764</v>
+      </c>
+      <c r="U179">
+        <v>2205</v>
+      </c>
+      <c r="V179">
+        <v>138977</v>
+      </c>
+      <c r="W179">
+        <v>3216106</v>
+      </c>
+      <c r="X179">
+        <v>1.30658923915619E-2</v>
+      </c>
+      <c r="Y179">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="Z179">
+        <v>1.0548</v>
+      </c>
+      <c r="AD179">
         <v>42600</v>
       </c>
-      <c r="AC179">
-        <v>34080</v>
-      </c>
-      <c r="AD179">
-        <v>1184</v>
-      </c>
       <c r="AE179">
-        <v>1480</v>
+        <v>17040</v>
       </c>
       <c r="AF179">
-        <v>36744</v>
+        <v>2888</v>
       </c>
       <c r="AG179">
-        <v>444611</v>
+        <v>7220</v>
       </c>
       <c r="AH179">
-        <v>3.47417840375586E-2</v>
+        <v>27148</v>
       </c>
       <c r="AI179">
-        <v>2.0423</v>
+        <v>2514644</v>
       </c>
       <c r="AJ179">
-        <v>2.5939000000000001</v>
-      </c>
-      <c r="AK179" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="180" spans="1:38">
-      <c r="AB180">
+        <v>0.169483568075117</v>
+      </c>
+      <c r="AK179">
+        <v>15.939</v>
+      </c>
+      <c r="AL179">
+        <v>16.032900000000001</v>
+      </c>
+      <c r="AM179" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ179">
         <v>42600</v>
       </c>
-      <c r="AC180">
-        <v>34080</v>
+      <c r="AR179">
+        <v>5680</v>
+      </c>
+      <c r="AS179">
+        <v>2040</v>
+      </c>
+      <c r="AT179">
+        <v>15300</v>
+      </c>
+      <c r="AU179">
+        <v>23020</v>
+      </c>
+      <c r="AV179">
+        <v>2417094</v>
+      </c>
+      <c r="AW179">
+        <v>0.35915492957746398</v>
+      </c>
+      <c r="AX179">
+        <v>35.493000000000002</v>
+      </c>
+      <c r="AY179">
+        <v>35.7042</v>
+      </c>
+      <c r="AZ179" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="180" spans="1:52">
+      <c r="R180">
+        <v>357175</v>
+      </c>
+      <c r="S180">
+        <v>285740</v>
+      </c>
+      <c r="T180">
+        <v>5016</v>
+      </c>
+      <c r="U180">
+        <v>6270</v>
+      </c>
+      <c r="V180">
+        <v>297026</v>
+      </c>
+      <c r="W180">
+        <v>3513132</v>
+      </c>
+      <c r="X180">
+        <v>1.7554420102190799E-2</v>
+      </c>
+      <c r="Y180">
+        <v>1.0261</v>
+      </c>
+      <c r="Z180">
+        <v>1.2473000000000001</v>
       </c>
       <c r="AD180">
-        <v>876</v>
+        <v>168760</v>
       </c>
       <c r="AE180">
-        <v>1095</v>
+        <v>67504</v>
       </c>
       <c r="AF180">
-        <v>36051</v>
+        <v>7424</v>
       </c>
       <c r="AG180">
-        <v>480662</v>
+        <v>18560</v>
       </c>
       <c r="AH180">
-        <v>2.57042253521126E-2</v>
+        <v>93488</v>
       </c>
       <c r="AI180">
-        <v>1.7723</v>
+        <v>2608132</v>
       </c>
       <c r="AJ180">
-        <v>2.1478999999999999</v>
-      </c>
-      <c r="AK180" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="181" spans="1:38">
+        <v>0.109978667930789</v>
+      </c>
+      <c r="AK180">
+        <v>13.3918</v>
+      </c>
+      <c r="AL180">
+        <v>9.1491000000000007</v>
+      </c>
+      <c r="AM180" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ180">
+        <v>168780</v>
+      </c>
+      <c r="AR180">
+        <v>22504</v>
+      </c>
+      <c r="AS180">
+        <v>8664</v>
+      </c>
+      <c r="AT180">
+        <v>64980</v>
+      </c>
+      <c r="AU180">
+        <v>96148</v>
+      </c>
+      <c r="AV180">
+        <v>2513242</v>
+      </c>
+      <c r="AW180">
+        <v>0.38499822253821497</v>
+      </c>
+      <c r="AX180">
+        <v>36.757899999999999</v>
+      </c>
+      <c r="AY180">
+        <v>36.740099999999998</v>
+      </c>
+      <c r="AZ180" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="181" spans="1:52">
       <c r="A181" t="s">
         <v>48</v>
       </c>
-      <c r="AB181">
+      <c r="R181">
         <v>42600</v>
       </c>
-      <c r="AC181">
+      <c r="S181">
         <v>34080</v>
       </c>
+      <c r="T181">
+        <v>1728</v>
+      </c>
+      <c r="U181">
+        <v>2160</v>
+      </c>
+      <c r="V181">
+        <v>37968</v>
+      </c>
+      <c r="W181">
+        <v>3551100</v>
+      </c>
+      <c r="X181">
+        <v>5.0704225352112602E-2</v>
+      </c>
+      <c r="Y181">
+        <v>4.5423</v>
+      </c>
+      <c r="Z181">
+        <v>4.7065999999999999</v>
+      </c>
       <c r="AD181">
-        <v>1036</v>
+        <v>357180</v>
       </c>
       <c r="AE181">
-        <v>1295</v>
+        <v>142872</v>
       </c>
       <c r="AF181">
-        <v>36411</v>
+        <v>17128</v>
       </c>
       <c r="AG181">
-        <v>517073</v>
+        <v>42820</v>
       </c>
       <c r="AH181">
-        <v>3.03990610328638E-2</v>
+        <v>202820</v>
       </c>
       <c r="AI181">
-        <v>2.1596000000000002</v>
+        <v>2810952</v>
       </c>
       <c r="AJ181">
-        <v>2.5821999999999998</v>
-      </c>
-      <c r="AK181" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="182" spans="1:38">
+        <v>0.11988353211265999</v>
+      </c>
+      <c r="AK181">
+        <v>15.5524</v>
+      </c>
+      <c r="AL181">
+        <v>9.4573999999999998</v>
+      </c>
+      <c r="AM181" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ181">
+        <v>357180</v>
+      </c>
+      <c r="AR181">
+        <v>47624</v>
+      </c>
+      <c r="AS181">
+        <v>19908</v>
+      </c>
+      <c r="AT181">
+        <v>149310</v>
+      </c>
+      <c r="AU181">
+        <v>216842</v>
+      </c>
+      <c r="AV181">
+        <v>2730084</v>
+      </c>
+      <c r="AW181">
+        <v>0.41802452544935298</v>
+      </c>
+      <c r="AX181">
+        <v>43.625100000000003</v>
+      </c>
+      <c r="AY181">
+        <v>38.173999999999999</v>
+      </c>
+      <c r="AZ181" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:52">
       <c r="A182" t="s">
         <v>49</v>
       </c>
-      <c r="AB182">
+      <c r="AD182">
         <v>42600</v>
       </c>
-      <c r="AC182">
-        <v>34080</v>
-      </c>
-      <c r="AD182">
-        <v>788</v>
-      </c>
       <c r="AE182">
-        <v>985</v>
+        <v>17040</v>
       </c>
       <c r="AF182">
-        <v>35853</v>
+        <v>2980</v>
       </c>
       <c r="AG182">
-        <v>552926</v>
+        <v>7450</v>
       </c>
       <c r="AH182">
-        <v>2.3122065727699499E-2</v>
+        <v>27470</v>
       </c>
       <c r="AI182">
-        <v>1.8545</v>
+        <v>2838422</v>
       </c>
       <c r="AJ182">
-        <v>2.0775000000000001</v>
-      </c>
-      <c r="AK182" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL182" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="184" spans="1:38">
+        <v>0.174882629107981</v>
+      </c>
+      <c r="AK182">
+        <v>21.737100000000002</v>
+      </c>
+      <c r="AL182">
+        <v>16.666699999999999</v>
+      </c>
+      <c r="AM182" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ182">
+        <v>42600</v>
+      </c>
+      <c r="AR182">
+        <v>5680</v>
+      </c>
+      <c r="AS182">
+        <v>2168</v>
+      </c>
+      <c r="AT182">
+        <v>16260</v>
+      </c>
+      <c r="AU182">
+        <v>24108</v>
+      </c>
+      <c r="AV182">
+        <v>2754192</v>
+      </c>
+      <c r="AW182">
+        <v>0.38169014084507003</v>
+      </c>
+      <c r="AX182">
+        <v>40.985900000000001</v>
+      </c>
+      <c r="AY182">
+        <v>37.605600000000003</v>
+      </c>
+      <c r="AZ182" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="183" spans="1:52">
+      <c r="R183">
+        <v>352260</v>
+      </c>
+      <c r="S183">
+        <v>281808</v>
+      </c>
+      <c r="T183">
+        <v>4036</v>
+      </c>
+      <c r="U183">
+        <v>5045</v>
+      </c>
+      <c r="V183">
+        <v>290889</v>
+      </c>
+      <c r="W183">
+        <v>3841989</v>
+      </c>
+      <c r="X183">
+        <v>1.4321807755635E-2</v>
+      </c>
+      <c r="Y183">
+        <v>0.89</v>
+      </c>
+      <c r="Z183">
+        <v>1.0673999999999999</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ183" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="184" spans="1:52">
       <c r="A184">
         <v>42600</v>
       </c>
@@ -11174,8 +12979,95 @@
         <f>SUM(I184:I187)/4</f>
         <v>5.0352249999999996</v>
       </c>
-    </row>
-    <row r="185" spans="1:38">
+      <c r="R184">
+        <v>42600</v>
+      </c>
+      <c r="S184">
+        <v>34080</v>
+      </c>
+      <c r="T184">
+        <v>324</v>
+      </c>
+      <c r="U184">
+        <v>405</v>
+      </c>
+      <c r="V184">
+        <v>34809</v>
+      </c>
+      <c r="W184">
+        <v>3876798</v>
+      </c>
+      <c r="X184">
+        <v>9.5070422535211193E-3</v>
+      </c>
+      <c r="Y184">
+        <v>0.5282</v>
+      </c>
+      <c r="Z184">
+        <v>0.76290000000000002</v>
+      </c>
+      <c r="AD184">
+        <v>352260</v>
+      </c>
+      <c r="AE184">
+        <v>140904</v>
+      </c>
+      <c r="AF184">
+        <v>14628</v>
+      </c>
+      <c r="AG184">
+        <v>36570</v>
+      </c>
+      <c r="AH184">
+        <v>192102</v>
+      </c>
+      <c r="AI184">
+        <v>3030524</v>
+      </c>
+      <c r="AJ184">
+        <v>0.103815363651848</v>
+      </c>
+      <c r="AK184">
+        <v>16.748999999999999</v>
+      </c>
+      <c r="AL184">
+        <v>8.5078999999999994</v>
+      </c>
+      <c r="AM184" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ184">
+        <v>352260</v>
+      </c>
+      <c r="AR184">
+        <v>46968</v>
+      </c>
+      <c r="AS184">
+        <v>20888</v>
+      </c>
+      <c r="AT184">
+        <v>156660</v>
+      </c>
+      <c r="AU184">
+        <v>224516</v>
+      </c>
+      <c r="AV184">
+        <v>2978708</v>
+      </c>
+      <c r="AW184">
+        <v>0.44472832566853998</v>
+      </c>
+      <c r="AX184">
+        <v>51.013500000000001</v>
+      </c>
+      <c r="AY184">
+        <v>42.139299999999999</v>
+      </c>
+      <c r="AZ184" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185" spans="1:52">
       <c r="A185">
         <v>42600</v>
       </c>
@@ -11203,8 +13095,68 @@
       <c r="I185">
         <v>0.30049999999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:38">
+      <c r="AD185">
+        <v>42600</v>
+      </c>
+      <c r="AE185">
+        <v>17040</v>
+      </c>
+      <c r="AF185">
+        <v>1196</v>
+      </c>
+      <c r="AG185">
+        <v>2990</v>
+      </c>
+      <c r="AH185">
+        <v>21226</v>
+      </c>
+      <c r="AI185">
+        <v>3051750</v>
+      </c>
+      <c r="AJ185">
+        <v>7.018779342723E-2</v>
+      </c>
+      <c r="AK185">
+        <v>13.215999999999999</v>
+      </c>
+      <c r="AL185">
+        <v>6.4554</v>
+      </c>
+      <c r="AM185" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ185">
+        <v>42600</v>
+      </c>
+      <c r="AR185">
+        <v>5680</v>
+      </c>
+      <c r="AS185">
+        <v>1996</v>
+      </c>
+      <c r="AT185">
+        <v>14970</v>
+      </c>
+      <c r="AU185">
+        <v>22646</v>
+      </c>
+      <c r="AV185">
+        <v>3001354</v>
+      </c>
+      <c r="AW185">
+        <v>0.35140845070422499</v>
+      </c>
+      <c r="AX185">
+        <v>40.7042</v>
+      </c>
+      <c r="AY185">
+        <v>34.6479</v>
+      </c>
+      <c r="AZ185" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="186" spans="1:52">
       <c r="A186">
         <v>42600</v>
       </c>
@@ -11232,8 +13184,41 @@
       <c r="I186">
         <v>4.6666999999999996</v>
       </c>
-    </row>
-    <row r="187" spans="1:38">
+      <c r="R186">
+        <v>355535</v>
+      </c>
+      <c r="S186">
+        <v>284428</v>
+      </c>
+      <c r="T186">
+        <v>3464</v>
+      </c>
+      <c r="U186">
+        <v>4330</v>
+      </c>
+      <c r="V186">
+        <v>292222</v>
+      </c>
+      <c r="W186">
+        <v>4169020</v>
+      </c>
+      <c r="X186">
+        <v>1.21788290885566E-2</v>
+      </c>
+      <c r="Y186">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="Z186">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ186" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="187" spans="1:52">
       <c r="A187">
         <v>42600</v>
       </c>
@@ -11267,13 +13252,195 @@
       <c r="K187" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="188" spans="1:38">
+      <c r="R187">
+        <v>42600</v>
+      </c>
+      <c r="S187">
+        <v>34080</v>
+      </c>
+      <c r="T187">
+        <v>264</v>
+      </c>
+      <c r="U187">
+        <v>330</v>
+      </c>
+      <c r="V187">
+        <v>34674</v>
+      </c>
+      <c r="W187">
+        <v>4203694</v>
+      </c>
+      <c r="X187">
+        <v>7.7464788732394298E-3</v>
+      </c>
+      <c r="Y187">
+        <v>0.4108</v>
+      </c>
+      <c r="Z187">
+        <v>0.59860000000000002</v>
+      </c>
+      <c r="AD187">
+        <v>355540</v>
+      </c>
+      <c r="AE187">
+        <v>142216</v>
+      </c>
+      <c r="AF187">
+        <v>13764</v>
+      </c>
+      <c r="AG187">
+        <v>34410</v>
+      </c>
+      <c r="AH187">
+        <v>190390</v>
+      </c>
+      <c r="AI187">
+        <v>3242140</v>
+      </c>
+      <c r="AJ187">
+        <v>9.6782359228216194E-2</v>
+      </c>
+      <c r="AK187">
+        <v>18.369199999999999</v>
+      </c>
+      <c r="AL187">
+        <v>8.2382000000000009</v>
+      </c>
+      <c r="AM187" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ187">
+        <v>355560</v>
+      </c>
+      <c r="AR187">
+        <v>47408</v>
+      </c>
+      <c r="AS187">
+        <v>16808</v>
+      </c>
+      <c r="AT187">
+        <v>126060</v>
+      </c>
+      <c r="AU187">
+        <v>190276</v>
+      </c>
+      <c r="AV187">
+        <v>3191630</v>
+      </c>
+      <c r="AW187">
+        <v>0.35453931825852097</v>
+      </c>
+      <c r="AX187">
+        <v>43.638199999999998</v>
+      </c>
+      <c r="AY187">
+        <v>33.395200000000003</v>
+      </c>
+      <c r="AZ187" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="188" spans="1:52">
       <c r="A188">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:38">
+      <c r="AD188">
+        <v>42600</v>
+      </c>
+      <c r="AE188">
+        <v>17040</v>
+      </c>
+      <c r="AF188">
+        <v>1156</v>
+      </c>
+      <c r="AG188">
+        <v>2890</v>
+      </c>
+      <c r="AH188">
+        <v>21086</v>
+      </c>
+      <c r="AI188">
+        <v>3263226</v>
+      </c>
+      <c r="AJ188">
+        <v>6.7840375586854407E-2</v>
+      </c>
+      <c r="AK188">
+        <v>14.7418</v>
+      </c>
+      <c r="AL188">
+        <v>6.3146000000000004</v>
+      </c>
+      <c r="AM188" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ188">
+        <v>42600</v>
+      </c>
+      <c r="AR188">
+        <v>5680</v>
+      </c>
+      <c r="AS188">
+        <v>1972</v>
+      </c>
+      <c r="AT188">
+        <v>14790</v>
+      </c>
+      <c r="AU188">
+        <v>22442</v>
+      </c>
+      <c r="AV188">
+        <v>3214072</v>
+      </c>
+      <c r="AW188">
+        <v>0.347183098591549</v>
+      </c>
+      <c r="AX188">
+        <v>42.323900000000002</v>
+      </c>
+      <c r="AY188">
+        <v>34.718299999999999</v>
+      </c>
+      <c r="AZ188" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="189" spans="1:52">
+      <c r="R189">
+        <v>367005</v>
+      </c>
+      <c r="S189">
+        <v>293604</v>
+      </c>
+      <c r="T189">
+        <v>2964</v>
+      </c>
+      <c r="U189">
+        <v>3705</v>
+      </c>
+      <c r="V189">
+        <v>300273</v>
+      </c>
+      <c r="W189">
+        <v>4503967</v>
+      </c>
+      <c r="X189">
+        <v>1.00952303102137E-2</v>
+      </c>
+      <c r="Y189">
+        <v>0.65259999999999996</v>
+      </c>
+      <c r="Z189">
+        <v>0.77659999999999996</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ189" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="190" spans="1:52">
       <c r="A190">
         <v>42600</v>
       </c>
@@ -11301,8 +13468,95 @@
       <c r="I190">
         <v>38.098599999999998</v>
       </c>
-    </row>
-    <row r="191" spans="1:38">
+      <c r="R190">
+        <v>42600</v>
+      </c>
+      <c r="S190">
+        <v>34080</v>
+      </c>
+      <c r="T190">
+        <v>316</v>
+      </c>
+      <c r="U190">
+        <v>395</v>
+      </c>
+      <c r="V190">
+        <v>34791</v>
+      </c>
+      <c r="W190">
+        <v>4538758</v>
+      </c>
+      <c r="X190">
+        <v>9.2723004694835603E-3</v>
+      </c>
+      <c r="Y190">
+        <v>0.55159999999999998</v>
+      </c>
+      <c r="Z190">
+        <v>0.73939999999999995</v>
+      </c>
+      <c r="AD190">
+        <v>367010</v>
+      </c>
+      <c r="AE190">
+        <v>146804</v>
+      </c>
+      <c r="AF190">
+        <v>12308</v>
+      </c>
+      <c r="AG190">
+        <v>30770</v>
+      </c>
+      <c r="AH190">
+        <v>189882</v>
+      </c>
+      <c r="AI190">
+        <v>3453108</v>
+      </c>
+      <c r="AJ190">
+        <v>8.3839677392986506E-2</v>
+      </c>
+      <c r="AK190">
+        <v>17.5472</v>
+      </c>
+      <c r="AL190">
+        <v>6.8745000000000003</v>
+      </c>
+      <c r="AM190" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ190">
+        <v>367020</v>
+      </c>
+      <c r="AR190">
+        <v>48936</v>
+      </c>
+      <c r="AS190">
+        <v>17444</v>
+      </c>
+      <c r="AT190">
+        <v>130830</v>
+      </c>
+      <c r="AU190">
+        <v>197210</v>
+      </c>
+      <c r="AV190">
+        <v>3411282</v>
+      </c>
+      <c r="AW190">
+        <v>0.35646558770639197</v>
+      </c>
+      <c r="AX190">
+        <v>44.548000000000002</v>
+      </c>
+      <c r="AY190">
+        <v>34.126199999999997</v>
+      </c>
+      <c r="AZ190" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="191" spans="1:52">
       <c r="A191">
         <v>42600</v>
       </c>
@@ -11330,8 +13584,95 @@
       <c r="I191">
         <v>18.391999999999999</v>
       </c>
-    </row>
-    <row r="192" spans="1:38">
+      <c r="R191">
+        <v>124520</v>
+      </c>
+      <c r="S191">
+        <v>99616</v>
+      </c>
+      <c r="T191">
+        <v>472</v>
+      </c>
+      <c r="U191">
+        <v>590</v>
+      </c>
+      <c r="V191">
+        <v>100678</v>
+      </c>
+      <c r="W191">
+        <v>4639436</v>
+      </c>
+      <c r="X191">
+        <v>4.73819466752328E-3</v>
+      </c>
+      <c r="Y191">
+        <v>0.21679999999999999</v>
+      </c>
+      <c r="Z191">
+        <v>0.31719999999999998</v>
+      </c>
+      <c r="AD191">
+        <v>42600</v>
+      </c>
+      <c r="AE191">
+        <v>17040</v>
+      </c>
+      <c r="AF191">
+        <v>1128</v>
+      </c>
+      <c r="AG191">
+        <v>2820</v>
+      </c>
+      <c r="AH191">
+        <v>20988</v>
+      </c>
+      <c r="AI191">
+        <v>3474096</v>
+      </c>
+      <c r="AJ191">
+        <v>6.6197183098591503E-2</v>
+      </c>
+      <c r="AK191">
+        <v>14.6244</v>
+      </c>
+      <c r="AL191">
+        <v>6.2675999999999998</v>
+      </c>
+      <c r="AM191" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ191">
+        <v>42600</v>
+      </c>
+      <c r="AR191">
+        <v>5680</v>
+      </c>
+      <c r="AS191">
+        <v>1212</v>
+      </c>
+      <c r="AT191">
+        <v>9090</v>
+      </c>
+      <c r="AU191">
+        <v>15982</v>
+      </c>
+      <c r="AV191">
+        <v>3427264</v>
+      </c>
+      <c r="AW191">
+        <v>0.21338028169014001</v>
+      </c>
+      <c r="AX191">
+        <v>28.9437</v>
+      </c>
+      <c r="AY191">
+        <v>20.7042</v>
+      </c>
+      <c r="AZ191" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="192" spans="1:52">
       <c r="A192">
         <v>42600</v>
       </c>
@@ -11363,8 +13704,95 @@
         <f>AVERAGE(I190:I193)</f>
         <v>20.2318</v>
       </c>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="R192">
+        <v>367005</v>
+      </c>
+      <c r="S192">
+        <v>293604</v>
+      </c>
+      <c r="T192">
+        <v>2964</v>
+      </c>
+      <c r="U192">
+        <v>3705</v>
+      </c>
+      <c r="V192">
+        <v>300273</v>
+      </c>
+      <c r="W192">
+        <v>4939709</v>
+      </c>
+      <c r="X192">
+        <v>1.00952303102137E-2</v>
+      </c>
+      <c r="Y192">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="Z192">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="AD192">
+        <v>124520</v>
+      </c>
+      <c r="AE192">
+        <v>49808</v>
+      </c>
+      <c r="AF192">
+        <v>2116</v>
+      </c>
+      <c r="AG192">
+        <v>5290</v>
+      </c>
+      <c r="AH192">
+        <v>57214</v>
+      </c>
+      <c r="AI192">
+        <v>3531310</v>
+      </c>
+      <c r="AJ192">
+        <v>4.2483135239318903E-2</v>
+      </c>
+      <c r="AK192">
+        <v>12.014099999999999</v>
+      </c>
+      <c r="AL192">
+        <v>3.2926000000000002</v>
+      </c>
+      <c r="AM192" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ192">
+        <v>124530</v>
+      </c>
+      <c r="AR192">
+        <v>16604</v>
+      </c>
+      <c r="AS192">
+        <v>5012</v>
+      </c>
+      <c r="AT192">
+        <v>37590</v>
+      </c>
+      <c r="AU192">
+        <v>59206</v>
+      </c>
+      <c r="AV192">
+        <v>3486470</v>
+      </c>
+      <c r="AW192">
+        <v>0.30185497470488998</v>
+      </c>
+      <c r="AX192">
+        <v>34.280900000000003</v>
+      </c>
+      <c r="AY192">
+        <v>28.8123</v>
+      </c>
+      <c r="AZ192" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="193" spans="1:53">
       <c r="A193">
         <v>42600</v>
       </c>
@@ -11398,13 +13826,350 @@
       <c r="K193" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="R193">
+        <v>42600</v>
+      </c>
+      <c r="S193">
+        <v>34080</v>
+      </c>
+      <c r="T193">
+        <v>212</v>
+      </c>
+      <c r="U193">
+        <v>265</v>
+      </c>
+      <c r="V193">
+        <v>34557</v>
+      </c>
+      <c r="W193">
+        <v>4974266</v>
+      </c>
+      <c r="X193">
+        <v>6.2206572769953001E-3</v>
+      </c>
+      <c r="Y193">
+        <v>0.46949999999999997</v>
+      </c>
+      <c r="Z193">
+        <v>0.56340000000000001</v>
+      </c>
+      <c r="AD193">
+        <v>367010</v>
+      </c>
+      <c r="AE193">
+        <v>146804</v>
+      </c>
+      <c r="AF193">
+        <v>13232</v>
+      </c>
+      <c r="AG193">
+        <v>33080</v>
+      </c>
+      <c r="AH193">
+        <v>193116</v>
+      </c>
+      <c r="AI193">
+        <v>3724426</v>
+      </c>
+      <c r="AJ193">
+        <v>9.0133783820604302E-2</v>
+      </c>
+      <c r="AK193">
+        <v>18.6371</v>
+      </c>
+      <c r="AL193">
+        <v>7.2805</v>
+      </c>
+      <c r="AM193" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ193">
+        <v>367020</v>
+      </c>
+      <c r="AR193">
+        <v>48936</v>
+      </c>
+      <c r="AS193">
+        <v>15076</v>
+      </c>
+      <c r="AT193">
+        <v>113070</v>
+      </c>
+      <c r="AU193">
+        <v>177082</v>
+      </c>
+      <c r="AV193">
+        <v>3663552</v>
+      </c>
+      <c r="AW193">
+        <v>0.30807585417688399</v>
+      </c>
+      <c r="AX193">
+        <v>40.142200000000003</v>
+      </c>
+      <c r="AY193">
+        <v>28.6251</v>
+      </c>
+      <c r="AZ193" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="194" spans="1:53">
+      <c r="R194">
+        <v>121245</v>
+      </c>
+      <c r="S194">
+        <v>96996</v>
+      </c>
+      <c r="T194">
+        <v>996</v>
+      </c>
+      <c r="U194">
+        <v>1245</v>
+      </c>
+      <c r="V194">
+        <v>99237</v>
+      </c>
+      <c r="W194">
+        <v>5073503</v>
+      </c>
+      <c r="X194">
+        <v>1.0268464678955799E-2</v>
+      </c>
+      <c r="Y194">
+        <v>0.72170000000000001</v>
+      </c>
+      <c r="Z194">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AD194">
+        <v>42600</v>
+      </c>
+      <c r="AE194">
+        <v>17040</v>
+      </c>
+      <c r="AF194">
+        <v>1104</v>
+      </c>
+      <c r="AG194">
+        <v>2760</v>
+      </c>
+      <c r="AH194">
+        <v>20904</v>
+      </c>
+      <c r="AI194">
+        <v>3745330</v>
+      </c>
+      <c r="AJ194">
+        <v>6.4788732394366194E-2</v>
+      </c>
+      <c r="AK194">
+        <v>15.070399999999999</v>
+      </c>
+      <c r="AL194">
+        <v>6.1501999999999999</v>
+      </c>
+      <c r="AM194" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ194">
+        <v>42600</v>
+      </c>
+      <c r="AR194">
+        <v>5680</v>
+      </c>
+      <c r="AS194">
+        <v>932</v>
+      </c>
+      <c r="AT194">
+        <v>6990</v>
+      </c>
+      <c r="AU194">
+        <v>13602</v>
+      </c>
+      <c r="AV194">
+        <v>3677154</v>
+      </c>
+      <c r="AW194">
+        <v>0.164084507042253</v>
+      </c>
+      <c r="AX194">
+        <v>25.492999999999999</v>
+      </c>
+      <c r="AY194">
+        <v>16.338000000000001</v>
+      </c>
+      <c r="AZ194" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="195" spans="1:53">
       <c r="A195">
         <v>6</v>
       </c>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="R195">
+        <v>365365</v>
+      </c>
+      <c r="S195">
+        <v>292292</v>
+      </c>
+      <c r="T195">
+        <v>2808</v>
+      </c>
+      <c r="U195">
+        <v>3510</v>
+      </c>
+      <c r="V195">
+        <v>298610</v>
+      </c>
+      <c r="W195">
+        <v>5372113</v>
+      </c>
+      <c r="X195">
+        <v>9.6068315246397393E-3</v>
+      </c>
+      <c r="Y195">
+        <v>0.71440000000000003</v>
+      </c>
+      <c r="Z195">
+        <v>0.80469999999999997</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD195">
+        <v>121250</v>
+      </c>
+      <c r="AE195">
+        <v>48500</v>
+      </c>
+      <c r="AF195">
+        <v>4340</v>
+      </c>
+      <c r="AG195">
+        <v>10850</v>
+      </c>
+      <c r="AH195">
+        <v>63690</v>
+      </c>
+      <c r="AI195">
+        <v>3809020</v>
+      </c>
+      <c r="AJ195">
+        <v>8.9484536082474198E-2</v>
+      </c>
+      <c r="AK195">
+        <v>17.764900000000001</v>
+      </c>
+      <c r="AL195">
+        <v>7.8350999999999997</v>
+      </c>
+      <c r="AM195" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ195">
+        <v>121260</v>
+      </c>
+      <c r="AR195">
+        <v>16168</v>
+      </c>
+      <c r="AS195">
+        <v>5092</v>
+      </c>
+      <c r="AT195">
+        <v>38190</v>
+      </c>
+      <c r="AU195">
+        <v>59450</v>
+      </c>
+      <c r="AV195">
+        <v>3736604</v>
+      </c>
+      <c r="AW195">
+        <v>0.31494309747649601</v>
+      </c>
+      <c r="AX195">
+        <v>38.57</v>
+      </c>
+      <c r="AY195">
+        <v>30.009899999999998</v>
+      </c>
+      <c r="AZ195" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="196" spans="1:53">
+      <c r="AD196">
+        <v>365370</v>
+      </c>
+      <c r="AE196">
+        <v>146148</v>
+      </c>
+      <c r="AF196">
+        <v>12568</v>
+      </c>
+      <c r="AG196">
+        <v>31420</v>
+      </c>
+      <c r="AH196">
+        <v>190136</v>
+      </c>
+      <c r="AI196">
+        <v>3999156</v>
+      </c>
+      <c r="AJ196">
+        <v>8.5995018748118296E-2</v>
+      </c>
+      <c r="AK196">
+        <v>19.410499999999999</v>
+      </c>
+      <c r="AL196">
+        <v>7.5266000000000002</v>
+      </c>
+      <c r="AM196" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN196" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ196">
+        <v>365370</v>
+      </c>
+      <c r="AR196">
+        <v>48716</v>
+      </c>
+      <c r="AS196">
+        <v>14224</v>
+      </c>
+      <c r="AT196">
+        <v>106680</v>
+      </c>
+      <c r="AU196">
+        <v>169620</v>
+      </c>
+      <c r="AV196">
+        <v>3906224</v>
+      </c>
+      <c r="AW196">
+        <v>0.29197799490927001</v>
+      </c>
+      <c r="AX196">
+        <v>39.264299999999999</v>
+      </c>
+      <c r="AY196">
+        <v>27.867599999999999</v>
+      </c>
+      <c r="AZ196" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA196" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="197" spans="1:53">
       <c r="A197">
         <v>42600</v>
       </c>
@@ -11433,7 +14198,7 @@
         <v>41.211300000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:53">
       <c r="A198">
         <v>42600</v>
       </c>
@@ -11462,7 +14227,7 @@
         <v>18.746500000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:53">
       <c r="A199">
         <v>42600</v>
       </c>
@@ -11491,7 +14256,7 @@
         <v>6.7606000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:53">
       <c r="A200">
         <v>42600</v>
       </c>
@@ -11526,12 +14291,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:53">
       <c r="A202">
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:53">
       <c r="A204">
         <v>42602</v>
       </c>
@@ -11560,7 +14325,7 @@
         <v>58.1006</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:53">
       <c r="A205">
         <v>42602</v>
       </c>
@@ -11589,7 +14354,7 @@
         <v>29.1982</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:53">
       <c r="A206">
         <v>42602</v>
       </c>
@@ -11618,7 +14383,7 @@
         <v>13.5886</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:53">
       <c r="A207">
         <v>42602</v>
       </c>
@@ -11653,7 +14418,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:53">
       <c r="A208">
         <v>8</v>
       </c>

--- a/experiments/organizedData.xlsx
+++ b/experiments/organizedData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35020" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27660" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="173">
   <si>
     <t>Website</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>the general trend is that there is overlap between the various websites, and the bumps are likely due to evictions</t>
+  </si>
+  <si>
+    <t>6. overlap</t>
   </si>
 </sst>
 </file>
@@ -2570,11 +2573,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2079130600"/>
-        <c:axId val="2104393624"/>
+        <c:axId val="1850221624"/>
+        <c:axId val="1850227384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2079130600"/>
+        <c:axId val="1850221624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104393624"/>
+        <c:crossAx val="1850227384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2611,7 +2614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104393624"/>
+        <c:axId val="1850227384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,7 +2649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079130600"/>
+        <c:crossAx val="1850221624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2811,8 +2814,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2104367832"/>
-        <c:axId val="2104370808"/>
+        <c:axId val="1849464824"/>
+        <c:axId val="1849471352"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2916,11 +2919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2104377144"/>
-        <c:axId val="2104373848"/>
+        <c:axId val="1849482920"/>
+        <c:axId val="1849477112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2104367832"/>
+        <c:axId val="1849464824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,7 +2952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104370808"/>
+        <c:crossAx val="1849471352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2957,7 +2960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104370808"/>
+        <c:axId val="1849471352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2987,12 +2990,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104367832"/>
+        <c:crossAx val="1849464824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2104373848"/>
+        <c:axId val="1849477112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,12 +3029,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104377144"/>
+        <c:crossAx val="1849482920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2104377144"/>
+        <c:axId val="1849482920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +3044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104373848"/>
+        <c:crossAx val="1849477112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3336,11 +3339,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2049930984"/>
-        <c:axId val="2103707752"/>
+        <c:axId val="1849580328"/>
+        <c:axId val="1849586344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2049930984"/>
+        <c:axId val="1849580328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3374,7 +3377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103707752"/>
+        <c:crossAx val="1849586344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3382,7 +3385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103707752"/>
+        <c:axId val="1849586344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3412,7 +3415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2049930984"/>
+        <c:crossAx val="1849580328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3925,11 +3928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2078382008"/>
-        <c:axId val="2078409192"/>
+        <c:axId val="1849401096"/>
+        <c:axId val="1849406648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2078382008"/>
+        <c:axId val="1849401096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3958,7 +3961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078409192"/>
+        <c:crossAx val="1849406648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3966,7 +3969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2078409192"/>
+        <c:axId val="1849406648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4001,7 +4004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078382008"/>
+        <c:crossAx val="1849401096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4279,8 +4282,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2103756712"/>
-        <c:axId val="2103697416"/>
+        <c:axId val="1850026232"/>
+        <c:axId val="1850031976"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4497,11 +4500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2096654008"/>
-        <c:axId val="2097744664"/>
+        <c:axId val="1850383352"/>
+        <c:axId val="1850380344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2103756712"/>
+        <c:axId val="1850026232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4530,7 +4533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103697416"/>
+        <c:crossAx val="1850031976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4538,7 +4541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103697416"/>
+        <c:axId val="1850031976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4568,12 +4571,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103756712"/>
+        <c:crossAx val="1850026232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097744664"/>
+        <c:axId val="1850380344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,12 +4586,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096654008"/>
+        <c:crossAx val="1850383352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2096654008"/>
+        <c:axId val="1850383352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4598,7 +4601,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097744664"/>
+        <c:crossAx val="1850380344"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5102,8 +5106,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:BA282"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="S14" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AB2" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6033,6 +6037,9 @@
       <c r="M29">
         <v>19.2624</v>
       </c>
+      <c r="AJ29" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="30" spans="1:36">
       <c r="B30" s="1"/>
@@ -15968,7 +15975,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/experiments/organizedData.xlsx
+++ b/experiments/organizedData.xlsx
@@ -4582,6 +4582,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mobile Bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5106,8 +5125,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:BA282"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AB2" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="U2" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/experiments/organizedData.xlsx
+++ b/experiments/organizedData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27660" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="0" windowWidth="17560" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="174">
   <si>
     <t>Website</t>
   </si>
@@ -366,21 +366,9 @@
     <t>0. MOTIVATION =&gt;Studies with desktop browser, but not with mobile browsers</t>
   </si>
   <si>
-    <t>1. X AXIS =&gt; plots the bytes transferred between device and proxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. RIGHT AXIS, LEFT AXIS =&gt; Mobile 1/5th </t>
-  </si>
-  <si>
     <t>2. UNCHUNKED DATA =&gt; overtime same number of data being transferred (even if content stays relatively the same)</t>
   </si>
   <si>
-    <t>4. GREEN AND BLUE =&gt; chunked data. Starting point =&gt; empty cache, overhead of sending fingerprints</t>
-  </si>
-  <si>
-    <t>5. Half the number of bytes</t>
-  </si>
-  <si>
     <t>Chunk Size</t>
   </si>
   <si>
@@ -390,39 +378,6 @@
     <t>1. chunk size is an important factor, and we experimented with it</t>
   </si>
   <si>
-    <t>2. As expected the smaller the chunk was, the more likely it overlapped with other content</t>
-  </si>
-  <si>
-    <t>3. However, it wasn't as simple as choosing the smallest chunk size that made sense</t>
-  </si>
-  <si>
-    <t>4. In this graph, we can see that as chunk size increased, the bytes transferred actually decreased up till a certain point before flattening out</t>
-  </si>
-  <si>
-    <t>5. This is because: Since each chunk is represented by a fingerprint, if the chunk size is small it gets pretty expensive for the mobile device to communicate which chunks it needs</t>
-  </si>
-  <si>
-    <t>2. This graph shows the relationship between the percent of web content that needs to be transferred and the chunk size that was used to split the content</t>
-  </si>
-  <si>
-    <t>3. On the first day, the cache is empty, so 100% of the content needs to be transferred for all chunk sizes, and is not shown</t>
-  </si>
-  <si>
-    <t>4. graph shows data from second day (assume cache has already been filled with data from the first visit)</t>
-  </si>
-  <si>
-    <t>5. We can clearly see that if we use smaller chunk sizes, the percent of content that needs to be send decreases.</t>
-  </si>
-  <si>
-    <t>6 The steeper line for chunk 5 when compared to chunk 45 shows that as the number of visits increase, the overlap of smaller chunk sizes incrase faster</t>
-  </si>
-  <si>
-    <t>8. but this graph doesn't show the complete picture</t>
-  </si>
-  <si>
-    <t>7. From this graph it seems like it would  make the most sense to choose the smallest chunk size to catch the most amount of redundancy and have the least amount of data transfer</t>
-  </si>
-  <si>
     <t>9. What we needed to consider when looking at chunk size was that the proportion of fingerprints needed to represent the same size of content is much bigger when using smaller chunks.</t>
   </si>
   <si>
@@ -525,19 +480,67 @@
     <t>CHUNK SIZE: 30</t>
   </si>
   <si>
-    <t>as opposed to a straight line at 1</t>
-  </si>
-  <si>
-    <t>to see how this affects the results</t>
-  </si>
-  <si>
-    <t>realistically: we visisted three websites three times a day for four days to simulate "mobile browsing"</t>
-  </si>
-  <si>
-    <t>the general trend is that there is overlap between the various websites, and the bumps are likely due to evictions</t>
-  </si>
-  <si>
-    <t>6. overlap</t>
+    <t>2. Y AXIS</t>
+  </si>
+  <si>
+    <t>1. X AXIS =&gt; Visited cnn.com</t>
+  </si>
+  <si>
+    <t>3.  Mobile 1/5th =&gt; effects</t>
+  </si>
+  <si>
+    <t>4.CHUNKED DATA =&gt; empty cache, overhead of sending fingerprints</t>
+  </si>
+  <si>
+    <t>5. BY THE LAST VISIT =&gt; Half the number of bytes</t>
+  </si>
+  <si>
+    <t>2.RELATIONSHIP btwn % web content (based on cache miss rate) and chunk size</t>
+  </si>
+  <si>
+    <t>3. NOT SHOWN: On the first day, the cache is empty, so 100% of the content needs to be transferred for all chunk sizes</t>
+  </si>
+  <si>
+    <t>4. SHOWN: graph shows data from second day (assume cache has already been filled with data from the first visit)</t>
+  </si>
+  <si>
+    <t>5. RESULTS: TREND: We can clearly see that if we use smaller chunk sizes, the percent of content that needs to be send decreases.</t>
+  </si>
+  <si>
+    <t>6 RESULTS: STEEP LINE: The steeper line for chunk 5 when compared to chunk 45 shows that as the number of visits increase, the overlap of smaller chunk sizes incrase faster</t>
+  </si>
+  <si>
+    <t>7. DISCUSSION: From this graph it seems like it would  make the most sense to choose the smallest chunk size to catch the most amount of redundancy and have the least amount of data transfer</t>
+  </si>
+  <si>
+    <t>8. NEXT STEP: but this graph doesn't show the complete picture</t>
+  </si>
+  <si>
+    <t>0. Different perspective</t>
+  </si>
+  <si>
+    <t>1. TRANSITION: As expected, the smaller the chunk was, the more likely it overlapped with other content</t>
+  </si>
+  <si>
+    <t>2. AXIS</t>
+  </si>
+  <si>
+    <t>2. RESULTS: In this graph, we can see that as chunk size increased, the bytes transferred actually decreased up till a certain point before flattening out</t>
+  </si>
+  <si>
+    <t>4. WHY: This is because: Since each chunk is represented by a fingerprint, if the chunk size is small it gets pretty expensive for the mobile device to communicate which chunks it needs</t>
+  </si>
+  <si>
+    <t>0. DESCRIBErealistically: we visisted three websites three times a day for four days to simulate "mobile browsing"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. RESULTS </t>
+  </si>
+  <si>
+    <t>2. CONTROL : straight line: as opposed to a straight line at 1</t>
+  </si>
+  <si>
+    <t>Bumps: the general trend is that there is overlap between the various websites, and the bumps are likely due to evictions</t>
   </si>
 </sst>
 </file>
@@ -2099,6 +2102,9 @@
           <c:tx>
             <c:v>Chunk5</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2146,6 +2152,9 @@
           <c:tx>
             <c:v>Chunk10</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2240,6 +2249,9 @@
           <c:tx>
             <c:v>Chunk20</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2287,6 +2299,9 @@
           <c:tx>
             <c:v>Chunk25</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2334,6 +2349,9 @@
           <c:tx>
             <c:v>Chunk30</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2428,6 +2446,9 @@
           <c:tx>
             <c:v>Chunk40</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2475,6 +2496,9 @@
           <c:tx>
             <c:v>Chunk45</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2522,6 +2546,9 @@
           <c:tx>
             <c:v>Chunk50</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cmpd="sng"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2632,7 +2659,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>% of content</a:t>
+                  <a:t>Proportion of content</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -3403,7 +3430,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>% of content needed</a:t>
+                  <a:t>Proportion of content needed</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4559,7 +4586,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Bytes</a:t>
+                  <a:t>Desktop</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> B</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ytes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4649,16 +4684,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4711,12 +4746,12 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4739,16 +4774,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5125,8 +5160,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:BA282"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="U2" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="T69" workbookViewId="0">
+      <selection activeCell="AB87" sqref="AB87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5260,7 +5295,7 @@
         <v>226100</v>
       </c>
       <c r="AF4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -5897,13 +5932,16 @@
       <c r="F23">
         <v>166026</v>
       </c>
-      <c r="V23" t="s">
-        <v>115</v>
+      <c r="W23" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:36">
-      <c r="V24" t="s">
-        <v>117</v>
+      <c r="W24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -5917,10 +5955,10 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="V25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ25" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -5952,10 +5990,10 @@
         <v>24</v>
       </c>
       <c r="V26" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="AJ26" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -5967,11 +6005,11 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="V27" t="s">
-        <v>119</v>
+      <c r="W27" t="s">
+        <v>156</v>
       </c>
       <c r="AJ27" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -6014,11 +6052,11 @@
       <c r="M28">
         <v>51.631999999999998</v>
       </c>
-      <c r="V28" t="s">
-        <v>121</v>
+      <c r="W28" t="s">
+        <v>157</v>
       </c>
       <c r="AJ28" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -6056,8 +6094,8 @@
       <c r="M29">
         <v>19.2624</v>
       </c>
-      <c r="AJ29" t="s">
-        <v>172</v>
+      <c r="V29" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -7259,7 +7297,7 @@
         <v>27</v>
       </c>
       <c r="U56" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AH56">
         <v>20</v>
@@ -7279,7 +7317,7 @@
         <v>27</v>
       </c>
       <c r="U57" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="AH57">
         <v>21</v>
@@ -7324,7 +7362,7 @@
         <v>15.253500000000001</v>
       </c>
       <c r="U58" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="AH58">
         <v>22</v>
@@ -7372,7 +7410,7 @@
         <v>14.714700000000001</v>
       </c>
       <c r="U59" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="AH59">
         <v>23</v>
@@ -7381,7 +7419,7 @@
         <v>7.018779342723E-2</v>
       </c>
       <c r="AK59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:37">
@@ -7394,9 +7432,6 @@
       <c r="D60" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U60" t="s">
-        <v>130</v>
-      </c>
       <c r="AH60">
         <v>24</v>
       </c>
@@ -7404,7 +7439,7 @@
         <v>9.6782359228216194E-2</v>
       </c>
       <c r="AK60" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:37">
@@ -7443,7 +7478,7 @@
         <v>5.9238</v>
       </c>
       <c r="U61" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="AH61">
         <v>25</v>
@@ -7452,7 +7487,7 @@
         <v>6.7840375586854407E-2</v>
       </c>
       <c r="AK61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:37">
@@ -7464,7 +7499,7 @@
         <v>27</v>
       </c>
       <c r="U62" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="AH62">
         <v>26</v>
@@ -7484,7 +7519,7 @@
         <v>27</v>
       </c>
       <c r="U63" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="AH63">
         <v>27</v>
@@ -7501,6 +7536,9 @@
       <c r="D64" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="U64" t="s">
+        <v>164</v>
+      </c>
       <c r="AH64">
         <v>28</v>
       </c>
@@ -7549,9 +7587,6 @@
       <c r="O65" t="s">
         <v>35</v>
       </c>
-      <c r="U65" t="s">
-        <v>134</v>
-      </c>
       <c r="AH65">
         <v>29</v>
       </c>
@@ -7597,7 +7632,7 @@
         <v>46.701900000000002</v>
       </c>
       <c r="U66" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="AH66">
         <v>30</v>
@@ -7642,7 +7677,7 @@
         <v>18.890799999999999</v>
       </c>
       <c r="U67" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="AH67">
         <v>31</v>
@@ -7659,6 +7694,9 @@
       <c r="D68" t="s">
         <v>28</v>
       </c>
+      <c r="U68" t="s">
+        <v>121</v>
+      </c>
       <c r="AH68">
         <v>32</v>
       </c>
@@ -10600,13 +10638,13 @@
         <v>11.1615</v>
       </c>
       <c r="R159" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AD159" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="AQ159" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:43">
@@ -10754,7 +10792,7 @@
         <v>60.164299999999997</v>
       </c>
       <c r="AM161" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="AQ161">
         <v>42600</v>
@@ -10784,7 +10822,7 @@
         <v>85.492999999999995</v>
       </c>
       <c r="AZ161" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162" spans="1:52">
@@ -10870,7 +10908,7 @@
         <v>49.724200000000003</v>
       </c>
       <c r="AM162" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="AQ162">
         <v>170400</v>
@@ -10900,7 +10938,7 @@
         <v>74.700699999999998</v>
       </c>
       <c r="AZ162" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:52">
@@ -11102,7 +11140,7 @@
         <v>23.544599999999999</v>
       </c>
       <c r="AM164" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="AQ164">
         <v>42600</v>
@@ -11132,7 +11170,7 @@
         <v>45.422499999999999</v>
       </c>
       <c r="AZ164" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="165" spans="1:52">
@@ -11191,7 +11229,7 @@
         <v>17.235900000000001</v>
       </c>
       <c r="AM165" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="AQ165">
         <v>170400</v>
@@ -11221,7 +11259,7 @@
         <v>32.552799999999998</v>
       </c>
       <c r="AZ165" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166" spans="1:52">
@@ -11396,7 +11434,7 @@
         <v>10.0939</v>
       </c>
       <c r="AM167" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="AQ167">
         <v>42600</v>
@@ -11426,7 +11464,7 @@
         <v>43.028199999999998</v>
       </c>
       <c r="AZ167" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="1:52">
@@ -11458,10 +11496,10 @@
         <v>2.8498000000000001</v>
       </c>
       <c r="AD168" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="AQ168" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="1:52">
@@ -11663,7 +11701,7 @@
         <v>5.9390000000000001</v>
       </c>
       <c r="AM170" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="AQ170">
         <v>42600</v>
@@ -11693,7 +11731,7 @@
         <v>19.718299999999999</v>
       </c>
       <c r="AZ170" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171" spans="1:52">
@@ -11752,7 +11790,7 @@
         <v>10.480499999999999</v>
       </c>
       <c r="AM171" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="AQ171">
         <v>142560</v>
@@ -11782,7 +11820,7 @@
         <v>45.1389</v>
       </c>
       <c r="AZ171" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="172" spans="1:52">
@@ -11984,7 +12022,7 @@
         <v>4.1504000000000003</v>
       </c>
       <c r="AM173" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AQ173">
         <v>40980</v>
@@ -12014,7 +12052,7 @@
         <v>34.040999999999997</v>
       </c>
       <c r="AZ173" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="174" spans="1:52">
@@ -12100,7 +12138,7 @@
         <v>5.5164</v>
       </c>
       <c r="AM174" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="AQ174">
         <v>127800</v>
@@ -12130,7 +12168,7 @@
         <v>25.399100000000001</v>
       </c>
       <c r="AZ174" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="175" spans="1:52">
@@ -12332,7 +12370,7 @@
         <v>16.549299999999999</v>
       </c>
       <c r="AM176" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="AQ176">
         <v>42600</v>
@@ -12362,7 +12400,7 @@
         <v>36.338000000000001</v>
       </c>
       <c r="AZ176" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:52">
@@ -12448,7 +12486,7 @@
         <v>11.1615</v>
       </c>
       <c r="AM177" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="AQ177">
         <v>108150</v>
@@ -12478,7 +12516,7 @@
         <v>44.826599999999999</v>
       </c>
       <c r="AZ177" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="178" spans="1:52">
@@ -12659,7 +12697,7 @@
         <v>16.032900000000001</v>
       </c>
       <c r="AM179" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="AQ179">
         <v>42600</v>
@@ -12689,7 +12727,7 @@
         <v>35.7042</v>
       </c>
       <c r="AZ179" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="180" spans="1:52">
@@ -12748,7 +12786,7 @@
         <v>9.1491000000000007</v>
       </c>
       <c r="AM180" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="AQ180">
         <v>168780</v>
@@ -12778,7 +12816,7 @@
         <v>36.740099999999998</v>
       </c>
       <c r="AZ180" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="181" spans="1:52">
@@ -12905,7 +12943,7 @@
         <v>16.666699999999999</v>
       </c>
       <c r="AM182" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="AQ182">
         <v>42600</v>
@@ -12935,7 +12973,7 @@
         <v>37.605600000000003</v>
       </c>
       <c r="AZ182" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="183" spans="1:52">
@@ -12967,10 +13005,10 @@
         <v>1.0673999999999999</v>
       </c>
       <c r="AD183" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="AQ183" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="184" spans="1:52">
@@ -13149,7 +13187,7 @@
         <v>6.4554</v>
       </c>
       <c r="AM185" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AQ185">
         <v>42600</v>
@@ -13179,7 +13217,7 @@
         <v>34.6479</v>
       </c>
       <c r="AZ185" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="186" spans="1:52">
@@ -13238,10 +13276,10 @@
         <v>0.95069999999999999</v>
       </c>
       <c r="AD186" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AQ186" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187" spans="1:52">
@@ -13398,7 +13436,7 @@
         <v>6.3146000000000004</v>
       </c>
       <c r="AM188" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AQ188">
         <v>42600</v>
@@ -13428,7 +13466,7 @@
         <v>34.718299999999999</v>
       </c>
       <c r="AZ188" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="189" spans="1:52">
@@ -13460,10 +13498,10 @@
         <v>0.77659999999999996</v>
       </c>
       <c r="AD189" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AQ189" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:52">
@@ -13665,7 +13703,7 @@
         <v>6.2675999999999998</v>
       </c>
       <c r="AM191" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AQ191">
         <v>42600</v>
@@ -13695,7 +13733,7 @@
         <v>20.7042</v>
       </c>
       <c r="AZ191" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="192" spans="1:52">
@@ -13785,7 +13823,7 @@
         <v>3.2926000000000002</v>
       </c>
       <c r="AM192" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AQ192">
         <v>124530</v>
@@ -13815,7 +13853,7 @@
         <v>28.8123</v>
       </c>
       <c r="AZ192" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="193" spans="1:53">
@@ -13996,7 +14034,7 @@
         <v>6.1501999999999999</v>
       </c>
       <c r="AM194" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="AQ194">
         <v>42600</v>
@@ -14026,7 +14064,7 @@
         <v>16.338000000000001</v>
       </c>
       <c r="AZ194" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195" spans="1:53">
@@ -14061,10 +14099,10 @@
         <v>0.80469999999999997</v>
       </c>
       <c r="AA195" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="AB195" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="AD195">
         <v>121250</v>
@@ -14094,7 +14132,7 @@
         <v>7.8350999999999997</v>
       </c>
       <c r="AM195" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AQ195">
         <v>121260</v>
@@ -14124,7 +14162,7 @@
         <v>30.009899999999998</v>
       </c>
       <c r="AZ195" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:53">
@@ -14189,10 +14227,10 @@
         <v>27.867599999999999</v>
       </c>
       <c r="AZ196" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="BA196" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="197" spans="1:53">

--- a/experiments/organizedData.xlsx
+++ b/experiments/organizedData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="0" windowWidth="17560" windowHeight="14020" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="0" windowWidth="20460" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="173">
   <si>
     <t>Website</t>
   </si>
@@ -372,12 +372,6 @@
     <t>Chunk Size</t>
   </si>
   <si>
-    <t>6. Chunk size: 10 bytes</t>
-  </si>
-  <si>
-    <t>1. chunk size is an important factor, and we experimented with it</t>
-  </si>
-  <si>
     <t>9. What we needed to consider when looking at chunk size was that the proportion of fingerprints needed to represent the same size of content is much bigger when using smaller chunks.</t>
   </si>
   <si>
@@ -495,15 +489,6 @@
     <t>5. BY THE LAST VISIT =&gt; Half the number of bytes</t>
   </si>
   <si>
-    <t>2.RELATIONSHIP btwn % web content (based on cache miss rate) and chunk size</t>
-  </si>
-  <si>
-    <t>3. NOT SHOWN: On the first day, the cache is empty, so 100% of the content needs to be transferred for all chunk sizes</t>
-  </si>
-  <si>
-    <t>4. SHOWN: graph shows data from second day (assume cache has already been filled with data from the first visit)</t>
-  </si>
-  <si>
     <t>5. RESULTS: TREND: We can clearly see that if we use smaller chunk sizes, the percent of content that needs to be send decreases.</t>
   </si>
   <si>
@@ -541,6 +526,18 @@
   </si>
   <si>
     <t>Bumps: the general trend is that there is overlap between the various websites, and the bumps are likely due to evictions</t>
+  </si>
+  <si>
+    <t>1.RELATIONSHIP btwn % web content (based on cache miss rate) and chunk size</t>
+  </si>
+  <si>
+    <t>6. TRANSITION. Chunk size: 10 bytes</t>
+  </si>
+  <si>
+    <t>2. NOT SHOWN: On the first day, the cache is empty, so 100% of the content needs to be transferred for all chunk sizes</t>
+  </si>
+  <si>
+    <t>3. SHOWN: graph shows data from second day (assume cache has already been filled with data from the first visit)</t>
   </si>
 </sst>
 </file>
@@ -5160,8 +5157,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:BA282"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="T69" workbookViewId="0">
-      <selection activeCell="AB87" sqref="AB87"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="S40" workbookViewId="0">
+      <selection activeCell="U61" sqref="U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5933,15 +5930,15 @@
         <v>166026</v>
       </c>
       <c r="W23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:36">
       <c r="W24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AJ24" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -5958,7 +5955,7 @@
         <v>115</v>
       </c>
       <c r="AJ25" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -5990,10 +5987,10 @@
         <v>24</v>
       </c>
       <c r="V26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AJ26" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -6006,10 +6003,10 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="W27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AJ27" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -6053,10 +6050,10 @@
         <v>51.631999999999998</v>
       </c>
       <c r="W28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AJ28" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -6095,7 +6092,7 @@
         <v>19.2624</v>
       </c>
       <c r="V29" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -7296,9 +7293,6 @@
       <c r="D56" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U56" t="s">
-        <v>118</v>
-      </c>
       <c r="AH56">
         <v>20</v>
       </c>
@@ -7317,7 +7311,7 @@
         <v>27</v>
       </c>
       <c r="U57" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="AH57">
         <v>21</v>
@@ -7362,7 +7356,7 @@
         <v>15.253500000000001</v>
       </c>
       <c r="U58" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AH58">
         <v>22</v>
@@ -7371,7 +7365,7 @@
         <v>0.103815363651848</v>
       </c>
       <c r="AK58" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:37">
@@ -7410,7 +7404,7 @@
         <v>14.714700000000001</v>
       </c>
       <c r="U59" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AH59">
         <v>23</v>
@@ -7419,7 +7413,7 @@
         <v>7.018779342723E-2</v>
       </c>
       <c r="AK59" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:37">
@@ -7439,7 +7433,7 @@
         <v>9.6782359228216194E-2</v>
       </c>
       <c r="AK60" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:37">
@@ -7478,7 +7472,7 @@
         <v>5.9238</v>
       </c>
       <c r="U61" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AH61">
         <v>25</v>
@@ -7487,7 +7481,7 @@
         <v>6.7840375586854407E-2</v>
       </c>
       <c r="AK61" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:37">
@@ -7499,7 +7493,7 @@
         <v>27</v>
       </c>
       <c r="U62" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AH62">
         <v>26</v>
@@ -7519,7 +7513,7 @@
         <v>27</v>
       </c>
       <c r="U63" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AH63">
         <v>27</v>
@@ -7537,7 +7531,7 @@
         <v>27</v>
       </c>
       <c r="U64" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AH64">
         <v>28</v>
@@ -7632,7 +7626,7 @@
         <v>46.701900000000002</v>
       </c>
       <c r="U66" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AH66">
         <v>30</v>
@@ -7677,7 +7671,7 @@
         <v>18.890799999999999</v>
       </c>
       <c r="U67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AH67">
         <v>31</v>
@@ -7695,7 +7689,7 @@
         <v>28</v>
       </c>
       <c r="U68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AH68">
         <v>32</v>
@@ -10638,13 +10632,13 @@
         <v>11.1615</v>
       </c>
       <c r="R159" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AD159" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AQ159" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:43">
@@ -10792,7 +10786,7 @@
         <v>60.164299999999997</v>
       </c>
       <c r="AM161" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AQ161">
         <v>42600</v>
@@ -10822,7 +10816,7 @@
         <v>85.492999999999995</v>
       </c>
       <c r="AZ161" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="1:52">
@@ -10908,7 +10902,7 @@
         <v>49.724200000000003</v>
       </c>
       <c r="AM162" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AQ162">
         <v>170400</v>
@@ -10938,7 +10932,7 @@
         <v>74.700699999999998</v>
       </c>
       <c r="AZ162" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163" spans="1:52">
@@ -11140,7 +11134,7 @@
         <v>23.544599999999999</v>
       </c>
       <c r="AM164" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AQ164">
         <v>42600</v>
@@ -11170,7 +11164,7 @@
         <v>45.422499999999999</v>
       </c>
       <c r="AZ164" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165" spans="1:52">
@@ -11229,7 +11223,7 @@
         <v>17.235900000000001</v>
       </c>
       <c r="AM165" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AQ165">
         <v>170400</v>
@@ -11259,7 +11253,7 @@
         <v>32.552799999999998</v>
       </c>
       <c r="AZ165" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="166" spans="1:52">
@@ -11434,7 +11428,7 @@
         <v>10.0939</v>
       </c>
       <c r="AM167" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AQ167">
         <v>42600</v>
@@ -11464,7 +11458,7 @@
         <v>43.028199999999998</v>
       </c>
       <c r="AZ167" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="168" spans="1:52">
@@ -11496,10 +11490,10 @@
         <v>2.8498000000000001</v>
       </c>
       <c r="AD168" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AQ168" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="169" spans="1:52">
@@ -11701,7 +11695,7 @@
         <v>5.9390000000000001</v>
       </c>
       <c r="AM170" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AQ170">
         <v>42600</v>
@@ -11731,7 +11725,7 @@
         <v>19.718299999999999</v>
       </c>
       <c r="AZ170" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="171" spans="1:52">
@@ -11790,7 +11784,7 @@
         <v>10.480499999999999</v>
       </c>
       <c r="AM171" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AQ171">
         <v>142560</v>
@@ -11820,7 +11814,7 @@
         <v>45.1389</v>
       </c>
       <c r="AZ171" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="172" spans="1:52">
@@ -12022,7 +12016,7 @@
         <v>4.1504000000000003</v>
       </c>
       <c r="AM173" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AQ173">
         <v>40980</v>
@@ -12052,7 +12046,7 @@
         <v>34.040999999999997</v>
       </c>
       <c r="AZ173" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="174" spans="1:52">
@@ -12138,7 +12132,7 @@
         <v>5.5164</v>
       </c>
       <c r="AM174" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AQ174">
         <v>127800</v>
@@ -12168,7 +12162,7 @@
         <v>25.399100000000001</v>
       </c>
       <c r="AZ174" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="175" spans="1:52">
@@ -12370,7 +12364,7 @@
         <v>16.549299999999999</v>
       </c>
       <c r="AM176" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AQ176">
         <v>42600</v>
@@ -12400,7 +12394,7 @@
         <v>36.338000000000001</v>
       </c>
       <c r="AZ176" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177" spans="1:52">
@@ -12486,7 +12480,7 @@
         <v>11.1615</v>
       </c>
       <c r="AM177" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AQ177">
         <v>108150</v>
@@ -12516,7 +12510,7 @@
         <v>44.826599999999999</v>
       </c>
       <c r="AZ177" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="178" spans="1:52">
@@ -12697,7 +12691,7 @@
         <v>16.032900000000001</v>
       </c>
       <c r="AM179" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ179">
         <v>42600</v>
@@ -12727,7 +12721,7 @@
         <v>35.7042</v>
       </c>
       <c r="AZ179" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180" spans="1:52">
@@ -12786,7 +12780,7 @@
         <v>9.1491000000000007</v>
       </c>
       <c r="AM180" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AQ180">
         <v>168780</v>
@@ -12816,7 +12810,7 @@
         <v>36.740099999999998</v>
       </c>
       <c r="AZ180" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="181" spans="1:52">
@@ -12943,7 +12937,7 @@
         <v>16.666699999999999</v>
       </c>
       <c r="AM182" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ182">
         <v>42600</v>
@@ -12973,7 +12967,7 @@
         <v>37.605600000000003</v>
       </c>
       <c r="AZ182" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="183" spans="1:52">
@@ -13005,10 +12999,10 @@
         <v>1.0673999999999999</v>
       </c>
       <c r="AD183" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AQ183" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="184" spans="1:52">
@@ -13187,7 +13181,7 @@
         <v>6.4554</v>
       </c>
       <c r="AM185" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AQ185">
         <v>42600</v>
@@ -13217,7 +13211,7 @@
         <v>34.6479</v>
       </c>
       <c r="AZ185" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="186" spans="1:52">
@@ -13276,10 +13270,10 @@
         <v>0.95069999999999999</v>
       </c>
       <c r="AD186" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AQ186" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="1:52">
@@ -13436,7 +13430,7 @@
         <v>6.3146000000000004</v>
       </c>
       <c r="AM188" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AQ188">
         <v>42600</v>
@@ -13466,7 +13460,7 @@
         <v>34.718299999999999</v>
       </c>
       <c r="AZ188" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="189" spans="1:52">
@@ -13498,10 +13492,10 @@
         <v>0.77659999999999996</v>
       </c>
       <c r="AD189" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AQ189" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190" spans="1:52">
@@ -13703,7 +13697,7 @@
         <v>6.2675999999999998</v>
       </c>
       <c r="AM191" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AQ191">
         <v>42600</v>
@@ -13733,7 +13727,7 @@
         <v>20.7042</v>
       </c>
       <c r="AZ191" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="192" spans="1:52">
@@ -13823,7 +13817,7 @@
         <v>3.2926000000000002</v>
       </c>
       <c r="AM192" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AQ192">
         <v>124530</v>
@@ -13853,7 +13847,7 @@
         <v>28.8123</v>
       </c>
       <c r="AZ192" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="1:53">
@@ -14034,7 +14028,7 @@
         <v>6.1501999999999999</v>
       </c>
       <c r="AM194" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AQ194">
         <v>42600</v>
@@ -14064,7 +14058,7 @@
         <v>16.338000000000001</v>
       </c>
       <c r="AZ194" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="195" spans="1:53">
@@ -14099,10 +14093,10 @@
         <v>0.80469999999999997</v>
       </c>
       <c r="AA195" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB195" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AD195">
         <v>121250</v>
@@ -14132,7 +14126,7 @@
         <v>7.8350999999999997</v>
       </c>
       <c r="AM195" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AQ195">
         <v>121260</v>
@@ -14162,7 +14156,7 @@
         <v>30.009899999999998</v>
       </c>
       <c r="AZ195" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="196" spans="1:53">
@@ -14227,10 +14221,10 @@
         <v>27.867599999999999</v>
       </c>
       <c r="AZ196" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BA196" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="197" spans="1:53">
